--- a/Översikt TIERP.xlsx
+++ b/Översikt TIERP.xlsx
@@ -572,7 +572,7 @@
         <v>44376</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>43627</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>44651</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44980</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>43381</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45040</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>44361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>44958</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43768</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44550</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44551</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44662</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>44875</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44950</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44966</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>44970</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43488</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43664</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43777</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44636</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>44651</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>44846</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44887</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44950</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44956</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44977</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>45084</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45105</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43635</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43651</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43847</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>43860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43906</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43930</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43931</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>44218</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>44551</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44560</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44742</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>44788</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>44823</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>44845</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>44852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44894</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44960</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44970</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>44984</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>45160</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>45163</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43336</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43336</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43343</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43355</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43367</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43371</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43378</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43385</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43412</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43416</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>43419</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43419</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43424</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43427</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43434</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43438</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43439</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43440</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>43446</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43447</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43447</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43450</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43450</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43450</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43451</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>43462</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>43476</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43486</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43486</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43488</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43488</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43495</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43496</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43500</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>43514</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>43517</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43528</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43528</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43529</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43536</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43539</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43559</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43567</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43606</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43606</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43612</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43612</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43633</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>43641</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43642</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>43656</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43656</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43668</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43676</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43686</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43692</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43692</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43706</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43707</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>43711</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>43734</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>43738</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>43740</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>43741</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43746</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43747</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43756</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>43761</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>43770</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>43770</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>43774</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>43780</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>43780</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>43780</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43796</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>43797</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43801</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43801</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>43802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>43812</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>43829</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>43839</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>43843</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>43853</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>43859</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43874</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>43875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>43878</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43880</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43882</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43893</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>43896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>43900</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>43901</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43906</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43913</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12314,7 +12314,7 @@
         <v>43913</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>43936</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>43938</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43957</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43958</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>43964</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         <v>43965</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         <v>43983</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12852,7 +12852,7 @@
         <v>43985</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>43985</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>43985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>43993</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44006</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44007</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44008</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44013</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13318,7 +13318,7 @@
         <v>44021</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44022</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>44025</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13494,7 +13494,7 @@
         <v>44029</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13556,7 +13556,7 @@
         <v>44043</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44049</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44056</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44056</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44085</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13851,7 +13851,7 @@
         <v>44088</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44097</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44106</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>44111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>44111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>44116</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14198,7 +14198,7 @@
         <v>44144</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14255,7 +14255,7 @@
         <v>44150</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>44151</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>44154</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>44154</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14483,7 +14483,7 @@
         <v>44154</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>44165</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>44200</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>44208</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         <v>44208</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>44211</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>44214</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44215</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44218</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>44231</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>44237</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>44266</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44270</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44281</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44286</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44286</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>44290</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44291</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44308</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44309</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44323</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>44333</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>44333</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>44335</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44335</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44337</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>44337</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44347</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>44365</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44368</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
         <v>44371</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16407,7 +16407,7 @@
         <v>44382</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44389</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
         <v>44389</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44417</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>44421</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>44427</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44434</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>44438</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>44440</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>44441</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>44446</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44452</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44452</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>44453</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>44453</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17550,7 +17550,7 @@
         <v>44453</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17607,7 +17607,7 @@
         <v>44459</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17669,7 +17669,7 @@
         <v>44459</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>44463</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>44469</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44480</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44481</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44482</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44491</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>44496</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>44496</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18212,7 +18212,7 @@
         <v>44515</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>44529</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18331,7 +18331,7 @@
         <v>44547</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>44548</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>44560</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>44571</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>44578</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18616,7 +18616,7 @@
         <v>44579</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18673,7 +18673,7 @@
         <v>44580</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
         <v>44581</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18787,7 +18787,7 @@
         <v>44581</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18844,7 +18844,7 @@
         <v>44581</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18901,7 +18901,7 @@
         <v>44588</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18958,7 +18958,7 @@
         <v>44595</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44603</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44616</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44644</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44656</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44670</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44677</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44677</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44689</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44696</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44700</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44701</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44704</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>44704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44705</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44708</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>44708</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44713</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>44722</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44725</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>44726</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>44728</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>44732</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44734</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44734</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44735</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20716,7 +20716,7 @@
         <v>44739</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20773,7 +20773,7 @@
         <v>44739</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>44742</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44743</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>44747</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44748</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>44750</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         <v>44750</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>44755</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>44756</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>44769</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21420,7 +21420,7 @@
         <v>44788</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
         <v>44792</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21534,7 +21534,7 @@
         <v>44804</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21591,7 +21591,7 @@
         <v>44804</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21648,7 +21648,7 @@
         <v>44827</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21705,7 +21705,7 @@
         <v>44837</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21762,7 +21762,7 @@
         <v>44843</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44847</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21876,7 +21876,7 @@
         <v>44858</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         <v>44859</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21995,7 +21995,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22052,7 +22052,7 @@
         <v>44865</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22109,7 +22109,7 @@
         <v>44865</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22166,7 +22166,7 @@
         <v>44865</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22228,7 +22228,7 @@
         <v>44874</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
         <v>44880</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         <v>44883</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22399,7 +22399,7 @@
         <v>44887</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22461,7 +22461,7 @@
         <v>44887</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22518,7 +22518,7 @@
         <v>44887</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22575,7 +22575,7 @@
         <v>44888</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22632,7 +22632,7 @@
         <v>44890</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>44894</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44894</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>44903</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22860,7 +22860,7 @@
         <v>44907</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22917,7 +22917,7 @@
         <v>44908</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>44909</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23036,7 +23036,7 @@
         <v>44911</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>44917</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23155,7 +23155,7 @@
         <v>44922</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>44924</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>44924</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>44929</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>44936</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>44945</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>44945</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>44945</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23673,7 +23673,7 @@
         <v>44956</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23730,7 +23730,7 @@
         <v>44957</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23787,7 +23787,7 @@
         <v>44964</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>44964</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44964</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44964</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>44964</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24097,7 +24097,7 @@
         <v>44964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24159,7 +24159,7 @@
         <v>44964</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44964</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>44964</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44966</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44966</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44966</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44971</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44973</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44980</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>44980</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44984</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44984</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44988</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>44991</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>44994</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>45005</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25163,7 +25163,7 @@
         <v>45005</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>45013</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>45013</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>45022</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45027</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>45027</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25520,7 +25520,7 @@
         <v>45028</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25577,7 +25577,7 @@
         <v>45030</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25639,7 +25639,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25696,7 +25696,7 @@
         <v>45040</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>45040</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>45041</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>45043</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         <v>45046</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25996,7 +25996,7 @@
         <v>45046</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26053,7 +26053,7 @@
         <v>45046</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26110,7 +26110,7 @@
         <v>45049</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26167,7 +26167,7 @@
         <v>45057</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26229,7 +26229,7 @@
         <v>45057</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26286,7 +26286,7 @@
         <v>45061</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26348,7 +26348,7 @@
         <v>45061</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26410,7 +26410,7 @@
         <v>45061</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>45062</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45063</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45063</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45072</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>45075</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26772,7 +26772,7 @@
         <v>45080</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26829,7 +26829,7 @@
         <v>45084</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26886,7 +26886,7 @@
         <v>45092</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26943,7 +26943,7 @@
         <v>45092</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27000,7 +27000,7 @@
         <v>45092</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27057,7 +27057,7 @@
         <v>45098</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27119,7 +27119,7 @@
         <v>45099</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27181,7 +27181,7 @@
         <v>45105</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27238,7 +27238,7 @@
         <v>45106</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27295,7 +27295,7 @@
         <v>45111</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
         <v>45119</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27414,7 +27414,7 @@
         <v>45127</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27471,7 +27471,7 @@
         <v>45130</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27528,7 +27528,7 @@
         <v>45133</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27590,7 +27590,7 @@
         <v>45135</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>45135</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45138</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>45142</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45146</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27900,7 +27900,7 @@
         <v>45148</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45153</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>45161</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>45162</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>45167</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>45168</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>

--- a/Översikt TIERP.xlsx
+++ b/Översikt TIERP.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y438"/>
+  <dimension ref="A1:Y439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44376</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>43627</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>44651</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44980</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>43381</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45040</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>44361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>44958</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43768</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44550</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44551</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44662</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>44875</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44950</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44966</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>44970</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43488</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43664</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43777</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44636</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>44651</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>44846</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44887</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44950</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44956</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44977</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>45084</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45105</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43635</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43651</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43847</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>43860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43906</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43930</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43931</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>44218</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>44551</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44560</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44742</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>44788</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>44823</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>44845</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>44852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44894</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44960</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44970</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>44984</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>45160</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>45163</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43336</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43336</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43343</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43355</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43367</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43371</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43378</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43385</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43412</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43416</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>43419</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43419</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43424</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43427</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43434</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43438</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43439</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43440</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>43446</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43447</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43447</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43450</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43450</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43450</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43451</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>43462</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>43475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>43476</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43486</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43486</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43488</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43488</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43495</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43496</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43500</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>43514</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>43517</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43528</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43528</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43529</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43536</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43539</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43559</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43567</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43606</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43606</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43612</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43612</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43633</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>43641</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43642</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>43656</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43656</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43668</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43676</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43686</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43692</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43692</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43706</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43707</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>43711</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>43734</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>43738</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>43740</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>43741</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43746</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43747</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43756</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>43761</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>43770</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>43770</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>43774</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>43780</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>43780</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>43780</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43796</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>43797</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43801</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43801</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>43802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>43812</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>43829</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>43839</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>43843</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>43853</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>43859</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43874</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>43875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>43878</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43880</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43882</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43893</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>43896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>43900</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>43901</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43906</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>43913</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12314,7 +12314,7 @@
         <v>43913</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>43936</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>43938</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43957</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43958</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>43964</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         <v>43965</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         <v>43983</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12852,7 +12852,7 @@
         <v>43985</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>43985</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>43985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>43993</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44006</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44007</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44008</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44013</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13318,7 +13318,7 @@
         <v>44021</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44022</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>44025</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13494,7 +13494,7 @@
         <v>44029</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13556,7 +13556,7 @@
         <v>44043</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44049</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44056</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44056</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44085</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13851,7 +13851,7 @@
         <v>44088</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44097</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44106</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>44111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>44111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>44116</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14198,7 +14198,7 @@
         <v>44144</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14255,7 +14255,7 @@
         <v>44150</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>44151</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>44154</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>44154</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14483,7 +14483,7 @@
         <v>44154</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>44165</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>44200</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>44208</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         <v>44208</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>44211</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>44214</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44215</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44218</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>44231</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>44237</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>44266</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44270</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44281</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44286</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44286</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>44290</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44291</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44308</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44309</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44323</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>44333</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>44333</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>44335</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44335</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44337</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>44337</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44347</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>44365</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44368</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
         <v>44371</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16407,7 +16407,7 @@
         <v>44382</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44389</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
         <v>44389</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44417</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>44421</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>44427</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44434</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>44438</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>44440</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>44441</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>44446</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44452</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44452</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>44453</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>44453</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17550,7 +17550,7 @@
         <v>44453</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17607,7 +17607,7 @@
         <v>44459</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17669,7 +17669,7 @@
         <v>44459</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>44463</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>44469</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44480</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44481</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44482</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44491</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>44496</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>44496</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18212,7 +18212,7 @@
         <v>44515</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>44529</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18331,7 +18331,7 @@
         <v>44547</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>44548</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>44560</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>44571</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>44578</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18616,7 +18616,7 @@
         <v>44579</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18673,7 +18673,7 @@
         <v>44580</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
         <v>44581</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18787,7 +18787,7 @@
         <v>44581</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18844,7 +18844,7 @@
         <v>44581</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18901,7 +18901,7 @@
         <v>44588</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18958,7 +18958,7 @@
         <v>44595</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44603</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44616</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44644</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44656</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44670</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44677</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44677</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44689</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44696</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44700</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44701</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44704</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>44704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44705</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44708</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>44708</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44713</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>44722</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44725</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>44726</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>44728</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>44732</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44734</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44734</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44735</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20716,7 +20716,7 @@
         <v>44739</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20773,7 +20773,7 @@
         <v>44739</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>44742</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44743</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>44747</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44748</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>44750</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         <v>44750</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>44755</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>44756</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>44769</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21420,7 +21420,7 @@
         <v>44788</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
         <v>44792</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21534,7 +21534,7 @@
         <v>44804</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21591,7 +21591,7 @@
         <v>44804</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21648,7 +21648,7 @@
         <v>44827</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21705,7 +21705,7 @@
         <v>44837</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21762,7 +21762,7 @@
         <v>44843</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44847</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21876,7 +21876,7 @@
         <v>44858</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         <v>44859</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21995,7 +21995,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22052,7 +22052,7 @@
         <v>44865</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22109,7 +22109,7 @@
         <v>44865</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22166,7 +22166,7 @@
         <v>44865</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22228,7 +22228,7 @@
         <v>44874</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
         <v>44880</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         <v>44883</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22399,7 +22399,7 @@
         <v>44887</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22461,7 +22461,7 @@
         <v>44887</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22518,7 +22518,7 @@
         <v>44887</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22575,7 +22575,7 @@
         <v>44888</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22632,7 +22632,7 @@
         <v>44890</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>44894</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44894</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>44903</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22860,7 +22860,7 @@
         <v>44907</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22917,7 +22917,7 @@
         <v>44908</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>44909</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23036,7 +23036,7 @@
         <v>44911</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>44917</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23155,7 +23155,7 @@
         <v>44922</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>44924</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>44924</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>44929</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>44936</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>44945</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>44945</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>44945</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23673,7 +23673,7 @@
         <v>44956</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23730,7 +23730,7 @@
         <v>44957</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23787,7 +23787,7 @@
         <v>44964</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>44964</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44964</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44964</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>44964</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24097,7 +24097,7 @@
         <v>44964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24159,7 +24159,7 @@
         <v>44964</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44964</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>44964</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44966</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44966</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44966</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44971</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44973</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44980</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>44980</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44984</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44984</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44988</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>44991</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>44994</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>45005</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25163,7 +25163,7 @@
         <v>45005</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>45013</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>45013</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>45022</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45027</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>45027</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25520,7 +25520,7 @@
         <v>45028</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25577,7 +25577,7 @@
         <v>45030</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25639,7 +25639,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25696,7 +25696,7 @@
         <v>45040</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>45040</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>45041</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>45043</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         <v>45046</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25996,7 +25996,7 @@
         <v>45046</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26053,7 +26053,7 @@
         <v>45046</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26110,7 +26110,7 @@
         <v>45049</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26167,7 +26167,7 @@
         <v>45057</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26229,7 +26229,7 @@
         <v>45057</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26286,7 +26286,7 @@
         <v>45061</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26348,7 +26348,7 @@
         <v>45061</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26410,7 +26410,7 @@
         <v>45061</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>45062</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45063</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45063</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45072</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>45075</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26772,7 +26772,7 @@
         <v>45080</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26829,7 +26829,7 @@
         <v>45084</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26886,7 +26886,7 @@
         <v>45092</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26943,7 +26943,7 @@
         <v>45092</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27000,7 +27000,7 @@
         <v>45092</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27057,7 +27057,7 @@
         <v>45098</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27119,7 +27119,7 @@
         <v>45099</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27181,7 +27181,7 @@
         <v>45105</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27238,7 +27238,7 @@
         <v>45106</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27295,7 +27295,7 @@
         <v>45111</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
         <v>45119</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27414,7 +27414,7 @@
         <v>45127</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27471,7 +27471,7 @@
         <v>45130</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27528,7 +27528,7 @@
         <v>45133</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27590,7 +27590,7 @@
         <v>45135</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>45135</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45138</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>45142</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45146</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27900,7 +27900,7 @@
         <v>45148</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45153</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>45161</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>45162</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>45167</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
       </c>
       <c r="R437" s="2" t="inlineStr"/>
     </row>
-    <row r="438">
+    <row r="438" ht="15" customHeight="1">
       <c r="A438" t="inlineStr">
         <is>
           <t>A 39927-2023</t>
@@ -28205,7 +28205,7 @@
         <v>45168</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28256,6 +28256,68 @@
         <v>0</v>
       </c>
       <c r="R438" s="2" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>A 41182-2023</t>
+        </is>
+      </c>
+      <c r="B439" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C439" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
+      <c r="G439" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0</v>
+      </c>
+      <c r="I439" t="n">
+        <v>0</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0</v>
+      </c>
+      <c r="L439" t="n">
+        <v>0</v>
+      </c>
+      <c r="M439" t="n">
+        <v>0</v>
+      </c>
+      <c r="N439" t="n">
+        <v>0</v>
+      </c>
+      <c r="O439" t="n">
+        <v>0</v>
+      </c>
+      <c r="P439" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q439" t="n">
+        <v>0</v>
+      </c>
+      <c r="R439" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt TIERP.xlsx
+++ b/Översikt TIERP.xlsx
@@ -572,7 +572,7 @@
         <v>44376</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>43627</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>44651</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44980</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>43381</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45040</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>44361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>44958</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43768</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44550</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44551</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44662</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>44875</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44950</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44966</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>44970</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43488</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43664</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43777</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44636</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>44651</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>44846</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44887</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44950</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44956</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44977</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>45084</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45105</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43635</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43651</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43847</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>43860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43906</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43930</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43931</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>44218</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>44551</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44560</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4921,14 +4921,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 7505-2022</t>
+          <t>A 5454-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44607</v>
+        <v>44595</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4940,22 +4940,17 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -4970,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
@@ -4980,45 +4975,49 @@
       </c>
       <c r="R50" s="2" t="inlineStr">
         <is>
-          <t>Grentaggsvamp</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 7505-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 5454-2022.xlsx")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 7505-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 5454-2022.png")</f>
+        <v/>
+      </c>
+      <c r="U50">
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/knärot/A 5454-2022.png")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 7505-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 5454-2022.docx")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 7505-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 5454-2022.docx")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 7505-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 5454-2022.docx")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 7505-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 5454-2022.docx")</f>
         <v/>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 27422-2022</t>
+          <t>A 7505-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44742</v>
+        <v>44607</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5030,18 +5029,23 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
         <v>1</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
@@ -5055,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -5065,45 +5069,45 @@
       </c>
       <c r="R51" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Grentaggsvamp</t>
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 27422-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 7505-2022.xlsx")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 27422-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 7505-2022.png")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 27422-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 7505-2022.docx")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 27422-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 7505-2022.docx")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 27422-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 7505-2022.docx")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 27422-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 7505-2022.docx")</f>
         <v/>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 33375-2022</t>
+          <t>A 27422-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44788</v>
+        <v>44742</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5116,13 +5120,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -5131,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -5140,55 +5144,55 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
       </c>
       <c r="R52" s="2" t="inlineStr">
         <is>
-          <t>Fältgentiana</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 33375-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 27422-2022.xlsx")</f>
         <v/>
       </c>
       <c r="T52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 33375-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 27422-2022.png")</f>
         <v/>
       </c>
       <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 33375-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 27422-2022.docx")</f>
         <v/>
       </c>
       <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 33375-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 27422-2022.docx")</f>
         <v/>
       </c>
       <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 33375-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 27422-2022.docx")</f>
         <v/>
       </c>
       <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 33375-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 27422-2022.docx")</f>
         <v/>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 40362-2022</t>
+          <t>A 33375-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44823</v>
+        <v>44788</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5200,29 +5204,24 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>18.5</v>
+        <v>4.7</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
         <v>1</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
@@ -5230,55 +5229,55 @@
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
       </c>
       <c r="R53" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Fältgentiana</t>
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 40362-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 33375-2022.xlsx")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 40362-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 33375-2022.png")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 40362-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 33375-2022.docx")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 40362-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 33375-2022.docx")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 40362-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 33375-2022.docx")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 40362-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 33375-2022.docx")</f>
         <v/>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 45536-2022</t>
+          <t>A 40362-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44845</v>
+        <v>44823</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5292,17 +5291,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>18.5</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -5330,45 +5329,45 @@
       </c>
       <c r="R54" s="2" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 45536-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 40362-2022.xlsx")</f>
         <v/>
       </c>
       <c r="T54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 45536-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 40362-2022.png")</f>
         <v/>
       </c>
       <c r="V54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 45536-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 40362-2022.docx")</f>
         <v/>
       </c>
       <c r="W54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 45536-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 40362-2022.docx")</f>
         <v/>
       </c>
       <c r="X54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 45536-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 40362-2022.docx")</f>
         <v/>
       </c>
       <c r="Y54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 45536-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 40362-2022.docx")</f>
         <v/>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 47227-2022</t>
+          <t>A 45536-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44852</v>
+        <v>44845</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5380,11 +5379,16 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>5.9</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -5415,45 +5419,45 @@
       </c>
       <c r="R55" s="2" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="S55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 47227-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 45536-2022.xlsx")</f>
         <v/>
       </c>
       <c r="T55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 47227-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 45536-2022.png")</f>
         <v/>
       </c>
       <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 47227-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 45536-2022.docx")</f>
         <v/>
       </c>
       <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 47227-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 45536-2022.docx")</f>
         <v/>
       </c>
       <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 47227-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 45536-2022.docx")</f>
         <v/>
       </c>
       <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 47227-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 45536-2022.docx")</f>
         <v/>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 56968-2022</t>
+          <t>A 47227-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44894</v>
+        <v>44852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5466,10 +5470,10 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -5500,45 +5504,45 @@
       </c>
       <c r="R56" s="2" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="S56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 56968-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 47227-2022.xlsx")</f>
         <v/>
       </c>
       <c r="T56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 56968-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 47227-2022.png")</f>
         <v/>
       </c>
       <c r="V56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 56968-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 47227-2022.docx")</f>
         <v/>
       </c>
       <c r="W56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 56968-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 47227-2022.docx")</f>
         <v/>
       </c>
       <c r="X56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 56968-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 47227-2022.docx")</f>
         <v/>
       </c>
       <c r="Y56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 56968-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 47227-2022.docx")</f>
         <v/>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 5472-2023</t>
+          <t>A 56968-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44960</v>
+        <v>44894</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5550,19 +5554,14 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>7.8</v>
+        <v>2.8</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -5590,45 +5589,45 @@
       </c>
       <c r="R57" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="S57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 5472-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 56968-2022.xlsx")</f>
         <v/>
       </c>
       <c r="T57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 5472-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 56968-2022.png")</f>
         <v/>
       </c>
       <c r="V57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 5472-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 56968-2022.docx")</f>
         <v/>
       </c>
       <c r="W57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 5472-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 56968-2022.docx")</f>
         <v/>
       </c>
       <c r="X57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 5472-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 56968-2022.docx")</f>
         <v/>
       </c>
       <c r="Y57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 5472-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 56968-2022.docx")</f>
         <v/>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 7309-2023</t>
+          <t>A 5472-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44970</v>
+        <v>44960</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5646,7 +5645,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>13.7</v>
+        <v>7.8</v>
       </c>
       <c r="H58" t="n">
         <v>1</v>
@@ -5684,41 +5683,41 @@
         </is>
       </c>
       <c r="S58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 7309-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 5472-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 7309-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 5472-2023.png")</f>
         <v/>
       </c>
       <c r="V58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 7309-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 5472-2023.docx")</f>
         <v/>
       </c>
       <c r="W58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 7309-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 5472-2023.docx")</f>
         <v/>
       </c>
       <c r="X58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 7309-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 5472-2023.docx")</f>
         <v/>
       </c>
       <c r="Y58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 7309-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 5472-2023.docx")</f>
         <v/>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 9706-2023</t>
+          <t>A 7309-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44984</v>
+        <v>44970</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5736,16 +5735,16 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>12.2</v>
+        <v>13.7</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -5760,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -5770,45 +5769,45 @@
       </c>
       <c r="R59" s="2" t="inlineStr">
         <is>
-          <t>Klasefibbla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 9706-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 7309-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 9706-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 7309-2023.png")</f>
         <v/>
       </c>
       <c r="V59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 9706-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 7309-2023.docx")</f>
         <v/>
       </c>
       <c r="W59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 9706-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 7309-2023.docx")</f>
         <v/>
       </c>
       <c r="X59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 9706-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 7309-2023.docx")</f>
         <v/>
       </c>
       <c r="Y59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 9706-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 7309-2023.docx")</f>
         <v/>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 38151-2023</t>
+          <t>A 9706-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45160</v>
+        <v>44984</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5820,23 +5819,28 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>1.4</v>
+        <v>12.2</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
         <v>1</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -5848,52 +5852,52 @@
         <v>1</v>
       </c>
       <c r="P60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
       </c>
       <c r="R60" s="2" t="inlineStr">
         <is>
-          <t>Tornseglare</t>
+          <t>Klasefibbla</t>
         </is>
       </c>
       <c r="S60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 38151-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 9706-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 38151-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 9706-2023.png")</f>
         <v/>
       </c>
       <c r="V60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 38151-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 9706-2023.docx")</f>
         <v/>
       </c>
       <c r="W60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 38151-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 9706-2023.docx")</f>
         <v/>
       </c>
       <c r="X60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 38151-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 9706-2023.docx")</f>
         <v/>
       </c>
       <c r="Y60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 38151-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 9706-2023.docx")</f>
         <v/>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 38821-2023</t>
+          <t>A 38151-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45163</v>
+        <v>45160</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5906,7 +5910,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>20.3</v>
+        <v>1.4</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
@@ -5921,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -5930,55 +5934,55 @@
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
       </c>
       <c r="R61" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tornseglare</t>
         </is>
       </c>
       <c r="S61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 38821-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 38151-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 38821-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 38151-2023.png")</f>
         <v/>
       </c>
       <c r="V61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 38821-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 38151-2023.docx")</f>
         <v/>
       </c>
       <c r="W61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 38821-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 38151-2023.docx")</f>
         <v/>
       </c>
       <c r="X61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 38821-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 38151-2023.docx")</f>
         <v/>
       </c>
       <c r="Y61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 38821-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 38151-2023.docx")</f>
         <v/>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 38118-2018</t>
+          <t>A 38821-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43336</v>
+        <v>45163</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5990,16 +5994,11 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>4.8</v>
+        <v>20.3</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -6026,21 +6025,49 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
-      </c>
-      <c r="R62" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R62" s="2" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S62">
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 38821-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T62">
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 38821-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V62">
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 38821-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W62">
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 38821-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X62">
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 38821-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y62">
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 38821-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 38065-2018</t>
+          <t>A 38118-2018</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
         <v>43336</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6058,7 +6085,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>9.800000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -6095,14 +6122,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 40097-2018</t>
+          <t>A 38065-2018</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>43343</v>
+        <v>43336</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6116,11 +6143,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -6157,14 +6184,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 44233-2018</t>
+          <t>A 40097-2018</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43355</v>
+        <v>43343</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6176,8 +6203,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -6214,14 +6246,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 46078-2018</t>
+          <t>A 44233-2018</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43367</v>
+        <v>43355</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6234,7 +6266,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -6271,14 +6303,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 59667-2018</t>
+          <t>A 46078-2018</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>43371</v>
+        <v>43367</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6288,11 +6320,6 @@
       <c r="E67" t="inlineStr">
         <is>
           <t>TIERP</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6333,14 +6360,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 59719-2018</t>
+          <t>A 59667-2018</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>43378</v>
+        <v>43371</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6352,8 +6379,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -6390,14 +6422,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 60291-2018</t>
+          <t>A 59719-2018</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43385</v>
+        <v>43378</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6410,7 +6442,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.6</v>
+        <v>5.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -6447,14 +6479,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 60035-2018</t>
+          <t>A 60291-2018</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43412</v>
+        <v>43385</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6466,13 +6498,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -6509,14 +6536,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 62436-2018</t>
+          <t>A 60035-2018</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43416</v>
+        <v>43412</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6534,7 +6561,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6571,14 +6598,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 59700-2018</t>
+          <t>A 62436-2018</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43419</v>
+        <v>43416</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6592,11 +6619,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6633,14 +6660,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 59440-2018</t>
+          <t>A 59700-2018</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
         <v>43419</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6654,11 +6681,11 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>7.3</v>
+        <v>1.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6695,14 +6722,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 61548-2018</t>
+          <t>A 59440-2018</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>43424</v>
+        <v>43419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6720,7 +6747,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.4</v>
+        <v>7.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6757,14 +6784,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 63525-2018</t>
+          <t>A 61548-2018</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>43427</v>
+        <v>43424</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6776,8 +6803,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6814,14 +6846,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 67716-2018</t>
+          <t>A 63525-2018</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43434</v>
+        <v>43427</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6834,7 +6866,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6871,14 +6903,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 66869-2018</t>
+          <t>A 67716-2018</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43438</v>
+        <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6891,7 +6923,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6928,14 +6960,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 66942-2018</t>
+          <t>A 66869-2018</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6948,7 +6980,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6985,14 +7017,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 66868-2018</t>
+          <t>A 66942-2018</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7005,7 +7037,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -7042,14 +7074,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 67573-2018</t>
+          <t>A 66868-2018</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>43439</v>
+        <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7062,7 +7094,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -7099,14 +7131,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 67819-2018</t>
+          <t>A 67573-2018</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>43440</v>
+        <v>43439</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7118,13 +7150,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>6.1</v>
+        <v>4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -7161,14 +7188,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 69404-2018</t>
+          <t>A 67819-2018</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43446</v>
+        <v>43440</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7182,11 +7209,11 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -7223,14 +7250,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 69346-2018</t>
+          <t>A 69404-2018</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
         <v>43446</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7248,7 +7275,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -7285,14 +7312,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 69434-2018</t>
+          <t>A 69346-2018</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7310,7 +7337,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -7347,14 +7374,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 69698-2018</t>
+          <t>A 69434-2018</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>43447</v>
+        <v>43446</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7372,7 +7399,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -7409,14 +7436,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 69700-2018</t>
+          <t>A 69698-2018</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
         <v>43447</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7434,7 +7461,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -7471,14 +7498,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 70373-2018</t>
+          <t>A 69700-2018</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>43450</v>
+        <v>43447</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7490,8 +7517,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -7528,14 +7560,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 70376-2018</t>
+          <t>A 70373-2018</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
         <v>43450</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7585,14 +7617,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 70375-2018</t>
+          <t>A 70376-2018</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
         <v>43450</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7605,7 +7637,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7642,14 +7674,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 70541-2018</t>
+          <t>A 70375-2018</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>43451</v>
+        <v>43450</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7661,13 +7693,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>10.4</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7704,14 +7731,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 72538-2018</t>
+          <t>A 70541-2018</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>43462</v>
+        <v>43451</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7723,8 +7750,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>1.7</v>
+        <v>10.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7761,14 +7793,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 2216-2019</t>
+          <t>A 72538-2018</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>43475</v>
+        <v>43462</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7781,7 +7813,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>8.300000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7818,14 +7850,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 2462-2019</t>
+          <t>A 2216-2019</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>43476</v>
+        <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7838,7 +7870,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7875,14 +7907,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 4504-2019</t>
+          <t>A 2462-2019</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>43486</v>
+        <v>43476</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7895,7 +7927,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7932,14 +7964,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 4500-2019</t>
+          <t>A 4504-2019</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
         <v>43486</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7952,7 +7984,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7989,14 +8021,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 5473-2019</t>
+          <t>A 4500-2019</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>43488</v>
+        <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8009,7 +8041,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -8046,14 +8078,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 5199-2019</t>
+          <t>A 5473-2019</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
         <v>43488</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8066,7 +8098,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>7.9</v>
+        <v>1.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -8103,14 +8135,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 5224-2019</t>
+          <t>A 5199-2019</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8123,7 +8155,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>16.5</v>
+        <v>7.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -8160,14 +8192,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 6898-2019</t>
+          <t>A 5224-2019</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>43495</v>
+        <v>43488</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8180,7 +8212,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.5</v>
+        <v>16.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -8217,14 +8249,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 7157-2019</t>
+          <t>A 6898-2019</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>43496</v>
+        <v>43495</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8237,7 +8269,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -8274,14 +8306,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 7701-2019</t>
+          <t>A 7157-2019</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>43500</v>
+        <v>43496</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8294,7 +8326,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -8331,14 +8363,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 10816-2019</t>
+          <t>A 7701-2019</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>43514</v>
+        <v>43500</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8351,7 +8383,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -8388,14 +8420,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 11499-2019</t>
+          <t>A 10816-2019</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>43517</v>
+        <v>43514</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8408,7 +8440,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>11.7</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -8445,14 +8477,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 11813-2019</t>
+          <t>A 11499-2019</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>43521</v>
+        <v>43517</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8465,7 +8497,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.8</v>
+        <v>11.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -8502,14 +8534,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 12174-2019</t>
+          <t>A 11813-2019</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>43522</v>
+        <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8522,7 +8554,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -8559,14 +8591,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 13203-2019</t>
+          <t>A 12174-2019</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>43528</v>
+        <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8616,14 +8648,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 13261-2019</t>
+          <t>A 13203-2019</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
         <v>43528</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8636,7 +8668,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5.8</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8673,14 +8705,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 13422-2019</t>
+          <t>A 13261-2019</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>43529</v>
+        <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8692,13 +8724,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>5.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8735,14 +8762,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 14377-2019</t>
+          <t>A 13422-2019</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>43536</v>
+        <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8754,8 +8781,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8792,14 +8824,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 14703-2019</t>
+          <t>A 14377-2019</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>43539</v>
+        <v>43536</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8812,7 +8844,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8849,14 +8881,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 18466-2019</t>
+          <t>A 14703-2019</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>43559</v>
+        <v>43539</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8869,7 +8901,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8906,14 +8938,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 19791-2019</t>
+          <t>A 18466-2019</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>43567</v>
+        <v>43559</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8926,7 +8958,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6.2</v>
+        <v>2.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8963,14 +8995,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 25502-2019</t>
+          <t>A 19791-2019</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>43606</v>
+        <v>43567</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8983,7 +9015,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.2</v>
+        <v>6.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -9020,14 +9052,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 25498-2019</t>
+          <t>A 25502-2019</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
         <v>43606</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9040,7 +9072,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -9077,14 +9109,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 26366-2019</t>
+          <t>A 25498-2019</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>43612</v>
+        <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9097,7 +9129,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -9134,14 +9166,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 26371-2019</t>
+          <t>A 26366-2019</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
         <v>43612</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9154,7 +9186,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -9191,14 +9223,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 29792-2019</t>
+          <t>A 26371-2019</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>43633</v>
+        <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9210,13 +9242,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -9253,14 +9280,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 31319-2019</t>
+          <t>A 29792-2019</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>43641</v>
+        <v>43633</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9278,7 +9305,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -9315,14 +9342,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 31884-2019</t>
+          <t>A 31319-2019</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>43642</v>
+        <v>43641</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9334,8 +9361,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -9372,14 +9404,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 33670-2019</t>
+          <t>A 31884-2019</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>43651</v>
+        <v>43642</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9389,11 +9421,6 @@
       <c r="E120" t="inlineStr">
         <is>
           <t>TIERP</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -9434,14 +9461,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 34386-2019</t>
+          <t>A 33670-2019</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>43656</v>
+        <v>43651</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9453,8 +9480,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -9491,14 +9523,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 34392-2019</t>
+          <t>A 34386-2019</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
         <v>43656</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9511,7 +9543,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -9548,14 +9580,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 36019-2019</t>
+          <t>A 34392-2019</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>43668</v>
+        <v>43656</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9567,13 +9599,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9610,14 +9637,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 37114-2019</t>
+          <t>A 36019-2019</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>43676</v>
+        <v>43668</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9629,8 +9656,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9667,14 +9699,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 39554-2019</t>
+          <t>A 37114-2019</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>43686</v>
+        <v>43676</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9687,7 +9719,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9724,14 +9756,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 39914-2019</t>
+          <t>A 39554-2019</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>43692</v>
+        <v>43686</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9744,7 +9776,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9781,14 +9813,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 39911-2019</t>
+          <t>A 39914-2019</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
         <v>43692</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9801,7 +9833,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>5.2</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9838,14 +9870,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 43535-2019</t>
+          <t>A 39911-2019</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>43706</v>
+        <v>43692</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9858,7 +9890,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.8</v>
+        <v>5.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9895,14 +9927,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 43625-2019</t>
+          <t>A 43535-2019</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>43707</v>
+        <v>43706</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9914,13 +9946,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9957,14 +9984,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 44569-2019</t>
+          <t>A 43625-2019</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>43711</v>
+        <v>43707</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9978,11 +10005,11 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -10019,14 +10046,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 49877-2019</t>
+          <t>A 44569-2019</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>43733</v>
+        <v>43711</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10038,8 +10065,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -10076,14 +10108,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 49900-2019</t>
+          <t>A 49877-2019</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10096,7 +10128,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -10133,14 +10165,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 50156-2019</t>
+          <t>A 49900-2019</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>43734</v>
+        <v>43733</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10153,7 +10185,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -10190,14 +10222,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 50858-2019</t>
+          <t>A 50156-2019</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>43738</v>
+        <v>43734</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10210,7 +10242,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -10247,14 +10279,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 51488-2019</t>
+          <t>A 50858-2019</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>43740</v>
+        <v>43738</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10267,7 +10299,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -10304,14 +10336,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 51796-2019</t>
+          <t>A 51488-2019</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>43741</v>
+        <v>43740</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10324,7 +10356,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -10361,14 +10393,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 52831-2019</t>
+          <t>A 51796-2019</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>43746</v>
+        <v>43741</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10381,7 +10413,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -10418,14 +10450,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 52955-2019</t>
+          <t>A 52831-2019</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>43747</v>
+        <v>43746</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10438,7 +10470,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -10475,14 +10507,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 56380-2019</t>
+          <t>A 52955-2019</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>43756</v>
+        <v>43747</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10494,13 +10526,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>5.7</v>
+        <v>1.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -10537,14 +10564,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 55944-2019</t>
+          <t>A 56380-2019</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>43761</v>
+        <v>43756</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10556,8 +10583,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10594,14 +10626,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 58276-2019</t>
+          <t>A 55944-2019</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>43770</v>
+        <v>43761</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10614,7 +10646,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10651,14 +10683,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 59227-2019</t>
+          <t>A 58276-2019</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
         <v>43770</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10670,13 +10702,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>8.4</v>
+        <v>3.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10713,14 +10740,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 59058-2019</t>
+          <t>A 59227-2019</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>43774</v>
+        <v>43770</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10738,7 +10765,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.6</v>
+        <v>8.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10775,14 +10802,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 60222-2019</t>
+          <t>A 59058-2019</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>43780</v>
+        <v>43774</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10794,8 +10821,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10832,14 +10864,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 60230-2019</t>
+          <t>A 60222-2019</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
         <v>43780</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10852,7 +10884,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10889,14 +10921,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 61322-2019</t>
+          <t>A 60230-2019</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
         <v>43780</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10908,13 +10940,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10951,14 +10978,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 63872-2019</t>
+          <t>A 61322-2019</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>43796</v>
+        <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10976,7 +11003,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -11013,14 +11040,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 64252-2019</t>
+          <t>A 63872-2019</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>43797</v>
+        <v>43796</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11032,8 +11059,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -11070,14 +11102,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 64983-2019</t>
+          <t>A 64252-2019</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>43801</v>
+        <v>43797</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11090,7 +11122,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -11127,14 +11159,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 64986-2019</t>
+          <t>A 64983-2019</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
         <v>43801</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11147,7 +11179,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -11184,14 +11216,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 65087-2019</t>
+          <t>A 64986-2019</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>43802</v>
+        <v>43801</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11204,7 +11236,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -11241,14 +11273,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 67253-2019</t>
+          <t>A 65087-2019</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>43812</v>
+        <v>43802</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11261,7 +11293,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -11298,14 +11330,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 69141-2019</t>
+          <t>A 67253-2019</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>43829</v>
+        <v>43812</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11317,13 +11349,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>20.5</v>
+        <v>1.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -11360,14 +11387,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 962-2020</t>
+          <t>A 69141-2019</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>43839</v>
+        <v>43829</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11379,8 +11406,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>1.6</v>
+        <v>20.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -11417,14 +11449,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 1432-2020</t>
+          <t>A 962-2020</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>43843</v>
+        <v>43839</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11437,7 +11469,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -11474,14 +11506,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 3734-2020</t>
+          <t>A 1432-2020</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>43853</v>
+        <v>43843</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11494,7 +11526,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -11531,14 +11563,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 4899-2020</t>
+          <t>A 3734-2020</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>43859</v>
+        <v>43853</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11550,13 +11582,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -11593,14 +11620,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 5048-2020</t>
+          <t>A 4899-2020</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
         <v>43859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11614,11 +11641,11 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>6.3</v>
+        <v>1.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11655,14 +11682,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 8214-2020</t>
+          <t>A 5048-2020</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>43874</v>
+        <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11674,8 +11701,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>0.5</v>
+        <v>6.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11712,14 +11744,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 8703-2020</t>
+          <t>A 8214-2020</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>43875</v>
+        <v>43874</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11732,7 +11764,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11769,14 +11801,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 8757-2020</t>
+          <t>A 8703-2020</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>43878</v>
+        <v>43875</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11789,7 +11821,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11826,14 +11858,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 9334-2020</t>
+          <t>A 8757-2020</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>43880</v>
+        <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11846,7 +11878,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11883,14 +11915,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 10039-2020</t>
+          <t>A 9334-2020</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>43882</v>
+        <v>43880</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11902,13 +11934,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>4.9</v>
+        <v>1.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11945,14 +11972,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 11433-2020</t>
+          <t>A 10039-2020</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>43893</v>
+        <v>43882</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11970,7 +11997,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.7</v>
+        <v>4.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -12007,14 +12034,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 12427-2020</t>
+          <t>A 11433-2020</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>43896</v>
+        <v>43893</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12026,8 +12053,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -12064,14 +12096,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 12912-2020</t>
+          <t>A 12427-2020</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>43900</v>
+        <v>43896</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12083,13 +12115,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -12126,14 +12153,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 14627-2020</t>
+          <t>A 12912-2020</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12151,7 +12178,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -12188,14 +12215,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 14017-2020</t>
+          <t>A 14627-2020</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>43906</v>
+        <v>43901</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12207,8 +12234,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -12245,14 +12277,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 15326-2020</t>
+          <t>A 14017-2020</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12264,13 +12296,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -12307,14 +12334,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 15233-2020</t>
+          <t>A 15326-2020</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
         <v>43913</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12332,7 +12359,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -12369,14 +12396,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 19136-2020</t>
+          <t>A 15233-2020</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>43936</v>
+        <v>43913</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12394,7 +12421,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>6.2</v>
+        <v>2.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -12431,14 +12458,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 19332-2020</t>
+          <t>A 19136-2020</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12456,7 +12483,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.9</v>
+        <v>6.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -12493,14 +12520,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 21730-2020</t>
+          <t>A 19332-2020</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>43957</v>
+        <v>43938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12512,8 +12539,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -12550,14 +12582,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 21814-2020</t>
+          <t>A 21730-2020</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12570,7 +12602,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -12607,14 +12639,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 22763-2020</t>
+          <t>A 21814-2020</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>43963</v>
+        <v>43958</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12626,13 +12658,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12669,14 +12696,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 22802-2020</t>
+          <t>A 22763-2020</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12690,11 +12717,11 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12731,14 +12758,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 22961-2020</t>
+          <t>A 22802-2020</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12750,8 +12777,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12788,14 +12820,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 25641-2020</t>
+          <t>A 22961-2020</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>43983</v>
+        <v>43965</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12808,7 +12840,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12845,14 +12877,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 26095-2020</t>
+          <t>A 25641-2020</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>43985</v>
+        <v>43983</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12865,7 +12897,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12902,14 +12934,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 26090-2020</t>
+          <t>A 26095-2020</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
         <v>43985</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12959,14 +12991,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 26101-2020</t>
+          <t>A 26090-2020</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
         <v>43985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12979,7 +13011,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -13016,14 +13048,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 27462-2020</t>
+          <t>A 26101-2020</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>43993</v>
+        <v>43985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13035,13 +13067,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -13078,14 +13105,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 29989-2020</t>
+          <t>A 27462-2020</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44006</v>
+        <v>43993</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13097,8 +13124,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -13135,14 +13167,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 30245-2020</t>
+          <t>A 29989-2020</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13155,7 +13187,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -13192,14 +13224,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 30544-2020</t>
+          <t>A 30245-2020</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13212,7 +13244,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -13249,14 +13281,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 31685-2020</t>
+          <t>A 30544-2020</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44013</v>
+        <v>44008</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13268,13 +13300,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -13311,14 +13338,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 33076-2020</t>
+          <t>A 31685-2020</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44021</v>
+        <v>44013</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13336,7 +13363,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>16</v>
+        <v>2.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -13373,14 +13400,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 33378-2020</t>
+          <t>A 33076-2020</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13392,8 +13419,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -13430,14 +13462,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 33873-2020</t>
+          <t>A 33378-2020</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44025</v>
+        <v>44022</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13450,7 +13482,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.4</v>
+        <v>9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -13487,14 +13519,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 34494-2020</t>
+          <t>A 33873-2020</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44029</v>
+        <v>44025</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13506,13 +13538,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -13549,14 +13576,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 35573-2020</t>
+          <t>A 34494-2020</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44043</v>
+        <v>44029</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13570,11 +13597,11 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>30.2</v>
+        <v>3.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -13611,14 +13638,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 36412-2020</t>
+          <t>A 35573-2020</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44049</v>
+        <v>44043</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13630,8 +13657,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>1.9</v>
+        <v>30.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13668,14 +13700,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 37691-2020</t>
+          <t>A 36412-2020</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44056</v>
+        <v>44049</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13688,7 +13720,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13725,14 +13757,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 37680-2020</t>
+          <t>A 37691-2020</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
         <v>44056</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13745,7 +13777,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13782,14 +13814,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 45513-2020</t>
+          <t>A 37680-2020</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44085</v>
+        <v>44056</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13801,13 +13833,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>6.2</v>
+        <v>1.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13844,14 +13871,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 45938-2020</t>
+          <t>A 45513-2020</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44088</v>
+        <v>44085</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13869,7 +13896,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>18.5</v>
+        <v>6.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13906,14 +13933,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 47234-2020</t>
+          <t>A 45938-2020</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44097</v>
+        <v>44088</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13925,8 +13952,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>1.4</v>
+        <v>18.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13963,14 +13995,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 49718-2020</t>
+          <t>A 47234-2020</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44106</v>
+        <v>44097</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13983,7 +14015,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -14020,14 +14052,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 50735-2020</t>
+          <t>A 49718-2020</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44111</v>
+        <v>44106</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14040,7 +14072,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -14077,14 +14109,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 50677-2020</t>
+          <t>A 50735-2020</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
         <v>44111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14097,7 +14129,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -14134,14 +14166,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 51808-2020</t>
+          <t>A 50677-2020</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44116</v>
+        <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14154,7 +14186,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -14191,14 +14223,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 58242-2020</t>
+          <t>A 51808-2020</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44144</v>
+        <v>44116</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14211,7 +14243,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -14248,14 +14280,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 59625-2020</t>
+          <t>A 58242-2020</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44150</v>
+        <v>44144</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14268,7 +14300,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -14305,14 +14337,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 59865-2020</t>
+          <t>A 59625-2020</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44151</v>
+        <v>44150</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14325,7 +14357,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -14362,14 +14394,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 61013-2020</t>
+          <t>A 59865-2020</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44154</v>
+        <v>44151</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14382,7 +14414,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -14419,14 +14451,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 61034-2020</t>
+          <t>A 61013-2020</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
         <v>44154</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14439,7 +14471,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -14476,14 +14508,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 60769-2020</t>
+          <t>A 61034-2020</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
         <v>44154</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14496,7 +14528,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>7.6</v>
+        <v>3.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -14533,14 +14565,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 63504-2020</t>
+          <t>A 60769-2020</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44165</v>
+        <v>44154</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14552,13 +14584,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>50.3</v>
+        <v>7.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -14595,14 +14622,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 249-2021</t>
+          <t>A 63504-2020</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44200</v>
+        <v>44165</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14614,8 +14641,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>3.1</v>
+        <v>50.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -14652,14 +14684,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 1227-2021</t>
+          <t>A 249-2021</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14672,7 +14704,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>7.3</v>
+        <v>3.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14709,14 +14741,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 1233-2021</t>
+          <t>A 1227-2021</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
         <v>44208</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14728,13 +14760,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>1.8</v>
+        <v>7.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14771,14 +14798,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 2157-2021</t>
+          <t>A 1233-2021</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14790,8 +14817,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14828,14 +14860,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 2559-2021</t>
+          <t>A 2157-2021</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44214</v>
+        <v>44211</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14848,7 +14880,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14885,14 +14917,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 2810-2021</t>
+          <t>A 2559-2021</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14905,7 +14937,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14942,14 +14974,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 3443-2021</t>
+          <t>A 2810-2021</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44218</v>
+        <v>44215</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14962,7 +14994,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>6.9</v>
+        <v>2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14999,14 +15031,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 5857-2021</t>
+          <t>A 3443-2021</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44231</v>
+        <v>44218</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15018,13 +15050,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>0.6</v>
+        <v>6.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -15061,14 +15088,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 7036-2021</t>
+          <t>A 5857-2021</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44237</v>
+        <v>44231</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15086,7 +15113,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -15123,14 +15150,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 11937-2021</t>
+          <t>A 7036-2021</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44266</v>
+        <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15144,11 +15171,11 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -15185,14 +15212,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 12591-2021</t>
+          <t>A 11937-2021</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44270</v>
+        <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15204,8 +15231,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -15242,14 +15274,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 14934-2021</t>
+          <t>A 12591-2021</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44281</v>
+        <v>44270</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15262,7 +15294,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -15299,14 +15331,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 15677-2021</t>
+          <t>A 14934-2021</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44286</v>
+        <v>44281</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15319,7 +15351,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -15356,14 +15388,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 15728-2021</t>
+          <t>A 15677-2021</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
         <v>44286</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15375,13 +15407,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -15418,14 +15445,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 16106-2021</t>
+          <t>A 15728-2021</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44290</v>
+        <v>44286</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15439,11 +15466,11 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -15480,14 +15507,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 16124-2021</t>
+          <t>A 16106-2021</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15505,7 +15532,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -15542,14 +15569,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 18996-2021</t>
+          <t>A 16124-2021</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44308</v>
+        <v>44291</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15567,7 +15594,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -15604,14 +15631,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 19222-2021</t>
+          <t>A 18996-2021</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15629,7 +15656,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>11.1</v>
+        <v>1.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -15666,14 +15693,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 21967-2021</t>
+          <t>A 19222-2021</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44323</v>
+        <v>44309</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15691,7 +15718,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>5.3</v>
+        <v>11.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15728,14 +15755,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 23324-2021</t>
+          <t>A 21967-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44333</v>
+        <v>44323</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15753,7 +15780,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15790,14 +15817,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 23380-2021</t>
+          <t>A 23324-2021</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
         <v>44333</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15815,7 +15842,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15852,14 +15879,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 23828-2021</t>
+          <t>A 23380-2021</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44335</v>
+        <v>44333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15871,8 +15898,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>6.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15909,14 +15941,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 23835-2021</t>
+          <t>A 23828-2021</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
         <v>44335</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15928,13 +15960,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>6.2</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15971,14 +15998,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 24276-2021</t>
+          <t>A 23835-2021</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44337</v>
+        <v>44335</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15996,7 +16023,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.6</v>
+        <v>6.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -16033,14 +16060,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 24431-2021</t>
+          <t>A 24276-2021</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
         <v>44337</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16052,8 +16079,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G233" t="n">
-        <v>5.2</v>
+        <v>0.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -16090,14 +16122,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 24278-2021</t>
+          <t>A 24431-2021</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16109,13 +16141,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>1.8</v>
+        <v>5.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -16152,14 +16179,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 26301-2021</t>
+          <t>A 24278-2021</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44347</v>
+        <v>44337</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16177,7 +16204,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -16214,14 +16241,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 30742-2021</t>
+          <t>A 26301-2021</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44365</v>
+        <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16239,7 +16266,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -16276,14 +16303,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 31099-2021</t>
+          <t>A 30742-2021</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44368</v>
+        <v>44365</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16297,11 +16324,11 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G237" t="n">
-        <v>12.6</v>
+        <v>6.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -16338,14 +16365,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 32207-2021</t>
+          <t>A 31099-2021</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44371</v>
+        <v>44368</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16359,11 +16386,11 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>12.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -16400,14 +16427,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 34648-2021</t>
+          <t>A 32207-2021</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44382</v>
+        <v>44371</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16425,7 +16452,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -16462,14 +16489,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 36069-2021</t>
+          <t>A 34648-2021</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44389</v>
+        <v>44382</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16483,11 +16510,11 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -16524,14 +16551,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 36150-2021</t>
+          <t>A 36069-2021</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
         <v>44389</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16545,11 +16572,11 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -16586,14 +16613,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 39838-2021</t>
+          <t>A 36150-2021</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44417</v>
+        <v>44389</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16605,8 +16632,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -16643,14 +16675,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 40804-2021</t>
+          <t>A 39838-2021</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44421</v>
+        <v>44417</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16662,13 +16694,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G243" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -16705,14 +16732,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 40793-2021</t>
+          <t>A 40804-2021</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16730,7 +16757,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16767,14 +16794,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 42262-2021</t>
+          <t>A 40793-2021</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44427</v>
+        <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16788,11 +16815,11 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -16829,14 +16856,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 43020-2021</t>
+          <t>A 42262-2021</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44431</v>
+        <v>44427</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16848,8 +16875,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G246" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -16886,14 +16918,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 44009-2021</t>
+          <t>A 43020-2021</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44434</v>
+        <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16905,13 +16937,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>5.8</v>
+        <v>1.2</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -16948,14 +16975,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 44690-2021</t>
+          <t>A 44009-2021</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44438</v>
+        <v>44434</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16967,8 +16994,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -17005,14 +17037,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 45579-2021</t>
+          <t>A 44690-2021</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44440</v>
+        <v>44438</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17024,13 +17056,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G249" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -17067,14 +17094,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 45993-2021</t>
+          <t>A 45579-2021</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44441</v>
+        <v>44440</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17092,7 +17119,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -17129,14 +17156,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 46976-2021</t>
+          <t>A 45993-2021</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44446</v>
+        <v>44441</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17154,7 +17181,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -17191,14 +17218,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 48536-2021</t>
+          <t>A 46976-2021</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44452</v>
+        <v>44446</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17216,7 +17243,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -17253,14 +17280,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 48880-2021</t>
+          <t>A 48536-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17272,8 +17299,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -17310,14 +17342,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 48455-2021</t>
+          <t>A 48880-2021</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17367,14 +17399,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 48485-2021</t>
+          <t>A 48455-2021</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
         <v>44452</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17386,13 +17418,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G255" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -17429,14 +17456,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 48970-2021</t>
+          <t>A 48485-2021</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17448,8 +17475,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G256" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -17486,14 +17518,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 48982-2021</t>
+          <t>A 48970-2021</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
         <v>44453</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17506,7 +17538,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -17543,14 +17575,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 49053-2021</t>
+          <t>A 48982-2021</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
         <v>44453</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17563,7 +17595,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -17600,14 +17632,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 50429-2021</t>
+          <t>A 49053-2021</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44459</v>
+        <v>44453</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17619,13 +17651,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G259" t="n">
-        <v>11.4</v>
+        <v>1</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -17662,14 +17689,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 50442-2021</t>
+          <t>A 50429-2021</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
         <v>44459</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17687,7 +17714,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>5.8</v>
+        <v>11.4</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -17724,14 +17751,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 52025-2021</t>
+          <t>A 50442-2021</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44463</v>
+        <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17749,7 +17776,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -17786,14 +17813,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 53666-2021</t>
+          <t>A 52025-2021</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44469</v>
+        <v>44463</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17811,7 +17838,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -17848,14 +17875,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 56498-2021</t>
+          <t>A 53666-2021</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44480</v>
+        <v>44469</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17865,6 +17892,11 @@
       <c r="E263" t="inlineStr">
         <is>
           <t>TIERP</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G263" t="n">
@@ -17905,14 +17937,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 56740-2021</t>
+          <t>A 56498-2021</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44481</v>
+        <v>44480</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17924,13 +17956,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G264" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -17967,14 +17994,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 57028-2021</t>
+          <t>A 56740-2021</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44482</v>
+        <v>44481</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17988,11 +18015,11 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G265" t="n">
-        <v>3.5</v>
+        <v>0.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -18029,14 +18056,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 59378-2021</t>
+          <t>A 57028-2021</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44491</v>
+        <v>44482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18050,11 +18077,11 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -18091,14 +18118,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 60429-2021</t>
+          <t>A 59378-2021</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44496</v>
+        <v>44491</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18108,6 +18135,11 @@
       <c r="E267" t="inlineStr">
         <is>
           <t>TIERP</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G267" t="n">
@@ -18148,14 +18180,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 60441-2021</t>
+          <t>A 60429-2021</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
         <v>44496</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18168,7 +18200,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -18205,14 +18237,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 65255-2021</t>
+          <t>A 60441-2021</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44515</v>
+        <v>44496</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18225,7 +18257,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>6.3</v>
+        <v>0.6</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -18262,14 +18294,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 68410-2021</t>
+          <t>A 65255-2021</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44529</v>
+        <v>44515</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18281,13 +18313,8 @@
           <t>TIERP</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G270" t="n">
-        <v>35.5</v>
+        <v>6.3</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -18324,14 +18351,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 72914-2021</t>
+          <t>A 68410-2021</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44547</v>
+        <v>44529</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18343,8 +18370,13 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G271" t="n">
-        <v>1.6</v>
+        <v>35.5</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -18381,14 +18413,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 72975-2021</t>
+          <t>A 72914-2021</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44548</v>
+        <v>44547</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18401,7 +18433,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -18438,14 +18470,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 74473-2021</t>
+          <t>A 72975-2021</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44560</v>
+        <v>44548</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18458,7 +18490,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -18495,14 +18527,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 871-2022</t>
+          <t>A 74473-2021</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44571</v>
+        <v>44560</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18515,7 +18547,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -18552,14 +18584,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 2248-2022</t>
+          <t>A 871-2022</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44578</v>
+        <v>44571</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18572,7 +18604,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -18609,14 +18641,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 2534-2022</t>
+          <t>A 2248-2022</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18629,7 +18661,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>7.1</v>
+        <v>3</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -18666,14 +18698,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 2559-2022</t>
+          <t>A 2534-2022</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18686,7 +18718,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.1</v>
+        <v>7.1</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -18723,14 +18755,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 2771-2022</t>
+          <t>A 2559-2022</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18743,7 +18775,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -18780,14 +18812,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 2795-2022</t>
+          <t>A 2771-2022</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
         <v>44581</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18800,7 +18832,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -18837,14 +18869,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 2814-2022</t>
+          <t>A 2795-2022</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
         <v>44581</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18894,14 +18926,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 4083-2022</t>
+          <t>A 2814-2022</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44588</v>
+        <v>44581</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18914,7 +18946,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>26.1</v>
+        <v>0.7</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -18951,14 +18983,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 5454-2022</t>
+          <t>A 4083-2022</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44595</v>
+        <v>44588</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18971,7 +19003,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>2</v>
+        <v>26.1</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -19004,26 +19036,6 @@
         <v>0</v>
       </c>
       <c r="R282" s="2" t="inlineStr"/>
-      <c r="U282">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/knärot/A 5454-2022.png")</f>
-        <v/>
-      </c>
-      <c r="V282">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 5454-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="W282">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 5454-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="X282">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 5454-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="Y282">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 5454-2022.docx")</f>
-        <v/>
-      </c>
     </row>
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
@@ -19035,7 +19047,7 @@
         <v>44603</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19092,7 +19104,7 @@
         <v>44616</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19149,7 +19161,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19206,7 +19218,7 @@
         <v>44644</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19263,7 +19275,7 @@
         <v>44656</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19325,7 +19337,7 @@
         <v>44670</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19382,7 +19394,7 @@
         <v>44677</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19439,7 +19451,7 @@
         <v>44677</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19501,7 +19513,7 @@
         <v>44689</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19563,7 +19575,7 @@
         <v>44696</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19620,7 +19632,7 @@
         <v>44700</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19677,7 +19689,7 @@
         <v>44701</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19739,7 +19751,7 @@
         <v>44704</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19796,7 +19808,7 @@
         <v>44704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19853,7 +19865,7 @@
         <v>44704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19915,7 +19927,7 @@
         <v>44705</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19977,7 +19989,7 @@
         <v>44708</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20039,7 +20051,7 @@
         <v>44708</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20101,7 +20113,7 @@
         <v>44713</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20163,7 +20175,7 @@
         <v>44713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20225,7 +20237,7 @@
         <v>44722</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20287,7 +20299,7 @@
         <v>44725</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20364,7 +20376,7 @@
         <v>44726</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20426,7 +20438,7 @@
         <v>44728</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20483,7 +20495,7 @@
         <v>44732</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20545,7 +20557,7 @@
         <v>44734</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20602,7 +20614,7 @@
         <v>44734</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20659,7 +20671,7 @@
         <v>44735</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20716,7 +20728,7 @@
         <v>44739</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20773,7 +20785,7 @@
         <v>44739</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20830,7 +20842,7 @@
         <v>44742</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20892,7 +20904,7 @@
         <v>44743</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20949,7 +20961,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21006,7 +21018,7 @@
         <v>44747</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21068,7 +21080,7 @@
         <v>44748</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21125,7 +21137,7 @@
         <v>44750</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21187,7 +21199,7 @@
         <v>44750</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21249,7 +21261,7 @@
         <v>44755</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21306,7 +21318,7 @@
         <v>44756</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21363,7 +21375,7 @@
         <v>44769</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21420,7 +21432,7 @@
         <v>44788</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21477,7 +21489,7 @@
         <v>44792</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21534,7 +21546,7 @@
         <v>44804</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21591,7 +21603,7 @@
         <v>44804</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21648,7 +21660,7 @@
         <v>44827</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21705,7 +21717,7 @@
         <v>44837</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21762,7 +21774,7 @@
         <v>44843</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21819,7 +21831,7 @@
         <v>44847</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21876,7 +21888,7 @@
         <v>44858</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21933,7 +21945,7 @@
         <v>44859</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21995,7 +22007,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22052,7 +22064,7 @@
         <v>44865</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22109,7 +22121,7 @@
         <v>44865</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22166,7 +22178,7 @@
         <v>44865</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22228,7 +22240,7 @@
         <v>44874</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22285,7 +22297,7 @@
         <v>44880</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22342,7 +22354,7 @@
         <v>44883</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22399,7 +22411,7 @@
         <v>44887</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22461,7 +22473,7 @@
         <v>44887</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22518,7 +22530,7 @@
         <v>44887</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22575,7 +22587,7 @@
         <v>44888</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22632,7 +22644,7 @@
         <v>44890</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22689,7 +22701,7 @@
         <v>44894</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22746,7 +22758,7 @@
         <v>44894</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22803,7 +22815,7 @@
         <v>44903</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22860,7 +22872,7 @@
         <v>44907</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22917,7 +22929,7 @@
         <v>44908</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22979,7 +22991,7 @@
         <v>44909</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23036,7 +23048,7 @@
         <v>44911</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23098,7 +23110,7 @@
         <v>44917</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23155,7 +23167,7 @@
         <v>44922</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23217,7 +23229,7 @@
         <v>44924</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23274,7 +23286,7 @@
         <v>44924</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23331,7 +23343,7 @@
         <v>44929</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23388,7 +23400,7 @@
         <v>44936</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23445,7 +23457,7 @@
         <v>44945</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23502,7 +23514,7 @@
         <v>44945</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23559,7 +23571,7 @@
         <v>44945</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23616,7 +23628,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23673,7 +23685,7 @@
         <v>44956</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23730,7 +23742,7 @@
         <v>44957</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23787,7 +23799,7 @@
         <v>44964</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23849,7 +23861,7 @@
         <v>44964</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23911,7 +23923,7 @@
         <v>44964</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23973,7 +23985,7 @@
         <v>44964</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24035,7 +24047,7 @@
         <v>44964</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24097,7 +24109,7 @@
         <v>44964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24159,7 +24171,7 @@
         <v>44964</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24221,7 +24233,7 @@
         <v>44964</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24278,7 +24290,7 @@
         <v>44964</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24340,7 +24352,7 @@
         <v>44966</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24402,7 +24414,7 @@
         <v>44966</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24459,7 +24471,7 @@
         <v>44966</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24516,7 +24528,7 @@
         <v>44971</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24578,7 +24590,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24635,7 +24647,7 @@
         <v>44973</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24692,7 +24704,7 @@
         <v>44980</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24749,7 +24761,7 @@
         <v>44980</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24806,7 +24818,7 @@
         <v>44984</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24863,7 +24875,7 @@
         <v>44984</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24920,7 +24932,7 @@
         <v>44988</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24982,7 +24994,7 @@
         <v>44991</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25039,7 +25051,7 @@
         <v>44994</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25101,7 +25113,7 @@
         <v>45005</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25163,7 +25175,7 @@
         <v>45005</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25220,7 +25232,7 @@
         <v>45013</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25277,7 +25289,7 @@
         <v>45013</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25339,7 +25351,7 @@
         <v>45022</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25396,7 +25408,7 @@
         <v>45027</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25458,7 +25470,7 @@
         <v>45027</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25520,7 +25532,7 @@
         <v>45028</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25577,7 +25589,7 @@
         <v>45030</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25639,7 +25651,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25696,7 +25708,7 @@
         <v>45040</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25758,7 +25770,7 @@
         <v>45040</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25815,7 +25827,7 @@
         <v>45041</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25877,7 +25889,7 @@
         <v>45043</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25939,7 +25951,7 @@
         <v>45046</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25996,7 +26008,7 @@
         <v>45046</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26053,7 +26065,7 @@
         <v>45046</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26110,7 +26122,7 @@
         <v>45049</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26167,7 +26179,7 @@
         <v>45057</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26229,7 +26241,7 @@
         <v>45057</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26286,7 +26298,7 @@
         <v>45061</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26348,7 +26360,7 @@
         <v>45061</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26410,7 +26422,7 @@
         <v>45061</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26472,7 +26484,7 @@
         <v>45062</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26534,7 +26546,7 @@
         <v>45063</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26591,7 +26603,7 @@
         <v>45063</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26653,7 +26665,7 @@
         <v>45072</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26710,7 +26722,7 @@
         <v>45075</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26772,7 +26784,7 @@
         <v>45080</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26829,7 +26841,7 @@
         <v>45084</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26886,7 +26898,7 @@
         <v>45092</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26943,7 +26955,7 @@
         <v>45092</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27000,7 +27012,7 @@
         <v>45092</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27057,7 +27069,7 @@
         <v>45098</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27119,7 +27131,7 @@
         <v>45099</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27181,7 +27193,7 @@
         <v>45105</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27238,7 +27250,7 @@
         <v>45106</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27295,7 +27307,7 @@
         <v>45111</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27352,7 +27364,7 @@
         <v>45119</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27414,7 +27426,7 @@
         <v>45127</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27471,7 +27483,7 @@
         <v>45130</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27528,7 +27540,7 @@
         <v>45133</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27590,7 +27602,7 @@
         <v>45135</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27652,7 +27664,7 @@
         <v>45135</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27714,7 +27726,7 @@
         <v>45138</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27776,7 +27788,7 @@
         <v>45142</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27838,7 +27850,7 @@
         <v>45146</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27900,7 +27912,7 @@
         <v>45148</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27962,7 +27974,7 @@
         <v>45153</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28024,7 +28036,7 @@
         <v>45161</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28086,7 +28098,7 @@
         <v>45162</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28148,7 +28160,7 @@
         <v>45167</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28205,7 +28217,7 @@
         <v>45168</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28267,7 +28279,7 @@
         <v>45174</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>

--- a/Översikt TIERP.xlsx
+++ b/Översikt TIERP.xlsx
@@ -572,7 +572,7 @@
         <v>44376</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>43627</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>44651</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44980</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>43381</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45040</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>44361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>44958</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43768</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44550</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44551</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44662</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>44875</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44950</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44966</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>44970</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43488</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43664</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43777</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44636</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>44651</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>44846</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44887</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44950</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44956</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44977</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>45084</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45105</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43635</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43651</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43847</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>43860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43906</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43930</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43931</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>44218</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>44551</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44560</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44595</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44607</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44742</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44788</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44823</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44845</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>44894</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44960</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>44970</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44984</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         <v>45160</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>45163</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43336</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43336</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43343</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>43355</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         <v>43367</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>43371</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43378</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43385</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43412</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43416</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43419</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43424</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43427</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43439</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43440</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43446</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43446</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>43447</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43447</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43450</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43450</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43450</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43451</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43462</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>43476</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>43486</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>43488</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43488</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>43495</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>43496</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>43500</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>43514</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>43517</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43528</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43536</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43539</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43559</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>43567</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>43606</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43612</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43633</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43641</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43642</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>43651</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>43656</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>43656</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>43668</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>43676</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>43686</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>43692</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>43692</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>43706</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>43707</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43711</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43733</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43734</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43738</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43740</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43741</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43746</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43747</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43756</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43761</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43770</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43770</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43774</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>43780</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43780</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>43796</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43797</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>43801</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43801</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43802</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43812</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43829</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43839</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43843</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43853</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11751,7 +11751,7 @@
         <v>43874</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>43875</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>43880</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11979,7 +11979,7 @@
         <v>43882</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12041,7 +12041,7 @@
         <v>43893</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>43896</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>43900</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>43901</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>43906</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>43913</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43913</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>43936</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>43957</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>43958</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>43963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12765,7 +12765,7 @@
         <v>43964</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43965</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>43983</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>43985</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43993</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44006</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44007</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44008</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44013</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44021</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44022</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44025</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44029</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44043</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>44049</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         <v>44056</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         <v>44056</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13878,7 +13878,7 @@
         <v>44085</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>44088</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44097</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44106</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44116</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44144</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44150</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44151</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>44154</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>44154</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>44154</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>44165</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         <v>44200</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>44208</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>44208</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>44211</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44214</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>44215</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>44218</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>44231</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44270</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15338,7 +15338,7 @@
         <v>44281</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15395,7 +15395,7 @@
         <v>44286</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
         <v>44286</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44290</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44291</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>44308</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>44309</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44323</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44333</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44335</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44335</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44337</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>44337</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44365</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>44368</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44371</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44382</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44389</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44389</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>44417</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16739,7 +16739,7 @@
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44427</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44434</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>44438</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>44440</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>44441</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>44446</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>44452</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44452</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>44453</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>44453</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17639,7 +17639,7 @@
         <v>44453</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44459</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>44463</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>44469</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44480</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44481</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>44491</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>44496</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>44496</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>44515</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>44529</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>44547</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         <v>44548</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18534,7 +18534,7 @@
         <v>44560</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>44571</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18648,7 +18648,7 @@
         <v>44578</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>44579</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>44580</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>44581</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>44581</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44581</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18990,7 +18990,7 @@
         <v>44588</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19047,7 +19047,7 @@
         <v>44603</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19104,7 +19104,7 @@
         <v>44616</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44644</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44656</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44670</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44677</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44677</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>44689</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44696</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44700</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44701</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44704</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44705</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44708</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20051,7 +20051,7 @@
         <v>44708</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44713</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44722</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44725</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44726</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>44728</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>44732</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20557,7 +20557,7 @@
         <v>44734</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20614,7 +20614,7 @@
         <v>44734</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20671,7 +20671,7 @@
         <v>44735</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         <v>44739</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44739</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>44742</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44743</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44747</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44748</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44750</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>44750</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44755</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>44756</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44769</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44788</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44792</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21546,7 +21546,7 @@
         <v>44804</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21603,7 +21603,7 @@
         <v>44804</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21660,7 +21660,7 @@
         <v>44827</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         <v>44837</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21774,7 +21774,7 @@
         <v>44843</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44847</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44858</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44859</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>44865</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22121,7 +22121,7 @@
         <v>44865</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22178,7 +22178,7 @@
         <v>44865</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         <v>44874</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>44880</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>44883</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>44887</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>44887</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>44887</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>44888</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>44890</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>44894</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>44894</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>44903</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>44907</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>44908</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22991,7 +22991,7 @@
         <v>44909</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44911</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>44917</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>44922</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>44924</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44924</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44929</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>44936</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>44945</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23514,7 +23514,7 @@
         <v>44945</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23571,7 +23571,7 @@
         <v>44945</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23628,7 +23628,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23685,7 +23685,7 @@
         <v>44956</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23742,7 +23742,7 @@
         <v>44957</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>44964</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>44964</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         <v>44964</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23985,7 +23985,7 @@
         <v>44964</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24047,7 +24047,7 @@
         <v>44964</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>44964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>44964</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>44964</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>44964</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>44966</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>44966</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24471,7 +24471,7 @@
         <v>44966</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24528,7 +24528,7 @@
         <v>44971</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>44973</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>44980</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>44980</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>44984</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>44984</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>44988</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24994,7 +24994,7 @@
         <v>44991</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25051,7 +25051,7 @@
         <v>44994</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25113,7 +25113,7 @@
         <v>45005</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>45005</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>45013</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>45013</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>45022</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>45027</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25470,7 +25470,7 @@
         <v>45027</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25532,7 +25532,7 @@
         <v>45028</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25589,7 +25589,7 @@
         <v>45030</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>45040</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>45040</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>45041</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25889,7 +25889,7 @@
         <v>45043</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45046</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45046</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45046</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45049</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45057</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26241,7 +26241,7 @@
         <v>45057</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26298,7 +26298,7 @@
         <v>45061</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>45061</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26422,7 +26422,7 @@
         <v>45061</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45062</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45063</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>45063</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26665,7 +26665,7 @@
         <v>45072</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26722,7 +26722,7 @@
         <v>45075</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>45080</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>45084</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>45092</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>45092</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>45092</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>45098</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27131,7 +27131,7 @@
         <v>45099</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>45105</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>45106</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>45111</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>45119</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         <v>45127</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27483,7 +27483,7 @@
         <v>45130</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27540,7 +27540,7 @@
         <v>45133</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27602,7 +27602,7 @@
         <v>45135</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27664,7 +27664,7 @@
         <v>45135</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27726,7 +27726,7 @@
         <v>45138</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27788,7 +27788,7 @@
         <v>45142</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45146</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>45148</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>45153</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
         <v>45161</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>45162</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28160,7 +28160,7 @@
         <v>45167</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28217,7 +28217,7 @@
         <v>45168</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>45174</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>

--- a/Översikt TIERP.xlsx
+++ b/Översikt TIERP.xlsx
@@ -572,7 +572,7 @@
         <v>44376</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>43627</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>44651</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44980</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>43381</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1363,14 +1363,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 17954-2023</t>
+          <t>A 8507-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45040</v>
+        <v>44977</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1382,21 +1382,26 @@
           <t>TIERP</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
@@ -1407,15 +1412,104 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>5</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Violgubbe
+Dofttaggsvamp
+Flattoppad klubbsvamp
+Orange taggsvamp
+Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 8507-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 8507-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 8507-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 8507-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 8507-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 8507-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 17954-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45040</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Duvspindling
 Taggfingersvamp
@@ -1424,92 +1518,92 @@
 Olivspindling</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 17954-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 17954-2023.png")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 17954-2023.docx")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 17954-2023.docx")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 17954-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 17954-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 29306-2021</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>44361</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>TIERP</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="C12" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>3.7</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>4</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>4</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Dvärgtufs
 Granbarkgnagare
@@ -1517,92 +1611,92 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 29306-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 29306-2021.png")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 29306-2021.docx")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 29306-2021.docx")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 29306-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 29306-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 73761-2021</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>44552</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>TIERP</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="C13" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G13" t="n">
         <v>1.9</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>2</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>4</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Vedtrappmossa
 Brandticka
@@ -1610,92 +1704,92 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 73761-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 73761-2021.png")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 73761-2021.docx")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 73761-2021.docx")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 73761-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 73761-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 5089-2023</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>44958</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>TIERP</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="C14" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Bergvik skog öst AB</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G14" t="n">
         <v>19.1</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J14" t="n">
         <v>3</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>3</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>4</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp
 Talltita
@@ -1703,92 +1797,92 @@
 Granbarkgnagare</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 5089-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 5089-2023.png")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 5089-2023.docx")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 5089-2023.docx")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 5089-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 5089-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 11878-2023</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>44995</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>TIERP</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="C15" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Bergvik skog öst AB</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>38</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>3</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K15" t="n">
         <v>2</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>3</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P15" t="n">
         <v>2</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q15" t="n">
         <v>4</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Rynkskinn
@@ -1796,1823 +1890,1732 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 11878-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 11878-2023.png")</f>
         <v/>
       </c>
-      <c r="U14">
+      <c r="U15">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/knärot/A 11878-2023.png")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 11878-2023.docx")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 11878-2023.docx")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 11878-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 11878-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 57665-2019</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>43768</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>TIERP</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="C16" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>4</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>2</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>2</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P16" t="n">
         <v>2</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q16" t="n">
         <v>3</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Bombmurkla
 Rynkskinn
 Stor aspticka</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 57665-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 57665-2019.png")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 57665-2019.docx")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 57665-2019.docx")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 57665-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 57665-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 73005-2021</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>44550</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>TIERP</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="C17" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G17" t="n">
         <v>5.7</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>2</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>3</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Ekticka
 Dvärghäxört
 Jättesvampmal</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 73005-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 73005-2021.png")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 73005-2021.docx")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 73005-2021.docx")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 73005-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 73005-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 73325-2021</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>44551</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>TIERP</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="C18" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>3.7</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K18" t="n">
         <v>1</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>2</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P18" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q18" t="n">
         <v>3</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Taggfingersvamp
 Äggspindling
 Rödgul trumpetsvamp</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 73325-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 73325-2021.png")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 73325-2021.docx")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 73325-2021.docx")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 73325-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 73325-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 15592-2022</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>44662</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>TIERP</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
+      <c r="C19" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G19" t="n">
         <v>1.7</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H19" t="n">
         <v>2</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I19" t="n">
         <v>2</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>3</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Skogsknipprot
 Tibast
 Blåsippa</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 15592-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 15592-2022.png")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 15592-2022.docx")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 15592-2022.docx")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 15592-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 15592-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 52951-2022</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>44875</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>TIERP</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="C20" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Bergvik skog öst AB</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>13.5</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>3</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>3</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Myskmadra
 Rödgul trumpetsvamp
 Sårläka</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 52951-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 52951-2022.png")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 52951-2022.docx")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 52951-2022.docx")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 52951-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 52951-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>A 3511-2023</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>44950</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>TIERP</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="C21" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Bergvik skog öst AB</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G21" t="n">
         <v>20.5</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>2</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>3</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Tibast
 Blåsippa
 Revlummer</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 3511-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 3511-2023.png")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 3511-2023.docx")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 3511-2023.docx")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 3511-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 3511-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>A 7366-2023</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B22" s="1" t="n">
         <v>44966</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>TIERP</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+      <c r="C22" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
         <v>10.3</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>2</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>1</v>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P22" t="n">
         <v>1</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q22" t="n">
         <v>3</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Grönpyrola
 Revlummer</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 7366-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 7366-2023.png")</f>
         <v/>
       </c>
-      <c r="U21">
+      <c r="U22">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/knärot/A 7366-2023.png")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 7366-2023.docx")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 7366-2023.docx")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 7366-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 7366-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>A 7125-2023</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>44970</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>TIERP</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="C23" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Bergvik skog öst AB</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G23" t="n">
         <v>23.2</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H23" t="n">
         <v>3</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>1</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P23" t="n">
         <v>1</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q23" t="n">
         <v>3</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Blåsippa
 Revlummer</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 7125-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 7125-2023.png")</f>
         <v/>
       </c>
-      <c r="U22">
+      <c r="U23">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/knärot/A 7125-2023.png")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 7125-2023.docx")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 7125-2023.docx")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 7125-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 7125-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 5208-2019</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>43488</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>TIERP</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
+      <c r="C24" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
         <v>55.1</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>2</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>2</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2</v>
       </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Reliktbock</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 5208-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 5208-2019.png")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 5208-2019.docx")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 5208-2019.docx")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 5208-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 5208-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>A 16676-2019</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B25" s="1" t="n">
         <v>43549</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>TIERP</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
+      <c r="C25" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
         <v>22.9</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H25" t="n">
         <v>2</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>2</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>2</v>
       </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2</v>
       </c>
-      <c r="R24" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Entita
 Rödvingetrast</t>
         </is>
       </c>
-      <c r="S24">
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 16676-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T24">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 16676-2019.png")</f>
         <v/>
       </c>
-      <c r="V24">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 16676-2019.docx")</f>
         <v/>
       </c>
-      <c r="W24">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 16676-2019.docx")</f>
         <v/>
       </c>
-      <c r="X24">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 16676-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y24">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 16676-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>A 35563-2019</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B26" s="1" t="n">
         <v>43664</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>TIERP</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="C26" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>Bergvik skog öst AB</t>
         </is>
       </c>
-      <c r="G25" t="n">
+      <c r="G26" t="n">
         <v>4.6</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I26" t="n">
         <v>2</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>2</v>
       </c>
-      <c r="R25" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Nästrot
 Tibast</t>
         </is>
       </c>
-      <c r="S25">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 35563-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T25">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 35563-2019.png")</f>
         <v/>
       </c>
-      <c r="V25">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 35563-2019.docx")</f>
         <v/>
       </c>
-      <c r="W25">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 35563-2019.docx")</f>
         <v/>
       </c>
-      <c r="X25">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 35563-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y25">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 35563-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>A 60083-2019</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B27" s="1" t="n">
         <v>43777</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>TIERP</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
+      <c r="C27" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
         <v>2.7</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>2</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>2</v>
       </c>
-      <c r="R26" s="2" t="inlineStr">
+      <c r="R27" s="2" t="inlineStr">
         <is>
           <t>Granbarkgnagare
 Skarp dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="S27">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 60083-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T27">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 60083-2019.png")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V27">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 60083-2019.docx")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W27">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 60083-2019.docx")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X27">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 60083-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y27">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 60083-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>A 53324-2021</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B28" s="1" t="n">
         <v>44468</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>TIERP</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
+      <c r="C28" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
         <v>0.8</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J28" t="n">
         <v>1</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>1</v>
       </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>2</v>
       </c>
-      <c r="R27" s="2" t="inlineStr">
+      <c r="R28" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Stor aspticka</t>
         </is>
       </c>
-      <c r="S27">
+      <c r="S28">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 53324-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T27">
+      <c r="T28">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 53324-2021.png")</f>
         <v/>
       </c>
-      <c r="V27">
+      <c r="V28">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 53324-2021.docx")</f>
         <v/>
       </c>
-      <c r="W27">
+      <c r="W28">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 53324-2021.docx")</f>
         <v/>
       </c>
-      <c r="X27">
+      <c r="X28">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 53324-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y27">
+      <c r="Y28">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 53324-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>A 12186-2022</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B29" s="1" t="n">
         <v>44636</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>TIERP</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
+      <c r="C29" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
         <v>8.1</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>2</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>2</v>
       </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>2</v>
       </c>
-      <c r="R28" s="2" t="inlineStr">
+      <c r="R29" s="2" t="inlineStr">
         <is>
           <t>Flattoppad klubbsvamp
 Äggspindling</t>
         </is>
       </c>
-      <c r="S28">
+      <c r="S29">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 12186-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T28">
+      <c r="T29">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 12186-2022.png")</f>
         <v/>
       </c>
-      <c r="V28">
+      <c r="V29">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 12186-2022.docx")</f>
         <v/>
       </c>
-      <c r="W28">
+      <c r="W29">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 12186-2022.docx")</f>
         <v/>
       </c>
-      <c r="X28">
+      <c r="X29">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 12186-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y28">
+      <c r="Y29">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 12186-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>A 14093-2022</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B30" s="1" t="n">
         <v>44651</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>TIERP</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
+      <c r="C30" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>Bergvik skog öst AB</t>
         </is>
       </c>
-      <c r="G29" t="n">
+      <c r="G30" t="n">
         <v>3.9</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>2</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>2</v>
       </c>
-      <c r="R29" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Björksplintborre
 Jättesvampmal</t>
         </is>
       </c>
-      <c r="S29">
+      <c r="S30">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 14093-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T29">
+      <c r="T30">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 14093-2022.png")</f>
         <v/>
       </c>
-      <c r="V29">
+      <c r="V30">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 14093-2022.docx")</f>
         <v/>
       </c>
-      <c r="W29">
+      <c r="W30">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 14093-2022.docx")</f>
         <v/>
       </c>
-      <c r="X29">
+      <c r="X30">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 14093-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y29">
+      <c r="Y30">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 14093-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>A 45851-2022</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B31" s="1" t="n">
         <v>44846</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>TIERP</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
+      <c r="C31" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
         <v>2.6</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>2</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>2</v>
       </c>
-      <c r="R30" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Olivspindling
 Rödgul trumpetsvamp</t>
         </is>
       </c>
-      <c r="S30">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 45851-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T30">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 45851-2022.png")</f>
         <v/>
       </c>
-      <c r="V30">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 45851-2022.docx")</f>
         <v/>
       </c>
-      <c r="W30">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 45851-2022.docx")</f>
         <v/>
       </c>
-      <c r="X30">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 45851-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y30">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 45851-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>A 56531-2022</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B32" s="1" t="n">
         <v>44887</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>TIERP</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="C32" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G31" t="n">
+      <c r="G32" t="n">
         <v>14.2</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H32" t="n">
         <v>2</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>2</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>2</v>
       </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
         <v>2</v>
       </c>
-      <c r="R31" s="2" t="inlineStr">
+      <c r="R32" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Talltita</t>
         </is>
       </c>
-      <c r="S31">
+      <c r="S32">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 56531-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T31">
+      <c r="T32">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 56531-2022.png")</f>
         <v/>
       </c>
-      <c r="V31">
+      <c r="V32">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 56531-2022.docx")</f>
         <v/>
       </c>
-      <c r="W31">
+      <c r="W32">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 56531-2022.docx")</f>
         <v/>
       </c>
-      <c r="X31">
+      <c r="X32">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 56531-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y31">
+      <c r="Y32">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 56531-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>A 3510-2023</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B33" s="1" t="n">
         <v>44950</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>TIERP</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="C33" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>Bergvik skog öst AB</t>
         </is>
       </c>
-      <c r="G32" t="n">
+      <c r="G33" t="n">
         <v>2.4</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H33" t="n">
         <v>2</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>2</v>
       </c>
-      <c r="R32" s="2" t="inlineStr">
+      <c r="R33" s="2" t="inlineStr">
         <is>
           <t>Blåsippa
 Revlummer</t>
         </is>
       </c>
-      <c r="S32">
+      <c r="S33">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 3510-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T32">
+      <c r="T33">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 3510-2023.png")</f>
         <v/>
       </c>
-      <c r="V32">
+      <c r="V33">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 3510-2023.docx")</f>
         <v/>
       </c>
-      <c r="W32">
+      <c r="W33">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 3510-2023.docx")</f>
         <v/>
       </c>
-      <c r="X32">
+      <c r="X33">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 3510-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y32">
+      <c r="Y33">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 3510-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>A 4544-2023</t>
         </is>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B34" s="1" t="n">
         <v>44956</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>TIERP</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
+      <c r="C34" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>Bergvik skog öst AB</t>
         </is>
       </c>
-      <c r="G33" t="n">
+      <c r="G34" t="n">
         <v>11.5</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H34" t="n">
         <v>2</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>2</v>
       </c>
-      <c r="R33" s="2" t="inlineStr">
+      <c r="R34" s="2" t="inlineStr">
         <is>
           <t>Blåsippa
 Lopplummer</t>
         </is>
       </c>
-      <c r="S33">
+      <c r="S34">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 4544-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T33">
+      <c r="T34">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 4544-2023.png")</f>
         <v/>
       </c>
-      <c r="V33">
+      <c r="V34">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 4544-2023.docx")</f>
         <v/>
       </c>
-      <c r="W33">
+      <c r="W34">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 4544-2023.docx")</f>
         <v/>
       </c>
-      <c r="X33">
+      <c r="X34">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 4544-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y33">
+      <c r="Y34">
         <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 4544-2023.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>A 8507-2023</t>
-        </is>
-      </c>
-      <c r="B34" s="1" t="n">
-        <v>44977</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>TIERP</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>2</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2</v>
-      </c>
-      <c r="R34" s="2" t="inlineStr">
-        <is>
-          <t>Violgubbe
-Flattoppad klubbsvamp</t>
-        </is>
-      </c>
-      <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 8507-2023.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 8507-2023.png")</f>
-        <v/>
-      </c>
-      <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 8507-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 8507-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 8507-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 8507-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -3626,7 +3629,7 @@
         <v>45084</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3712,7 +3715,7 @@
         <v>45105</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3803,7 +3806,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3888,7 +3891,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3973,7 +3976,7 @@
         <v>43635</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4058,7 +4061,7 @@
         <v>43651</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4148,7 +4151,7 @@
         <v>43847</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4233,7 +4236,7 @@
         <v>43850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4318,7 +4321,7 @@
         <v>43860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4408,7 +4411,7 @@
         <v>43906</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4493,7 +4496,7 @@
         <v>43930</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4583,7 +4586,7 @@
         <v>43931</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4673,7 +4676,7 @@
         <v>44218</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4758,7 +4761,7 @@
         <v>44551</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4843,7 +4846,7 @@
         <v>44560</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4928,7 +4931,7 @@
         <v>44595</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5017,7 +5020,7 @@
         <v>44607</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5107,7 +5110,7 @@
         <v>44742</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5192,7 +5195,7 @@
         <v>44788</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5277,7 +5280,7 @@
         <v>44823</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5367,7 +5370,7 @@
         <v>44845</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5457,7 +5460,7 @@
         <v>44852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5542,7 +5545,7 @@
         <v>44894</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5627,7 +5630,7 @@
         <v>44960</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5717,7 +5720,7 @@
         <v>44970</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5807,7 +5810,7 @@
         <v>44984</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5897,7 +5900,7 @@
         <v>45160</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5982,7 +5985,7 @@
         <v>45163</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6067,7 +6070,7 @@
         <v>43336</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6129,7 +6132,7 @@
         <v>43336</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6191,7 +6194,7 @@
         <v>43343</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6253,7 +6256,7 @@
         <v>43355</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6310,7 +6313,7 @@
         <v>43367</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6367,7 +6370,7 @@
         <v>43371</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6429,7 +6432,7 @@
         <v>43378</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6486,7 +6489,7 @@
         <v>43385</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6543,7 +6546,7 @@
         <v>43412</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6605,7 +6608,7 @@
         <v>43416</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6667,7 +6670,7 @@
         <v>43419</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6729,7 +6732,7 @@
         <v>43419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6791,7 +6794,7 @@
         <v>43424</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6853,7 +6856,7 @@
         <v>43427</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6910,7 +6913,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6967,7 +6970,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7024,7 +7027,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7081,7 +7084,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7138,7 +7141,7 @@
         <v>43439</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7195,7 +7198,7 @@
         <v>43440</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7257,7 +7260,7 @@
         <v>43446</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7319,7 +7322,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7381,7 +7384,7 @@
         <v>43446</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7443,7 +7446,7 @@
         <v>43447</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7505,7 +7508,7 @@
         <v>43447</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7567,7 +7570,7 @@
         <v>43450</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7624,7 +7627,7 @@
         <v>43450</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7681,7 +7684,7 @@
         <v>43450</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7738,7 +7741,7 @@
         <v>43451</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7800,7 +7803,7 @@
         <v>43462</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7857,7 +7860,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7914,7 +7917,7 @@
         <v>43476</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7971,7 +7974,7 @@
         <v>43486</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8028,7 +8031,7 @@
         <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8085,7 +8088,7 @@
         <v>43488</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8142,7 +8145,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8199,7 +8202,7 @@
         <v>43488</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8256,7 +8259,7 @@
         <v>43495</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8313,7 +8316,7 @@
         <v>43496</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8370,7 +8373,7 @@
         <v>43500</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8427,7 +8430,7 @@
         <v>43514</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8484,7 +8487,7 @@
         <v>43517</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8541,7 +8544,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8598,7 +8601,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8655,7 +8658,7 @@
         <v>43528</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8712,7 +8715,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8769,7 +8772,7 @@
         <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8831,7 +8834,7 @@
         <v>43536</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8888,7 +8891,7 @@
         <v>43539</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8945,7 +8948,7 @@
         <v>43559</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9002,7 +9005,7 @@
         <v>43567</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9059,7 +9062,7 @@
         <v>43606</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9116,7 +9119,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9173,7 +9176,7 @@
         <v>43612</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9230,7 +9233,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9287,7 +9290,7 @@
         <v>43633</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9349,7 +9352,7 @@
         <v>43641</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9411,7 +9414,7 @@
         <v>43642</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9468,7 +9471,7 @@
         <v>43651</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9530,7 +9533,7 @@
         <v>43656</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9587,7 +9590,7 @@
         <v>43656</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9644,7 +9647,7 @@
         <v>43668</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9706,7 +9709,7 @@
         <v>43676</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9763,7 +9766,7 @@
         <v>43686</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9820,7 +9823,7 @@
         <v>43692</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9877,7 +9880,7 @@
         <v>43692</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9934,7 +9937,7 @@
         <v>43706</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9991,7 +9994,7 @@
         <v>43707</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10053,7 +10056,7 @@
         <v>43711</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10115,7 +10118,7 @@
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10172,7 +10175,7 @@
         <v>43733</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10229,7 +10232,7 @@
         <v>43734</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10286,7 +10289,7 @@
         <v>43738</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10343,7 +10346,7 @@
         <v>43740</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10400,7 +10403,7 @@
         <v>43741</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10457,7 +10460,7 @@
         <v>43746</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10514,7 +10517,7 @@
         <v>43747</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10571,7 +10574,7 @@
         <v>43756</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10633,7 +10636,7 @@
         <v>43761</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10690,7 +10693,7 @@
         <v>43770</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10747,7 +10750,7 @@
         <v>43770</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10809,7 +10812,7 @@
         <v>43774</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10871,7 +10874,7 @@
         <v>43780</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10928,7 +10931,7 @@
         <v>43780</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10985,7 +10988,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11047,7 +11050,7 @@
         <v>43796</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11109,7 +11112,7 @@
         <v>43797</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11166,7 +11169,7 @@
         <v>43801</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11223,7 +11226,7 @@
         <v>43801</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11280,7 +11283,7 @@
         <v>43802</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11337,7 +11340,7 @@
         <v>43812</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11394,7 +11397,7 @@
         <v>43829</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11456,7 +11459,7 @@
         <v>43839</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11513,7 +11516,7 @@
         <v>43843</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11570,7 +11573,7 @@
         <v>43853</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11627,7 +11630,7 @@
         <v>43859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11689,7 +11692,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11751,7 +11754,7 @@
         <v>43874</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11808,7 +11811,7 @@
         <v>43875</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11865,7 +11868,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11922,7 +11925,7 @@
         <v>43880</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11979,7 +11982,7 @@
         <v>43882</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12041,7 +12044,7 @@
         <v>43893</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12103,7 +12106,7 @@
         <v>43896</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12160,7 +12163,7 @@
         <v>43900</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12222,7 +12225,7 @@
         <v>43901</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12284,7 +12287,7 @@
         <v>43906</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12341,7 +12344,7 @@
         <v>43913</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12403,7 +12406,7 @@
         <v>43913</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12465,7 +12468,7 @@
         <v>43936</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12527,7 +12530,7 @@
         <v>43938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12589,7 +12592,7 @@
         <v>43957</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12646,7 +12649,7 @@
         <v>43958</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12703,7 +12706,7 @@
         <v>43963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12765,7 +12768,7 @@
         <v>43964</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12827,7 +12830,7 @@
         <v>43965</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12884,7 +12887,7 @@
         <v>43983</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12941,7 +12944,7 @@
         <v>43985</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12998,7 +13001,7 @@
         <v>43985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13055,7 +13058,7 @@
         <v>43985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13112,7 +13115,7 @@
         <v>43993</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13174,7 +13177,7 @@
         <v>44006</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13231,7 +13234,7 @@
         <v>44007</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13288,7 +13291,7 @@
         <v>44008</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13345,7 +13348,7 @@
         <v>44013</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13407,7 +13410,7 @@
         <v>44021</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13469,7 +13472,7 @@
         <v>44022</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13526,7 +13529,7 @@
         <v>44025</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13583,7 +13586,7 @@
         <v>44029</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13645,7 +13648,7 @@
         <v>44043</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13707,7 +13710,7 @@
         <v>44049</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13764,7 +13767,7 @@
         <v>44056</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13821,7 +13824,7 @@
         <v>44056</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13878,7 +13881,7 @@
         <v>44085</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13940,7 +13943,7 @@
         <v>44088</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14002,7 +14005,7 @@
         <v>44097</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14059,7 +14062,7 @@
         <v>44106</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14116,7 +14119,7 @@
         <v>44111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14173,7 +14176,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14230,7 +14233,7 @@
         <v>44116</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14287,7 +14290,7 @@
         <v>44144</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14344,7 +14347,7 @@
         <v>44150</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14401,7 +14404,7 @@
         <v>44151</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14458,7 +14461,7 @@
         <v>44154</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14515,7 +14518,7 @@
         <v>44154</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14572,7 +14575,7 @@
         <v>44154</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14629,7 +14632,7 @@
         <v>44165</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14691,7 +14694,7 @@
         <v>44200</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14748,7 +14751,7 @@
         <v>44208</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14805,7 +14808,7 @@
         <v>44208</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14867,7 +14870,7 @@
         <v>44211</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14924,7 +14927,7 @@
         <v>44214</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14981,7 +14984,7 @@
         <v>44215</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15038,7 +15041,7 @@
         <v>44218</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15095,7 +15098,7 @@
         <v>44231</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15157,7 +15160,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15219,7 +15222,7 @@
         <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15281,7 +15284,7 @@
         <v>44270</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15338,7 +15341,7 @@
         <v>44281</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15395,7 +15398,7 @@
         <v>44286</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15452,7 +15455,7 @@
         <v>44286</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15514,7 +15517,7 @@
         <v>44290</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15576,7 +15579,7 @@
         <v>44291</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15638,7 +15641,7 @@
         <v>44308</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15700,7 +15703,7 @@
         <v>44309</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15762,7 +15765,7 @@
         <v>44323</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15824,7 +15827,7 @@
         <v>44333</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15886,7 +15889,7 @@
         <v>44333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15948,7 +15951,7 @@
         <v>44335</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16005,7 +16008,7 @@
         <v>44335</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16067,7 +16070,7 @@
         <v>44337</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16129,7 +16132,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16186,7 +16189,7 @@
         <v>44337</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16248,7 +16251,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16310,7 +16313,7 @@
         <v>44365</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16372,7 +16375,7 @@
         <v>44368</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16434,7 +16437,7 @@
         <v>44371</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16496,7 +16499,7 @@
         <v>44382</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16558,7 +16561,7 @@
         <v>44389</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16620,7 +16623,7 @@
         <v>44389</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16682,7 +16685,7 @@
         <v>44417</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16739,7 +16742,7 @@
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16801,7 +16804,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16863,7 +16866,7 @@
         <v>44427</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16925,7 +16928,7 @@
         <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16982,7 +16985,7 @@
         <v>44434</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17044,7 +17047,7 @@
         <v>44438</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17101,7 +17104,7 @@
         <v>44440</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17163,7 +17166,7 @@
         <v>44441</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17225,7 +17228,7 @@
         <v>44446</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17287,7 +17290,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17349,7 +17352,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17406,7 +17409,7 @@
         <v>44452</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17463,7 +17466,7 @@
         <v>44452</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17525,7 +17528,7 @@
         <v>44453</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17582,7 +17585,7 @@
         <v>44453</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17639,7 +17642,7 @@
         <v>44453</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17696,7 +17699,7 @@
         <v>44459</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17758,7 +17761,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17820,7 +17823,7 @@
         <v>44463</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17882,7 +17885,7 @@
         <v>44469</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17944,7 +17947,7 @@
         <v>44480</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18001,7 +18004,7 @@
         <v>44481</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18063,7 +18066,7 @@
         <v>44482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18125,7 +18128,7 @@
         <v>44491</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18187,7 +18190,7 @@
         <v>44496</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18244,7 +18247,7 @@
         <v>44496</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18301,7 +18304,7 @@
         <v>44515</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18358,7 +18361,7 @@
         <v>44529</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18420,7 +18423,7 @@
         <v>44547</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18477,7 +18480,7 @@
         <v>44548</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18534,7 +18537,7 @@
         <v>44560</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18591,7 +18594,7 @@
         <v>44571</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18648,7 +18651,7 @@
         <v>44578</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18705,7 +18708,7 @@
         <v>44579</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18762,7 +18765,7 @@
         <v>44580</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18819,7 +18822,7 @@
         <v>44581</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18876,7 +18879,7 @@
         <v>44581</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18933,7 +18936,7 @@
         <v>44581</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18990,7 +18993,7 @@
         <v>44588</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19047,7 +19050,7 @@
         <v>44603</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19104,7 +19107,7 @@
         <v>44616</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19161,7 +19164,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19218,7 +19221,7 @@
         <v>44644</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19275,7 +19278,7 @@
         <v>44656</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19337,7 +19340,7 @@
         <v>44670</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19394,7 +19397,7 @@
         <v>44677</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19451,7 +19454,7 @@
         <v>44677</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19513,7 +19516,7 @@
         <v>44689</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19575,7 +19578,7 @@
         <v>44696</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19632,7 +19635,7 @@
         <v>44700</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19689,7 +19692,7 @@
         <v>44701</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19751,7 +19754,7 @@
         <v>44704</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19808,7 +19811,7 @@
         <v>44704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19865,7 +19868,7 @@
         <v>44704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19927,7 +19930,7 @@
         <v>44705</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19989,7 +19992,7 @@
         <v>44708</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20051,7 +20054,7 @@
         <v>44708</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20113,7 +20116,7 @@
         <v>44713</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20175,7 +20178,7 @@
         <v>44713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20237,7 +20240,7 @@
         <v>44722</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20299,7 +20302,7 @@
         <v>44725</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20376,7 +20379,7 @@
         <v>44726</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20438,7 +20441,7 @@
         <v>44728</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20495,7 +20498,7 @@
         <v>44732</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20557,7 +20560,7 @@
         <v>44734</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20614,7 +20617,7 @@
         <v>44734</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20671,7 +20674,7 @@
         <v>44735</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20728,7 +20731,7 @@
         <v>44739</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20785,7 +20788,7 @@
         <v>44739</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20842,7 +20845,7 @@
         <v>44742</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20904,7 +20907,7 @@
         <v>44743</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20961,7 +20964,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21018,7 +21021,7 @@
         <v>44747</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21080,7 +21083,7 @@
         <v>44748</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21137,7 +21140,7 @@
         <v>44750</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21199,7 +21202,7 @@
         <v>44750</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21261,7 +21264,7 @@
         <v>44755</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21318,7 +21321,7 @@
         <v>44756</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21375,7 +21378,7 @@
         <v>44769</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21432,7 +21435,7 @@
         <v>44788</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21489,7 +21492,7 @@
         <v>44792</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21546,7 +21549,7 @@
         <v>44804</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21603,7 +21606,7 @@
         <v>44804</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21660,7 +21663,7 @@
         <v>44827</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21717,7 +21720,7 @@
         <v>44837</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21774,7 +21777,7 @@
         <v>44843</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21831,7 +21834,7 @@
         <v>44847</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21888,7 +21891,7 @@
         <v>44858</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21945,7 +21948,7 @@
         <v>44859</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22007,7 +22010,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22064,7 +22067,7 @@
         <v>44865</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22121,7 +22124,7 @@
         <v>44865</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22178,7 +22181,7 @@
         <v>44865</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22240,7 +22243,7 @@
         <v>44874</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22297,7 +22300,7 @@
         <v>44880</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22354,7 +22357,7 @@
         <v>44883</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22411,7 +22414,7 @@
         <v>44887</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22473,7 +22476,7 @@
         <v>44887</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22530,7 +22533,7 @@
         <v>44887</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22587,7 +22590,7 @@
         <v>44888</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22644,7 +22647,7 @@
         <v>44890</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22701,7 +22704,7 @@
         <v>44894</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22758,7 +22761,7 @@
         <v>44894</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22815,7 +22818,7 @@
         <v>44903</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22872,7 +22875,7 @@
         <v>44907</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22929,7 +22932,7 @@
         <v>44908</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22991,7 +22994,7 @@
         <v>44909</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23048,7 +23051,7 @@
         <v>44911</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23110,7 +23113,7 @@
         <v>44917</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23167,7 +23170,7 @@
         <v>44922</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23229,7 +23232,7 @@
         <v>44924</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23286,7 +23289,7 @@
         <v>44924</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23343,7 +23346,7 @@
         <v>44929</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23400,7 +23403,7 @@
         <v>44936</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23457,7 +23460,7 @@
         <v>44945</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23514,7 +23517,7 @@
         <v>44945</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23571,7 +23574,7 @@
         <v>44945</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23628,7 +23631,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23685,7 +23688,7 @@
         <v>44956</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23742,7 +23745,7 @@
         <v>44957</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23799,7 +23802,7 @@
         <v>44964</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23861,7 +23864,7 @@
         <v>44964</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23923,7 +23926,7 @@
         <v>44964</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23985,7 +23988,7 @@
         <v>44964</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24047,7 +24050,7 @@
         <v>44964</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24109,7 +24112,7 @@
         <v>44964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24171,7 +24174,7 @@
         <v>44964</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24233,7 +24236,7 @@
         <v>44964</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24290,7 +24293,7 @@
         <v>44964</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24352,7 +24355,7 @@
         <v>44966</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24414,7 +24417,7 @@
         <v>44966</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24471,7 +24474,7 @@
         <v>44966</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24528,7 +24531,7 @@
         <v>44971</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24590,7 +24593,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24647,7 +24650,7 @@
         <v>44973</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24704,7 +24707,7 @@
         <v>44980</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24761,7 +24764,7 @@
         <v>44980</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24818,7 +24821,7 @@
         <v>44984</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24875,7 +24878,7 @@
         <v>44984</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24932,7 +24935,7 @@
         <v>44988</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24994,7 +24997,7 @@
         <v>44991</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25051,7 +25054,7 @@
         <v>44994</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25113,7 +25116,7 @@
         <v>45005</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25175,7 +25178,7 @@
         <v>45005</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25232,7 +25235,7 @@
         <v>45013</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25289,7 +25292,7 @@
         <v>45013</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25351,7 +25354,7 @@
         <v>45022</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25408,7 +25411,7 @@
         <v>45027</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25470,7 +25473,7 @@
         <v>45027</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25532,7 +25535,7 @@
         <v>45028</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25589,7 +25592,7 @@
         <v>45030</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25651,7 +25654,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25708,7 +25711,7 @@
         <v>45040</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25770,7 +25773,7 @@
         <v>45040</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25827,7 +25830,7 @@
         <v>45041</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25889,7 +25892,7 @@
         <v>45043</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25951,7 +25954,7 @@
         <v>45046</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26008,7 +26011,7 @@
         <v>45046</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26065,7 +26068,7 @@
         <v>45046</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26122,7 +26125,7 @@
         <v>45049</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26179,7 +26182,7 @@
         <v>45057</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26241,7 +26244,7 @@
         <v>45057</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26298,7 +26301,7 @@
         <v>45061</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26360,7 +26363,7 @@
         <v>45061</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26422,7 +26425,7 @@
         <v>45061</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26484,7 +26487,7 @@
         <v>45062</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26546,7 +26549,7 @@
         <v>45063</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26603,7 +26606,7 @@
         <v>45063</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26665,7 +26668,7 @@
         <v>45072</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26722,7 +26725,7 @@
         <v>45075</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26784,7 +26787,7 @@
         <v>45080</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26841,7 +26844,7 @@
         <v>45084</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26898,7 +26901,7 @@
         <v>45092</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26955,7 +26958,7 @@
         <v>45092</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27012,7 +27015,7 @@
         <v>45092</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27069,7 +27072,7 @@
         <v>45098</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27131,7 +27134,7 @@
         <v>45099</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27193,7 +27196,7 @@
         <v>45105</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27250,7 +27253,7 @@
         <v>45106</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27307,7 +27310,7 @@
         <v>45111</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27364,7 +27367,7 @@
         <v>45119</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27426,7 +27429,7 @@
         <v>45127</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27483,7 +27486,7 @@
         <v>45130</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27540,7 +27543,7 @@
         <v>45133</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27602,7 +27605,7 @@
         <v>45135</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27664,7 +27667,7 @@
         <v>45135</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27726,7 +27729,7 @@
         <v>45138</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27788,7 +27791,7 @@
         <v>45142</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27850,7 +27853,7 @@
         <v>45146</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27912,7 +27915,7 @@
         <v>45148</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27974,7 +27977,7 @@
         <v>45153</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28036,7 +28039,7 @@
         <v>45161</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28098,7 +28101,7 @@
         <v>45162</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28160,7 +28163,7 @@
         <v>45167</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28217,7 +28220,7 @@
         <v>45168</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28279,7 +28282,7 @@
         <v>45174</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>

--- a/Översikt TIERP.xlsx
+++ b/Översikt TIERP.xlsx
@@ -572,7 +572,7 @@
         <v>44376</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>43627</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>44651</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44980</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>43381</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44977</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45040</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44361</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44552</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44995</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>43768</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>44550</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44551</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44662</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>44950</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44966</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44970</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43488</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>43664</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43777</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>44468</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>44636</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44651</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44846</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>44887</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>44950</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>44956</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>45084</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>45105</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>43635</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43651</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43847</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>43906</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43930</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>43931</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>44218</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>44551</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44560</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>44595</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>44607</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44742</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>44788</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44823</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44845</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>44894</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44960</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>44970</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>44984</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>45160</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>45163</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43336</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43336</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43343</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43355</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43367</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43371</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43378</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43385</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43412</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43416</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43419</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43424</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>43427</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>43439</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>43440</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         <v>43446</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>43446</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>43447</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43447</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43450</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43450</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43450</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43451</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>43462</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>43475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>43476</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>43486</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8031,7 +8031,7 @@
         <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>43488</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>43488</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>43495</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>43496</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>43500</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>43514</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>43517</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>43528</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>43536</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>43539</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>43559</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         <v>43567</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>43606</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>43612</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>43633</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>43641</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>43642</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>43651</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>43656</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>43656</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>43668</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43676</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43686</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43692</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43692</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43706</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43707</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>43711</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43733</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43734</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43738</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43740</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43741</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43746</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43747</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43756</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>43761</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>43770</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10750,7 +10750,7 @@
         <v>43770</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>43774</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43780</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>43780</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>43796</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>43797</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>43801</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>43801</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>43802</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>43812</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>43829</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>43839</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>43843</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>43853</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>43859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43874</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43875</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43880</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43882</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>43893</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>43896</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>43900</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>43901</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>43906</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>43913</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12406,7 +12406,7 @@
         <v>43913</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
         <v>43936</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>43938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>43957</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>43958</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>43963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43964</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>43965</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>43983</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>43985</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>43985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>43985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>43993</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44006</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44007</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44008</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>44013</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44021</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44022</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44025</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44029</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44043</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13710,7 +13710,7 @@
         <v>44049</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13767,7 +13767,7 @@
         <v>44056</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44056</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44085</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>44088</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44097</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44106</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44116</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>44144</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>44150</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>44151</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44154</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44154</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44154</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44165</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44200</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>44208</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44208</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>44211</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>44214</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44215</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44218</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44231</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44270</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>44281</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>44286</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44286</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>44290</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44291</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15641,7 +15641,7 @@
         <v>44308</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>44309</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
         <v>44323</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44333</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44335</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16008,7 +16008,7 @@
         <v>44335</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44337</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>44337</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16313,7 +16313,7 @@
         <v>44365</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>44368</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>44371</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>44382</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16561,7 +16561,7 @@
         <v>44389</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>44389</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44417</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         <v>44427</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16928,7 +16928,7 @@
         <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16985,7 +16985,7 @@
         <v>44434</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>44438</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>44440</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44441</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>44446</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44452</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44452</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17528,7 +17528,7 @@
         <v>44453</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17585,7 +17585,7 @@
         <v>44453</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>44453</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17699,7 +17699,7 @@
         <v>44459</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>44463</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>44469</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>44480</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>44481</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>44482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44491</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44496</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>44496</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44515</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44529</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44547</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44548</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44560</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44571</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44578</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44579</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44580</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44581</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>44581</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>44581</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44588</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>44603</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>44616</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44644</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44656</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44670</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44677</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44677</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>44689</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>44696</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>44700</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>44701</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19754,7 +19754,7 @@
         <v>44704</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19811,7 +19811,7 @@
         <v>44704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19868,7 +19868,7 @@
         <v>44704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         <v>44705</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19992,7 +19992,7 @@
         <v>44708</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>44708</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44713</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20178,7 +20178,7 @@
         <v>44713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20240,7 +20240,7 @@
         <v>44722</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>44725</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20379,7 +20379,7 @@
         <v>44726</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>44728</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20498,7 +20498,7 @@
         <v>44732</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>44734</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
         <v>44734</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>44735</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>44739</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>44739</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>44742</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>44743</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>44747</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>44748</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>44750</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         <v>44750</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21264,7 +21264,7 @@
         <v>44755</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>44756</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>44769</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21435,7 +21435,7 @@
         <v>44788</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>44792</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44804</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>44804</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>44827</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>44837</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21777,7 +21777,7 @@
         <v>44843</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21834,7 +21834,7 @@
         <v>44847</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21891,7 +21891,7 @@
         <v>44858</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
         <v>44859</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22010,7 +22010,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44865</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>44865</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
         <v>44865</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>44874</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>44880</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>44883</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>44887</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22476,7 +22476,7 @@
         <v>44887</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>44887</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>44888</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>44890</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>44894</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>44894</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>44903</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>44907</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>44908</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44909</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44911</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
         <v>44917</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>44922</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>44924</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>44924</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         <v>44929</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>44936</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>44945</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44945</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>44945</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>44956</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>44957</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>44964</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>44964</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>44964</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
         <v>44964</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44964</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24174,7 +24174,7 @@
         <v>44964</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44964</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>44964</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>44966</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24417,7 +24417,7 @@
         <v>44966</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24474,7 +24474,7 @@
         <v>44966</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>44971</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24593,7 +24593,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24650,7 +24650,7 @@
         <v>44973</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24707,7 +24707,7 @@
         <v>44980</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>44980</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44984</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24878,7 +24878,7 @@
         <v>44984</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24935,7 +24935,7 @@
         <v>44988</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>44991</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>44994</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25116,7 +25116,7 @@
         <v>45005</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25178,7 +25178,7 @@
         <v>45005</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>45013</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25292,7 +25292,7 @@
         <v>45013</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45022</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45027</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>45027</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>45028</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>45030</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25654,7 +25654,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25711,7 +25711,7 @@
         <v>45040</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25773,7 +25773,7 @@
         <v>45040</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25830,7 +25830,7 @@
         <v>45041</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>45043</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45046</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45046</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45046</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45049</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>45057</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45057</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>45061</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>45061</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45061</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26487,7 +26487,7 @@
         <v>45062</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26549,7 +26549,7 @@
         <v>45063</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26606,7 +26606,7 @@
         <v>45063</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         <v>45072</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>45075</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26787,7 +26787,7 @@
         <v>45080</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26844,7 +26844,7 @@
         <v>45084</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         <v>45092</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26958,7 +26958,7 @@
         <v>45092</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27015,7 +27015,7 @@
         <v>45092</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27072,7 +27072,7 @@
         <v>45098</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>45099</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>45105</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>45106</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27310,7 +27310,7 @@
         <v>45111</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>45119</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>45127</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         <v>45130</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>45133</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>45135</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>45135</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>45138</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>45142</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>45146</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>45148</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>45153</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>45161</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>45162</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>45167</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>45168</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28282,7 +28282,7 @@
         <v>45174</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>

--- a/Översikt TIERP.xlsx
+++ b/Översikt TIERP.xlsx
@@ -572,7 +572,7 @@
         <v>44376</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>43627</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>44651</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44980</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>43381</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45040</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>44361</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>44552</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>44995</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>45180</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43768</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44550</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44551</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>44662</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44950</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>44966</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44970</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>43488</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43664</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44468</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>44636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         <v>44651</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>44846</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44887</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>44950</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>45084</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>45105</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43486</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43635</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>43651</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43847</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>43860</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43906</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43930</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43931</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44218</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44551</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44560</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44595</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>44607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44742</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>44788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>44823</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>44845</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>44894</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>44960</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44970</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44984</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>45160</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45163</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43336</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43336</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43343</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>43355</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43367</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>43371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43378</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43385</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43416</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43419</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43424</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43434</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43440</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43446</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43446</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43447</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>43447</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43450</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43450</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>43450</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>43451</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43462</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>43476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43486</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43488</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43488</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43495</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43496</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43500</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43514</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>43517</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>43528</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43536</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43539</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43559</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>43633</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>43642</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>43656</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>43656</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>43668</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>43686</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>43692</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>43692</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43706</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>43707</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>43711</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>43733</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>43733</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>43734</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>43738</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         <v>43740</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10497,7 +10497,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>43756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>43770</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43770</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10968,7 +10968,7 @@
         <v>43780</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11082,7 +11082,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>43797</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43801</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43801</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43802</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43812</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43829</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>43839</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>43843</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>43853</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>43874</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>43875</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>43880</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>43882</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43893</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>43896</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>43900</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>43901</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43906</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>43913</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43913</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12624,7 +12624,7 @@
         <v>43938</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>43957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12862,7 +12862,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>43965</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>43983</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>43985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>43985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>43985</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>43993</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44006</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>44007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13385,7 +13385,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>44013</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44021</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>44022</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>44025</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44029</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>44043</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44049</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13861,7 +13861,7 @@
         <v>44056</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13918,7 +13918,7 @@
         <v>44056</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>44085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44088</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44097</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44106</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44116</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44144</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44150</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44151</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44154</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44154</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44154</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44200</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44208</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44208</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
         <v>44211</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>44214</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44215</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44218</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44231</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>44266</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44281</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44286</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44286</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44290</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44291</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>44308</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>44309</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>44323</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>44333</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>44335</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>44335</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44337</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44337</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
         <v>44347</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16407,7 +16407,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
         <v>44371</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>44389</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>44421</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>44427</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>44431</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         <v>44434</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44438</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44440</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44441</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         <v>44446</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>44452</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>44452</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>44452</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44453</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44453</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44453</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44459</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44463</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44469</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>44481</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18160,7 +18160,7 @@
         <v>44482</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44491</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>44496</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44496</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44515</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44529</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>44547</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>44548</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>44560</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44578</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44579</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44581</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44581</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44581</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>44588</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>44603</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         <v>44616</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44617</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44644</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44656</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44670</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>44677</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19548,7 +19548,7 @@
         <v>44677</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44689</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44696</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44700</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44701</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>44704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44705</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>44708</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44708</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>44713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>44713</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44722</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>44725</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44726</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>44728</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>44732</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
         <v>44734</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20711,7 +20711,7 @@
         <v>44734</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>44735</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>44739</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>44739</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>44743</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>44747</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44750</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>44750</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21358,7 +21358,7 @@
         <v>44755</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>44756</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21472,7 +21472,7 @@
         <v>44769</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21529,7 +21529,7 @@
         <v>44788</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>44804</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21700,7 +21700,7 @@
         <v>44804</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44827</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21814,7 +21814,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21871,7 +21871,7 @@
         <v>44843</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>44847</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44858</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22104,7 +22104,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>44865</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>44865</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>44865</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22337,7 +22337,7 @@
         <v>44874</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22394,7 +22394,7 @@
         <v>44880</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22451,7 +22451,7 @@
         <v>44883</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>44887</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22570,7 +22570,7 @@
         <v>44887</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>44887</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>44888</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>44890</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>44894</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>44894</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>44903</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>44907</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>44908</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>44909</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23145,7 +23145,7 @@
         <v>44911</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>44917</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>44922</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>44924</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>44924</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>44929</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>44945</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>44945</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>44945</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
         <v>44953</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>44956</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>44957</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>44964</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>44964</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44964</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44964</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44964</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44964</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44964</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>44964</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44966</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44966</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44966</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>44971</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44973</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
         <v>44980</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>44980</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24915,7 +24915,7 @@
         <v>44984</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>44984</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>44988</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44991</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44994</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         <v>45005</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25272,7 +25272,7 @@
         <v>45005</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25329,7 +25329,7 @@
         <v>45013</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25386,7 +25386,7 @@
         <v>45013</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25448,7 +25448,7 @@
         <v>45022</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25505,7 +25505,7 @@
         <v>45027</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>45027</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25629,7 +25629,7 @@
         <v>45028</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25686,7 +25686,7 @@
         <v>45030</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25748,7 +25748,7 @@
         <v>45033</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>45040</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>45040</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>45041</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>45043</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>45046</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>45046</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>45046</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>45049</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>45057</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>45057</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26395,7 +26395,7 @@
         <v>45061</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>45061</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26519,7 +26519,7 @@
         <v>45061</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26581,7 +26581,7 @@
         <v>45062</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>45063</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45063</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45075</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45080</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45084</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45092</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45092</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45092</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45098</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27228,7 +27228,7 @@
         <v>45099</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>45105</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>45106</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>45111</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>45119</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         <v>45127</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>45130</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>45133</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27699,7 +27699,7 @@
         <v>45135</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27761,7 +27761,7 @@
         <v>45135</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>45138</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27885,7 +27885,7 @@
         <v>45142</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27947,7 +27947,7 @@
         <v>45146</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45148</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>45153</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45161</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45162</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>45167</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>45168</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>45174</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>

--- a/Översikt TIERP.xlsx
+++ b/Översikt TIERP.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y440"/>
+  <dimension ref="A1:Y441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44376</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>43627</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>44651</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44980</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>43381</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45040</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>44361</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>44552</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>44995</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>45180</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43768</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44550</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44551</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>44662</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44950</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>44966</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44970</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>43488</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43664</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44468</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>44636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         <v>44651</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>44846</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44887</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>44950</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>45084</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>45105</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43486</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43635</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>43651</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43847</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>43860</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43906</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43930</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43931</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44218</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44551</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44560</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44595</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>44607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44742</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>44788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>44823</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>44845</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>44894</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>44960</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44970</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44984</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>45160</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45163</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43336</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43336</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43343</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>43355</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43367</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>43371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43378</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43385</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43416</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43419</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43424</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43434</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43440</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43446</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43446</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43447</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>43447</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43450</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43450</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>43450</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>43451</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43462</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>43476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43486</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43488</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43488</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43495</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43496</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43500</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43514</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>43517</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>43528</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43536</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43539</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43559</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>43633</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>43642</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>43656</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>43656</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>43668</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>43686</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>43692</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>43692</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43706</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>43707</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>43711</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>43733</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>43733</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>43734</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>43738</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         <v>43740</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10497,7 +10497,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>43756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>43770</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43770</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10968,7 +10968,7 @@
         <v>43780</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11082,7 +11082,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>43797</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43801</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43801</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43802</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43812</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43829</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>43839</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>43843</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>43853</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>43874</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>43875</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>43880</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>43882</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>43893</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>43896</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>43900</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>43901</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43906</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>43913</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43913</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12624,7 +12624,7 @@
         <v>43938</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>43957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12862,7 +12862,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>43965</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>43983</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>43985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>43985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>43985</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>43993</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44006</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>44007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13385,7 +13385,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>44013</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44021</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>44022</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>44025</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44029</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>44043</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44049</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13861,7 +13861,7 @@
         <v>44056</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13918,7 +13918,7 @@
         <v>44056</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>44085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44088</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44097</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44106</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44116</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44144</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44150</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44151</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44154</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44154</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44154</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44200</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44208</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44208</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
         <v>44211</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>44214</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44215</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44218</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44231</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>44266</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44281</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44286</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44286</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44290</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44291</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>44308</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>44309</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>44323</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>44333</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>44335</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>44335</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44337</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44337</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
         <v>44347</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16407,7 +16407,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
         <v>44371</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>44389</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>44421</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>44427</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>44431</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         <v>44434</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44438</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44440</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44441</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         <v>44446</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>44452</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>44452</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>44452</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44453</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44453</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44453</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44459</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44463</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44469</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>44481</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18160,7 +18160,7 @@
         <v>44482</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44491</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>44496</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44496</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44515</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44529</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>44547</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>44548</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>44560</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44578</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44579</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44581</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44581</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44581</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>44588</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>44603</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         <v>44616</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44617</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44644</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44656</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44670</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>44677</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19548,7 +19548,7 @@
         <v>44677</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44689</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44696</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44700</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44701</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>44704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44705</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>44708</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44708</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>44713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>44713</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44722</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>44725</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44726</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>44728</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>44732</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
         <v>44734</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20711,7 +20711,7 @@
         <v>44734</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>44735</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>44739</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>44739</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>44743</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>44747</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44750</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>44750</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21358,7 +21358,7 @@
         <v>44755</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>44756</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21472,7 +21472,7 @@
         <v>44769</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21529,7 +21529,7 @@
         <v>44788</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>44804</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21700,7 +21700,7 @@
         <v>44804</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44827</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21814,7 +21814,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21871,7 +21871,7 @@
         <v>44843</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>44847</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44858</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22104,7 +22104,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>44865</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>44865</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>44865</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22337,7 +22337,7 @@
         <v>44874</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22394,7 +22394,7 @@
         <v>44880</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22451,7 +22451,7 @@
         <v>44883</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>44887</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22570,7 +22570,7 @@
         <v>44887</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>44887</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>44888</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>44890</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>44894</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>44894</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>44903</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>44907</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>44908</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>44909</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23145,7 +23145,7 @@
         <v>44911</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>44917</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>44922</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>44924</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>44924</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>44929</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>44945</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>44945</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>44945</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
         <v>44953</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>44956</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>44957</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>44964</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>44964</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44964</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44964</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44964</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44964</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44964</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>44964</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44966</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44966</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44966</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>44971</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44973</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
         <v>44980</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>44980</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24915,7 +24915,7 @@
         <v>44984</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>44984</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>44988</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>44991</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44994</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         <v>45005</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25272,7 +25272,7 @@
         <v>45005</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25329,7 +25329,7 @@
         <v>45013</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25386,7 +25386,7 @@
         <v>45013</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25448,7 +25448,7 @@
         <v>45022</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25505,7 +25505,7 @@
         <v>45027</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>45027</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25629,7 +25629,7 @@
         <v>45028</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25686,7 +25686,7 @@
         <v>45030</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25748,7 +25748,7 @@
         <v>45033</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>45040</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>45040</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>45041</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>45043</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>45046</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>45046</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>45046</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>45049</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>45057</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>45057</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26395,7 +26395,7 @@
         <v>45061</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>45061</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26519,7 +26519,7 @@
         <v>45061</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26581,7 +26581,7 @@
         <v>45062</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>45063</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45063</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45075</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45080</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45084</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45092</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45092</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45092</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45098</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27228,7 +27228,7 @@
         <v>45099</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>45105</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>45106</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>45111</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>45119</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         <v>45127</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>45130</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>45133</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27699,7 +27699,7 @@
         <v>45135</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27761,7 +27761,7 @@
         <v>45135</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>45138</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27885,7 +27885,7 @@
         <v>45142</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27947,7 +27947,7 @@
         <v>45146</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45148</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>45153</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45161</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45162</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>45167</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>45168</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
       </c>
       <c r="R439" s="2" t="inlineStr"/>
     </row>
-    <row r="440">
+    <row r="440" ht="15" customHeight="1">
       <c r="A440" t="inlineStr">
         <is>
           <t>A 41182-2023</t>
@@ -28376,7 +28376,7 @@
         <v>45174</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28427,6 +28427,63 @@
         <v>0</v>
       </c>
       <c r="R440" s="2" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>A 42642-2023</t>
+        </is>
+      </c>
+      <c r="B441" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C441" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="G441" t="n">
+        <v>3</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0</v>
+      </c>
+      <c r="I441" t="n">
+        <v>0</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0</v>
+      </c>
+      <c r="L441" t="n">
+        <v>0</v>
+      </c>
+      <c r="M441" t="n">
+        <v>0</v>
+      </c>
+      <c r="N441" t="n">
+        <v>0</v>
+      </c>
+      <c r="O441" t="n">
+        <v>0</v>
+      </c>
+      <c r="P441" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q441" t="n">
+        <v>0</v>
+      </c>
+      <c r="R441" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt TIERP.xlsx
+++ b/Översikt TIERP.xlsx
@@ -572,7 +572,7 @@
         <v>44376</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
         <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -620,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -636,6 +636,7 @@
 Olivspindling
 Rödgul trumpetsvamp
 Skogsknipprot
+Strimspindling
 Sårläka
 Tibast
 Tvåblad
@@ -645,27 +646,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 33126-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 33126-2021.xlsx", "A 33126-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 33126-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 33126-2021.png", "A 33126-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 33126-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 33126-2021.docx", "A 33126-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 33126-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 33126-2021.docx", "A 33126-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 33126-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 33126-2021.docx", "A 33126-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 33126-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 33126-2021.docx", "A 33126-2021")</f>
         <v/>
       </c>
     </row>
@@ -679,7 +680,7 @@
         <v>44970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,31 +751,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 7208-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 7208-2023.xlsx", "A 7208-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 7208-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 7208-2023.png", "A 7208-2023")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/knärot/A 7208-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/knärot/A 7208-2023.png", "A 7208-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 7208-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 7208-2023.docx", "A 7208-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 7208-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 7208-2023.docx", "A 7208-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 7208-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 7208-2023.docx", "A 7208-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 7208-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 7208-2023.docx", "A 7208-2023")</f>
         <v/>
       </c>
     </row>
@@ -788,7 +789,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,27 +860,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 29232-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 29232-2023.xlsx", "A 29232-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 29232-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 29232-2023.png", "A 29232-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 29232-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 29232-2023.docx", "A 29232-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 29232-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 29232-2023.docx", "A 29232-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 29232-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 29232-2023.docx", "A 29232-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 29232-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 29232-2023.docx", "A 29232-2023")</f>
         <v/>
       </c>
     </row>
@@ -893,7 +894,7 @@
         <v>43627</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -955,27 +956,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 28821-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 28821-2019.xlsx", "A 28821-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 28821-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 28821-2019.png", "A 28821-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 28821-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 28821-2019.docx", "A 28821-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 28821-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 28821-2019.docx", "A 28821-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 28821-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 28821-2019.docx", "A 28821-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 28821-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 28821-2019.docx", "A 28821-2019")</f>
         <v/>
       </c>
     </row>
@@ -989,7 +990,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,27 +1050,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 2802-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 2802-2021.xlsx", "A 2802-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 2802-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 2802-2021.png", "A 2802-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 2802-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 2802-2021.docx", "A 2802-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 2802-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 2802-2021.docx", "A 2802-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 2802-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 2802-2021.docx", "A 2802-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 2802-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 2802-2021.docx", "A 2802-2021")</f>
         <v/>
       </c>
     </row>
@@ -1083,7 +1084,7 @@
         <v>44651</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,27 +1149,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 14157-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 14157-2022.xlsx", "A 14157-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 14157-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 14157-2022.png", "A 14157-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 14157-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 14157-2022.docx", "A 14157-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 14157-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 14157-2022.docx", "A 14157-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 14157-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 14157-2022.docx", "A 14157-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 14157-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 14157-2022.docx", "A 14157-2022")</f>
         <v/>
       </c>
     </row>
@@ -1182,7 +1183,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1243,27 +1244,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 8507-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 8507-2023.xlsx", "A 8507-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 8507-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 8507-2023.png", "A 8507-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 8507-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 8507-2023.docx", "A 8507-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 8507-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 8507-2023.docx", "A 8507-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 8507-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 8507-2023.docx", "A 8507-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 8507-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 8507-2023.docx", "A 8507-2023")</f>
         <v/>
       </c>
     </row>
@@ -1277,7 +1278,7 @@
         <v>44980</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,31 +1339,31 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 9126-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 9126-2023.xlsx", "A 9126-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 9126-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 9126-2023.png", "A 9126-2023")</f>
         <v/>
       </c>
       <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/knärot/A 9126-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/knärot/A 9126-2023.png", "A 9126-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 9126-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 9126-2023.docx", "A 9126-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 9126-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 9126-2023.docx", "A 9126-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 9126-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 9126-2023.docx", "A 9126-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 9126-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 9126-2023.docx", "A 9126-2023")</f>
         <v/>
       </c>
     </row>
@@ -1376,7 +1377,7 @@
         <v>43381</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1431,27 +1432,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 51438-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 51438-2018.xlsx", "A 51438-2018")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 51438-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 51438-2018.png", "A 51438-2018")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 51438-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 51438-2018.docx", "A 51438-2018")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 51438-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 51438-2018.docx", "A 51438-2018")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 51438-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 51438-2018.docx", "A 51438-2018")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 51438-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 51438-2018.docx", "A 51438-2018")</f>
         <v/>
       </c>
     </row>
@@ -1465,7 +1466,7 @@
         <v>45040</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,27 +1521,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 17954-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 17954-2023.xlsx", "A 17954-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 17954-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 17954-2023.png", "A 17954-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 17954-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 17954-2023.docx", "A 17954-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 17954-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 17954-2023.docx", "A 17954-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 17954-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 17954-2023.docx", "A 17954-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 17954-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 17954-2023.docx", "A 17954-2023")</f>
         <v/>
       </c>
     </row>
@@ -1554,7 +1555,7 @@
         <v>44361</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1613,27 +1614,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 29306-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 29306-2021.xlsx", "A 29306-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 29306-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 29306-2021.png", "A 29306-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 29306-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 29306-2021.docx", "A 29306-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 29306-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 29306-2021.docx", "A 29306-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 29306-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 29306-2021.docx", "A 29306-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 29306-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 29306-2021.docx", "A 29306-2021")</f>
         <v/>
       </c>
     </row>
@@ -1647,7 +1648,7 @@
         <v>44552</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1706,27 +1707,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 73761-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 73761-2021.xlsx", "A 73761-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 73761-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 73761-2021.png", "A 73761-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 73761-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 73761-2021.docx", "A 73761-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 73761-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 73761-2021.docx", "A 73761-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 73761-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 73761-2021.docx", "A 73761-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 73761-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 73761-2021.docx", "A 73761-2021")</f>
         <v/>
       </c>
     </row>
@@ -1740,7 +1741,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,27 +1800,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 5089-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 5089-2023.xlsx", "A 5089-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 5089-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 5089-2023.png", "A 5089-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 5089-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 5089-2023.docx", "A 5089-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 5089-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 5089-2023.docx", "A 5089-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 5089-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 5089-2023.docx", "A 5089-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 5089-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 5089-2023.docx", "A 5089-2023")</f>
         <v/>
       </c>
     </row>
@@ -1833,7 +1834,7 @@
         <v>44995</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1892,31 +1893,31 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 11878-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 11878-2023.xlsx", "A 11878-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 11878-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 11878-2023.png", "A 11878-2023")</f>
         <v/>
       </c>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/knärot/A 11878-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/knärot/A 11878-2023.png", "A 11878-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 11878-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 11878-2023.docx", "A 11878-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 11878-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 11878-2023.docx", "A 11878-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 11878-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 11878-2023.docx", "A 11878-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 11878-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 11878-2023.docx", "A 11878-2023")</f>
         <v/>
       </c>
     </row>
@@ -1930,7 +1931,7 @@
         <v>45180</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1989,27 +1990,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 42343-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 42343-2023.xlsx", "A 42343-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 42343-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 42343-2023.png", "A 42343-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 42343-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 42343-2023.docx", "A 42343-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 42343-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 42343-2023.docx", "A 42343-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 42343-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 42343-2023.docx", "A 42343-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 42343-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 42343-2023.docx", "A 42343-2023")</f>
         <v/>
       </c>
     </row>
@@ -2023,7 +2024,7 @@
         <v>43768</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,27 +2077,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 57665-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 57665-2019.xlsx", "A 57665-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 57665-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 57665-2019.png", "A 57665-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 57665-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 57665-2019.docx", "A 57665-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 57665-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 57665-2019.docx", "A 57665-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 57665-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 57665-2019.docx", "A 57665-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 57665-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 57665-2019.docx", "A 57665-2019")</f>
         <v/>
       </c>
     </row>
@@ -2110,7 +2111,7 @@
         <v>44550</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2168,27 +2169,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 73005-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 73005-2021.xlsx", "A 73005-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 73005-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 73005-2021.png", "A 73005-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 73005-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 73005-2021.docx", "A 73005-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 73005-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 73005-2021.docx", "A 73005-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 73005-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 73005-2021.docx", "A 73005-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 73005-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 73005-2021.docx", "A 73005-2021")</f>
         <v/>
       </c>
     </row>
@@ -2202,7 +2203,7 @@
         <v>44551</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2255,27 +2256,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 73325-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 73325-2021.xlsx", "A 73325-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 73325-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 73325-2021.png", "A 73325-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 73325-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 73325-2021.docx", "A 73325-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 73325-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 73325-2021.docx", "A 73325-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 73325-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 73325-2021.docx", "A 73325-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 73325-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 73325-2021.docx", "A 73325-2021")</f>
         <v/>
       </c>
     </row>
@@ -2289,7 +2290,7 @@
         <v>44662</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2347,27 +2348,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 15592-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 15592-2022.xlsx", "A 15592-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 15592-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 15592-2022.png", "A 15592-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 15592-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 15592-2022.docx", "A 15592-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 15592-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 15592-2022.docx", "A 15592-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 15592-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 15592-2022.docx", "A 15592-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 15592-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 15592-2022.docx", "A 15592-2022")</f>
         <v/>
       </c>
     </row>
@@ -2381,7 +2382,7 @@
         <v>44875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2439,27 +2440,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 52951-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 52951-2022.xlsx", "A 52951-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 52951-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 52951-2022.png", "A 52951-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 52951-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 52951-2022.docx", "A 52951-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 52951-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 52951-2022.docx", "A 52951-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 52951-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 52951-2022.docx", "A 52951-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 52951-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 52951-2022.docx", "A 52951-2022")</f>
         <v/>
       </c>
     </row>
@@ -2473,7 +2474,7 @@
         <v>44950</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,27 +2532,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 3511-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 3511-2023.xlsx", "A 3511-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 3511-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 3511-2023.png", "A 3511-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 3511-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 3511-2023.docx", "A 3511-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 3511-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 3511-2023.docx", "A 3511-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 3511-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 3511-2023.docx", "A 3511-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 3511-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 3511-2023.docx", "A 3511-2023")</f>
         <v/>
       </c>
     </row>
@@ -2565,7 +2566,7 @@
         <v>44966</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2618,31 +2619,31 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 7366-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 7366-2023.xlsx", "A 7366-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 7366-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 7366-2023.png", "A 7366-2023")</f>
         <v/>
       </c>
       <c r="U23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/knärot/A 7366-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/knärot/A 7366-2023.png", "A 7366-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 7366-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 7366-2023.docx", "A 7366-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 7366-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 7366-2023.docx", "A 7366-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 7366-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 7366-2023.docx", "A 7366-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 7366-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 7366-2023.docx", "A 7366-2023")</f>
         <v/>
       </c>
     </row>
@@ -2656,7 +2657,7 @@
         <v>44970</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2714,31 +2715,31 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 7125-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 7125-2023.xlsx", "A 7125-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 7125-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 7125-2023.png", "A 7125-2023")</f>
         <v/>
       </c>
       <c r="U24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/knärot/A 7125-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/knärot/A 7125-2023.png", "A 7125-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 7125-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 7125-2023.docx", "A 7125-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 7125-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 7125-2023.docx", "A 7125-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 7125-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 7125-2023.docx", "A 7125-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 7125-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 7125-2023.docx", "A 7125-2023")</f>
         <v/>
       </c>
     </row>
@@ -2752,7 +2753,7 @@
         <v>43488</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2804,27 +2805,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 5208-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 5208-2019.xlsx", "A 5208-2019")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 5208-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 5208-2019.png", "A 5208-2019")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 5208-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 5208-2019.docx", "A 5208-2019")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 5208-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 5208-2019.docx", "A 5208-2019")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 5208-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 5208-2019.docx", "A 5208-2019")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 5208-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 5208-2019.docx", "A 5208-2019")</f>
         <v/>
       </c>
     </row>
@@ -2838,7 +2839,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2890,27 +2891,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 16676-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 16676-2019.xlsx", "A 16676-2019")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 16676-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 16676-2019.png", "A 16676-2019")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 16676-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 16676-2019.docx", "A 16676-2019")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 16676-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 16676-2019.docx", "A 16676-2019")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 16676-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 16676-2019.docx", "A 16676-2019")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 16676-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 16676-2019.docx", "A 16676-2019")</f>
         <v/>
       </c>
     </row>
@@ -2924,7 +2925,7 @@
         <v>43664</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2981,27 +2982,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 35563-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 35563-2019.xlsx", "A 35563-2019")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 35563-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 35563-2019.png", "A 35563-2019")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 35563-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 35563-2019.docx", "A 35563-2019")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 35563-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 35563-2019.docx", "A 35563-2019")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 35563-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 35563-2019.docx", "A 35563-2019")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 35563-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 35563-2019.docx", "A 35563-2019")</f>
         <v/>
       </c>
     </row>
@@ -3015,7 +3016,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3067,27 +3068,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 60083-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 60083-2019.xlsx", "A 60083-2019")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 60083-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 60083-2019.png", "A 60083-2019")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 60083-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 60083-2019.docx", "A 60083-2019")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 60083-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 60083-2019.docx", "A 60083-2019")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 60083-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 60083-2019.docx", "A 60083-2019")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 60083-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 60083-2019.docx", "A 60083-2019")</f>
         <v/>
       </c>
     </row>
@@ -3101,7 +3102,7 @@
         <v>44468</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3153,27 +3154,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 53324-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 53324-2021.xlsx", "A 53324-2021")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 53324-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 53324-2021.png", "A 53324-2021")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 53324-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 53324-2021.docx", "A 53324-2021")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 53324-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 53324-2021.docx", "A 53324-2021")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 53324-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 53324-2021.docx", "A 53324-2021")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 53324-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 53324-2021.docx", "A 53324-2021")</f>
         <v/>
       </c>
     </row>
@@ -3187,7 +3188,7 @@
         <v>44636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3239,27 +3240,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 12186-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 12186-2022.xlsx", "A 12186-2022")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 12186-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 12186-2022.png", "A 12186-2022")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 12186-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 12186-2022.docx", "A 12186-2022")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 12186-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 12186-2022.docx", "A 12186-2022")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 12186-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 12186-2022.docx", "A 12186-2022")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 12186-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 12186-2022.docx", "A 12186-2022")</f>
         <v/>
       </c>
     </row>
@@ -3273,7 +3274,7 @@
         <v>44651</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3330,27 +3331,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 14093-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 14093-2022.xlsx", "A 14093-2022")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 14093-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 14093-2022.png", "A 14093-2022")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 14093-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 14093-2022.docx", "A 14093-2022")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 14093-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 14093-2022.docx", "A 14093-2022")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 14093-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 14093-2022.docx", "A 14093-2022")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 14093-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 14093-2022.docx", "A 14093-2022")</f>
         <v/>
       </c>
     </row>
@@ -3364,7 +3365,7 @@
         <v>44846</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3416,27 +3417,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 45851-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 45851-2022.xlsx", "A 45851-2022")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 45851-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 45851-2022.png", "A 45851-2022")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 45851-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 45851-2022.docx", "A 45851-2022")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 45851-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 45851-2022.docx", "A 45851-2022")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 45851-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 45851-2022.docx", "A 45851-2022")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 45851-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 45851-2022.docx", "A 45851-2022")</f>
         <v/>
       </c>
     </row>
@@ -3450,7 +3451,7 @@
         <v>44887</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3507,27 +3508,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 56531-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 56531-2022.xlsx", "A 56531-2022")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 56531-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 56531-2022.png", "A 56531-2022")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 56531-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 56531-2022.docx", "A 56531-2022")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 56531-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 56531-2022.docx", "A 56531-2022")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 56531-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 56531-2022.docx", "A 56531-2022")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 56531-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 56531-2022.docx", "A 56531-2022")</f>
         <v/>
       </c>
     </row>
@@ -3541,7 +3542,7 @@
         <v>44950</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3598,27 +3599,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 3510-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 3510-2023.xlsx", "A 3510-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 3510-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 3510-2023.png", "A 3510-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 3510-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 3510-2023.docx", "A 3510-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 3510-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 3510-2023.docx", "A 3510-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 3510-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 3510-2023.docx", "A 3510-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 3510-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 3510-2023.docx", "A 3510-2023")</f>
         <v/>
       </c>
     </row>
@@ -3632,7 +3633,7 @@
         <v>44956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3689,27 +3690,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 4544-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 4544-2023.xlsx", "A 4544-2023")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 4544-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 4544-2023.png", "A 4544-2023")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 4544-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 4544-2023.docx", "A 4544-2023")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 4544-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 4544-2023.docx", "A 4544-2023")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 4544-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 4544-2023.docx", "A 4544-2023")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 4544-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 4544-2023.docx", "A 4544-2023")</f>
         <v/>
       </c>
     </row>
@@ -3723,7 +3724,7 @@
         <v>45084</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3775,27 +3776,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 24680-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 24680-2023.xlsx", "A 24680-2023")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 24680-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 24680-2023.png", "A 24680-2023")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 24680-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 24680-2023.docx", "A 24680-2023")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 24680-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 24680-2023.docx", "A 24680-2023")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 24680-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 24680-2023.docx", "A 24680-2023")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 24680-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 24680-2023.docx", "A 24680-2023")</f>
         <v/>
       </c>
     </row>
@@ -3809,7 +3810,7 @@
         <v>45105</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3866,27 +3867,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 29226-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 29226-2023.xlsx", "A 29226-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 29226-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 29226-2023.png", "A 29226-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 29226-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 29226-2023.docx", "A 29226-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 29226-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 29226-2023.docx", "A 29226-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 29226-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 29226-2023.docx", "A 29226-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 29226-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 29226-2023.docx", "A 29226-2023")</f>
         <v/>
       </c>
     </row>
@@ -3900,7 +3901,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3951,27 +3952,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 57136-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 57136-2018.xlsx", "A 57136-2018")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 57136-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 57136-2018.png", "A 57136-2018")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 57136-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 57136-2018.docx", "A 57136-2018")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 57136-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 57136-2018.docx", "A 57136-2018")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 57136-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 57136-2018.docx", "A 57136-2018")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 57136-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 57136-2018.docx", "A 57136-2018")</f>
         <v/>
       </c>
     </row>
@@ -3985,7 +3986,7 @@
         <v>43486</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4036,27 +4037,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 5014-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 5014-2019.xlsx", "A 5014-2019")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 5014-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 5014-2019.png", "A 5014-2019")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 5014-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 5014-2019.docx", "A 5014-2019")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 5014-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 5014-2019.docx", "A 5014-2019")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 5014-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 5014-2019.docx", "A 5014-2019")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 5014-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 5014-2019.docx", "A 5014-2019")</f>
         <v/>
       </c>
     </row>
@@ -4070,7 +4071,7 @@
         <v>43635</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4121,27 +4122,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 30583-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 30583-2019.xlsx", "A 30583-2019")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 30583-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 30583-2019.png", "A 30583-2019")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 30583-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 30583-2019.docx", "A 30583-2019")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 30583-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 30583-2019.docx", "A 30583-2019")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 30583-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 30583-2019.docx", "A 30583-2019")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 30583-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 30583-2019.docx", "A 30583-2019")</f>
         <v/>
       </c>
     </row>
@@ -4155,7 +4156,7 @@
         <v>43651</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4211,27 +4212,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 33753-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 33753-2019.xlsx", "A 33753-2019")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 33753-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 33753-2019.png", "A 33753-2019")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 33753-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 33753-2019.docx", "A 33753-2019")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 33753-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 33753-2019.docx", "A 33753-2019")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 33753-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 33753-2019.docx", "A 33753-2019")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 33753-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 33753-2019.docx", "A 33753-2019")</f>
         <v/>
       </c>
     </row>
@@ -4245,7 +4246,7 @@
         <v>43847</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4296,27 +4297,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 2391-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 2391-2020.xlsx", "A 2391-2020")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 2391-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 2391-2020.png", "A 2391-2020")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 2391-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 2391-2020.docx", "A 2391-2020")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 2391-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 2391-2020.docx", "A 2391-2020")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 2391-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 2391-2020.docx", "A 2391-2020")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 2391-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 2391-2020.docx", "A 2391-2020")</f>
         <v/>
       </c>
     </row>
@@ -4330,7 +4331,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4381,27 +4382,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 2835-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 2835-2020.xlsx", "A 2835-2020")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 2835-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 2835-2020.png", "A 2835-2020")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 2835-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 2835-2020.docx", "A 2835-2020")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 2835-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 2835-2020.docx", "A 2835-2020")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 2835-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 2835-2020.docx", "A 2835-2020")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 2835-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 2835-2020.docx", "A 2835-2020")</f>
         <v/>
       </c>
     </row>
@@ -4415,7 +4416,7 @@
         <v>43860</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4471,27 +4472,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 5316-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 5316-2020.xlsx", "A 5316-2020")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 5316-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 5316-2020.png", "A 5316-2020")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 5316-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 5316-2020.docx", "A 5316-2020")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 5316-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 5316-2020.docx", "A 5316-2020")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 5316-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 5316-2020.docx", "A 5316-2020")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 5316-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 5316-2020.docx", "A 5316-2020")</f>
         <v/>
       </c>
     </row>
@@ -4505,7 +4506,7 @@
         <v>43906</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4556,27 +4557,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 14008-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 14008-2020.xlsx", "A 14008-2020")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 14008-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 14008-2020.png", "A 14008-2020")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 14008-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 14008-2020.docx", "A 14008-2020")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 14008-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 14008-2020.docx", "A 14008-2020")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 14008-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 14008-2020.docx", "A 14008-2020")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 14008-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 14008-2020.docx", "A 14008-2020")</f>
         <v/>
       </c>
     </row>
@@ -4590,7 +4591,7 @@
         <v>43930</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4646,27 +4647,27 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 18773-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 18773-2020.xlsx", "A 18773-2020")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 18773-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 18773-2020.png", "A 18773-2020")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 18773-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 18773-2020.docx", "A 18773-2020")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 18773-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 18773-2020.docx", "A 18773-2020")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 18773-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 18773-2020.docx", "A 18773-2020")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 18773-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 18773-2020.docx", "A 18773-2020")</f>
         <v/>
       </c>
     </row>
@@ -4680,7 +4681,7 @@
         <v>43931</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4736,27 +4737,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 18788-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 18788-2020.xlsx", "A 18788-2020")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 18788-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 18788-2020.png", "A 18788-2020")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 18788-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 18788-2020.docx", "A 18788-2020")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 18788-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 18788-2020.docx", "A 18788-2020")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 18788-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 18788-2020.docx", "A 18788-2020")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 18788-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 18788-2020.docx", "A 18788-2020")</f>
         <v/>
       </c>
     </row>
@@ -4770,7 +4771,7 @@
         <v>44218</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4821,27 +4822,27 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 3444-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 3444-2021.xlsx", "A 3444-2021")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 3444-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 3444-2021.png", "A 3444-2021")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 3444-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 3444-2021.docx", "A 3444-2021")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 3444-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 3444-2021.docx", "A 3444-2021")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 3444-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 3444-2021.docx", "A 3444-2021")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 3444-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 3444-2021.docx", "A 3444-2021")</f>
         <v/>
       </c>
     </row>
@@ -4855,7 +4856,7 @@
         <v>44551</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4906,27 +4907,27 @@
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 73320-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 73320-2021.xlsx", "A 73320-2021")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 73320-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 73320-2021.png", "A 73320-2021")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 73320-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 73320-2021.docx", "A 73320-2021")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 73320-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 73320-2021.docx", "A 73320-2021")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 73320-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 73320-2021.docx", "A 73320-2021")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 73320-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 73320-2021.docx", "A 73320-2021")</f>
         <v/>
       </c>
     </row>
@@ -4940,7 +4941,7 @@
         <v>44560</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4991,27 +4992,27 @@
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 74472-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 74472-2021.xlsx", "A 74472-2021")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 74472-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 74472-2021.png", "A 74472-2021")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 74472-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 74472-2021.docx", "A 74472-2021")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 74472-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 74472-2021.docx", "A 74472-2021")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 74472-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 74472-2021.docx", "A 74472-2021")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 74472-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 74472-2021.docx", "A 74472-2021")</f>
         <v/>
       </c>
     </row>
@@ -5025,7 +5026,7 @@
         <v>44595</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5076,31 +5077,31 @@
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 5454-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 5454-2022.xlsx", "A 5454-2022")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 5454-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 5454-2022.png", "A 5454-2022")</f>
         <v/>
       </c>
       <c r="U51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/knärot/A 5454-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/knärot/A 5454-2022.png", "A 5454-2022")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 5454-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 5454-2022.docx", "A 5454-2022")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 5454-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 5454-2022.docx", "A 5454-2022")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 5454-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 5454-2022.docx", "A 5454-2022")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 5454-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 5454-2022.docx", "A 5454-2022")</f>
         <v/>
       </c>
     </row>
@@ -5114,7 +5115,7 @@
         <v>44607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5170,27 +5171,27 @@
         </is>
       </c>
       <c r="S52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 7505-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 7505-2022.xlsx", "A 7505-2022")</f>
         <v/>
       </c>
       <c r="T52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 7505-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 7505-2022.png", "A 7505-2022")</f>
         <v/>
       </c>
       <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 7505-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 7505-2022.docx", "A 7505-2022")</f>
         <v/>
       </c>
       <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 7505-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 7505-2022.docx", "A 7505-2022")</f>
         <v/>
       </c>
       <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 7505-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 7505-2022.docx", "A 7505-2022")</f>
         <v/>
       </c>
       <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 7505-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 7505-2022.docx", "A 7505-2022")</f>
         <v/>
       </c>
     </row>
@@ -5204,7 +5205,7 @@
         <v>44742</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5255,27 +5256,27 @@
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 27422-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 27422-2022.xlsx", "A 27422-2022")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 27422-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 27422-2022.png", "A 27422-2022")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 27422-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 27422-2022.docx", "A 27422-2022")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 27422-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 27422-2022.docx", "A 27422-2022")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 27422-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 27422-2022.docx", "A 27422-2022")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 27422-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 27422-2022.docx", "A 27422-2022")</f>
         <v/>
       </c>
     </row>
@@ -5289,7 +5290,7 @@
         <v>44788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5340,27 +5341,27 @@
         </is>
       </c>
       <c r="S54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 33375-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 33375-2022.xlsx", "A 33375-2022")</f>
         <v/>
       </c>
       <c r="T54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 33375-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 33375-2022.png", "A 33375-2022")</f>
         <v/>
       </c>
       <c r="V54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 33375-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 33375-2022.docx", "A 33375-2022")</f>
         <v/>
       </c>
       <c r="W54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 33375-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 33375-2022.docx", "A 33375-2022")</f>
         <v/>
       </c>
       <c r="X54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 33375-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 33375-2022.docx", "A 33375-2022")</f>
         <v/>
       </c>
       <c r="Y54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 33375-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 33375-2022.docx", "A 33375-2022")</f>
         <v/>
       </c>
     </row>
@@ -5374,7 +5375,7 @@
         <v>44823</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5430,27 +5431,27 @@
         </is>
       </c>
       <c r="S55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 40362-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 40362-2022.xlsx", "A 40362-2022")</f>
         <v/>
       </c>
       <c r="T55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 40362-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 40362-2022.png", "A 40362-2022")</f>
         <v/>
       </c>
       <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 40362-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 40362-2022.docx", "A 40362-2022")</f>
         <v/>
       </c>
       <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 40362-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 40362-2022.docx", "A 40362-2022")</f>
         <v/>
       </c>
       <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 40362-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 40362-2022.docx", "A 40362-2022")</f>
         <v/>
       </c>
       <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 40362-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 40362-2022.docx", "A 40362-2022")</f>
         <v/>
       </c>
     </row>
@@ -5464,7 +5465,7 @@
         <v>44845</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5520,27 +5521,27 @@
         </is>
       </c>
       <c r="S56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 45536-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 45536-2022.xlsx", "A 45536-2022")</f>
         <v/>
       </c>
       <c r="T56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 45536-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 45536-2022.png", "A 45536-2022")</f>
         <v/>
       </c>
       <c r="V56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 45536-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 45536-2022.docx", "A 45536-2022")</f>
         <v/>
       </c>
       <c r="W56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 45536-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 45536-2022.docx", "A 45536-2022")</f>
         <v/>
       </c>
       <c r="X56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 45536-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 45536-2022.docx", "A 45536-2022")</f>
         <v/>
       </c>
       <c r="Y56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 45536-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 45536-2022.docx", "A 45536-2022")</f>
         <v/>
       </c>
     </row>
@@ -5554,7 +5555,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5605,27 +5606,27 @@
         </is>
       </c>
       <c r="S57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 47227-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 47227-2022.xlsx", "A 47227-2022")</f>
         <v/>
       </c>
       <c r="T57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 47227-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 47227-2022.png", "A 47227-2022")</f>
         <v/>
       </c>
       <c r="V57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 47227-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 47227-2022.docx", "A 47227-2022")</f>
         <v/>
       </c>
       <c r="W57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 47227-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 47227-2022.docx", "A 47227-2022")</f>
         <v/>
       </c>
       <c r="X57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 47227-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 47227-2022.docx", "A 47227-2022")</f>
         <v/>
       </c>
       <c r="Y57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 47227-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 47227-2022.docx", "A 47227-2022")</f>
         <v/>
       </c>
     </row>
@@ -5639,7 +5640,7 @@
         <v>44894</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5690,27 +5691,27 @@
         </is>
       </c>
       <c r="S58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 56968-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 56968-2022.xlsx", "A 56968-2022")</f>
         <v/>
       </c>
       <c r="T58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 56968-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 56968-2022.png", "A 56968-2022")</f>
         <v/>
       </c>
       <c r="V58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 56968-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 56968-2022.docx", "A 56968-2022")</f>
         <v/>
       </c>
       <c r="W58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 56968-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 56968-2022.docx", "A 56968-2022")</f>
         <v/>
       </c>
       <c r="X58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 56968-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 56968-2022.docx", "A 56968-2022")</f>
         <v/>
       </c>
       <c r="Y58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 56968-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 56968-2022.docx", "A 56968-2022")</f>
         <v/>
       </c>
     </row>
@@ -5724,7 +5725,7 @@
         <v>44960</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5780,27 +5781,27 @@
         </is>
       </c>
       <c r="S59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 5472-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 5472-2023.xlsx", "A 5472-2023")</f>
         <v/>
       </c>
       <c r="T59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 5472-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 5472-2023.png", "A 5472-2023")</f>
         <v/>
       </c>
       <c r="V59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 5472-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 5472-2023.docx", "A 5472-2023")</f>
         <v/>
       </c>
       <c r="W59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 5472-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 5472-2023.docx", "A 5472-2023")</f>
         <v/>
       </c>
       <c r="X59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 5472-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 5472-2023.docx", "A 5472-2023")</f>
         <v/>
       </c>
       <c r="Y59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 5472-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 5472-2023.docx", "A 5472-2023")</f>
         <v/>
       </c>
     </row>
@@ -5814,7 +5815,7 @@
         <v>44970</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5870,27 +5871,27 @@
         </is>
       </c>
       <c r="S60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 7309-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 7309-2023.xlsx", "A 7309-2023")</f>
         <v/>
       </c>
       <c r="T60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 7309-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 7309-2023.png", "A 7309-2023")</f>
         <v/>
       </c>
       <c r="V60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 7309-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 7309-2023.docx", "A 7309-2023")</f>
         <v/>
       </c>
       <c r="W60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 7309-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 7309-2023.docx", "A 7309-2023")</f>
         <v/>
       </c>
       <c r="X60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 7309-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 7309-2023.docx", "A 7309-2023")</f>
         <v/>
       </c>
       <c r="Y60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 7309-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 7309-2023.docx", "A 7309-2023")</f>
         <v/>
       </c>
     </row>
@@ -5904,7 +5905,7 @@
         <v>44984</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5960,27 +5961,27 @@
         </is>
       </c>
       <c r="S61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 9706-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 9706-2023.xlsx", "A 9706-2023")</f>
         <v/>
       </c>
       <c r="T61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 9706-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 9706-2023.png", "A 9706-2023")</f>
         <v/>
       </c>
       <c r="V61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 9706-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 9706-2023.docx", "A 9706-2023")</f>
         <v/>
       </c>
       <c r="W61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 9706-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 9706-2023.docx", "A 9706-2023")</f>
         <v/>
       </c>
       <c r="X61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 9706-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 9706-2023.docx", "A 9706-2023")</f>
         <v/>
       </c>
       <c r="Y61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 9706-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 9706-2023.docx", "A 9706-2023")</f>
         <v/>
       </c>
     </row>
@@ -5994,7 +5995,7 @@
         <v>45160</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6045,27 +6046,27 @@
         </is>
       </c>
       <c r="S62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 38151-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 38151-2023.xlsx", "A 38151-2023")</f>
         <v/>
       </c>
       <c r="T62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 38151-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 38151-2023.png", "A 38151-2023")</f>
         <v/>
       </c>
       <c r="V62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 38151-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 38151-2023.docx", "A 38151-2023")</f>
         <v/>
       </c>
       <c r="W62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 38151-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 38151-2023.docx", "A 38151-2023")</f>
         <v/>
       </c>
       <c r="X62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 38151-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 38151-2023.docx", "A 38151-2023")</f>
         <v/>
       </c>
       <c r="Y62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 38151-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 38151-2023.docx", "A 38151-2023")</f>
         <v/>
       </c>
     </row>
@@ -6079,7 +6080,7 @@
         <v>45163</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6130,27 +6131,27 @@
         </is>
       </c>
       <c r="S63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 38821-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/artfynd/A 38821-2023.xlsx", "A 38821-2023")</f>
         <v/>
       </c>
       <c r="T63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 38821-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/kartor/A 38821-2023.png", "A 38821-2023")</f>
         <v/>
       </c>
       <c r="V63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 38821-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 38821-2023.docx", "A 38821-2023")</f>
         <v/>
       </c>
       <c r="W63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 38821-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 38821-2023.docx", "A 38821-2023")</f>
         <v/>
       </c>
       <c r="X63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 38821-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 38821-2023.docx", "A 38821-2023")</f>
         <v/>
       </c>
       <c r="Y63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 38821-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 38821-2023.docx", "A 38821-2023")</f>
         <v/>
       </c>
     </row>
@@ -6164,7 +6165,7 @@
         <v>43336</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6226,7 +6227,7 @@
         <v>43336</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6288,7 +6289,7 @@
         <v>43343</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6350,7 +6351,7 @@
         <v>43355</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6407,7 +6408,7 @@
         <v>43367</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6464,7 +6465,7 @@
         <v>43371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6526,7 +6527,7 @@
         <v>43378</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6583,7 +6584,7 @@
         <v>43385</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6640,7 +6641,7 @@
         <v>43412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6702,7 +6703,7 @@
         <v>43416</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6764,7 +6765,7 @@
         <v>43419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6826,7 +6827,7 @@
         <v>43419</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6888,7 +6889,7 @@
         <v>43424</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6950,7 +6951,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7007,7 +7008,7 @@
         <v>43434</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7064,7 +7065,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7121,7 +7122,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7178,7 +7179,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7235,7 +7236,7 @@
         <v>43439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7292,7 +7293,7 @@
         <v>43440</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7354,7 +7355,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7416,7 +7417,7 @@
         <v>43446</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7478,7 +7479,7 @@
         <v>43446</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7540,7 +7541,7 @@
         <v>43447</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7602,7 +7603,7 @@
         <v>43447</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7664,7 +7665,7 @@
         <v>43450</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7721,7 +7722,7 @@
         <v>43450</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7778,7 +7779,7 @@
         <v>43450</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7835,7 +7836,7 @@
         <v>43451</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7897,7 +7898,7 @@
         <v>43462</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7954,7 +7955,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8011,7 +8012,7 @@
         <v>43476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8068,7 +8069,7 @@
         <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8125,7 +8126,7 @@
         <v>43486</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8182,7 +8183,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8239,7 +8240,7 @@
         <v>43488</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8296,7 +8297,7 @@
         <v>43488</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8353,7 +8354,7 @@
         <v>43495</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8410,7 +8411,7 @@
         <v>43496</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8467,7 +8468,7 @@
         <v>43500</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8524,7 +8525,7 @@
         <v>43514</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8581,7 +8582,7 @@
         <v>43517</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8638,7 +8639,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8695,7 +8696,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8752,7 +8753,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8809,7 +8810,7 @@
         <v>43528</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8866,7 +8867,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8928,7 +8929,7 @@
         <v>43536</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8985,7 +8986,7 @@
         <v>43539</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9042,7 +9043,7 @@
         <v>43559</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9099,7 +9100,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9156,7 +9157,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9213,7 +9214,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9270,7 +9271,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9327,7 +9328,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9384,7 +9385,7 @@
         <v>43633</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9446,7 +9447,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9508,7 +9509,7 @@
         <v>43642</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9565,7 +9566,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9627,7 +9628,7 @@
         <v>43656</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9684,7 +9685,7 @@
         <v>43656</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9741,7 +9742,7 @@
         <v>43668</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9803,7 +9804,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9860,7 +9861,7 @@
         <v>43686</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9917,7 +9918,7 @@
         <v>43692</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9974,7 +9975,7 @@
         <v>43692</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10031,7 +10032,7 @@
         <v>43706</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10088,7 +10089,7 @@
         <v>43707</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10150,7 +10151,7 @@
         <v>43711</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10212,7 +10213,7 @@
         <v>43733</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10269,7 +10270,7 @@
         <v>43733</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10326,7 +10327,7 @@
         <v>43734</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10383,7 +10384,7 @@
         <v>43738</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10440,7 +10441,7 @@
         <v>43740</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10497,7 +10498,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10554,7 +10555,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10611,7 +10612,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10668,7 +10669,7 @@
         <v>43756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10730,7 +10731,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10787,7 +10788,7 @@
         <v>43770</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10844,7 +10845,7 @@
         <v>43770</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10906,7 +10907,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10968,7 +10969,7 @@
         <v>43780</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11025,7 +11026,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11082,7 +11083,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11144,7 +11145,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11206,7 +11207,7 @@
         <v>43797</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11263,7 +11264,7 @@
         <v>43801</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11320,7 +11321,7 @@
         <v>43801</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11377,7 +11378,7 @@
         <v>43802</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11434,7 +11435,7 @@
         <v>43812</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11491,7 +11492,7 @@
         <v>43829</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11553,7 +11554,7 @@
         <v>43839</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11610,7 +11611,7 @@
         <v>43843</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11667,7 +11668,7 @@
         <v>43853</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11724,7 +11725,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11786,7 +11787,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11848,7 +11849,7 @@
         <v>43874</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11905,7 +11906,7 @@
         <v>43875</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11962,7 +11963,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12019,7 +12020,7 @@
         <v>43880</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12076,7 +12077,7 @@
         <v>43882</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12138,7 +12139,7 @@
         <v>43893</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12200,7 +12201,7 @@
         <v>43896</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12257,7 +12258,7 @@
         <v>43900</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12319,7 +12320,7 @@
         <v>43901</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12381,7 +12382,7 @@
         <v>43906</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12438,7 +12439,7 @@
         <v>43913</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12500,7 +12501,7 @@
         <v>43913</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12562,7 +12563,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12624,7 +12625,7 @@
         <v>43938</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12686,7 +12687,7 @@
         <v>43957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12743,7 +12744,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12800,7 +12801,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12862,7 +12863,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12924,7 +12925,7 @@
         <v>43965</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12981,7 +12982,7 @@
         <v>43983</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13038,7 +13039,7 @@
         <v>43985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13095,7 +13096,7 @@
         <v>43985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13152,7 +13153,7 @@
         <v>43985</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13209,7 +13210,7 @@
         <v>43993</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13271,7 +13272,7 @@
         <v>44006</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13328,7 +13329,7 @@
         <v>44007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13385,7 +13386,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13442,7 +13443,7 @@
         <v>44013</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13504,7 +13505,7 @@
         <v>44021</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13566,7 +13567,7 @@
         <v>44022</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13623,7 +13624,7 @@
         <v>44025</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13680,7 +13681,7 @@
         <v>44029</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13742,7 +13743,7 @@
         <v>44043</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13804,7 +13805,7 @@
         <v>44049</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13861,7 +13862,7 @@
         <v>44056</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13918,7 +13919,7 @@
         <v>44056</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13975,7 +13976,7 @@
         <v>44085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14037,7 +14038,7 @@
         <v>44088</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14099,7 +14100,7 @@
         <v>44097</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14156,7 +14157,7 @@
         <v>44106</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14213,7 +14214,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14270,7 +14271,7 @@
         <v>44111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14327,7 +14328,7 @@
         <v>44116</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14384,7 +14385,7 @@
         <v>44144</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14441,7 +14442,7 @@
         <v>44150</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14498,7 +14499,7 @@
         <v>44151</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14555,7 +14556,7 @@
         <v>44154</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14612,7 +14613,7 @@
         <v>44154</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14669,7 +14670,7 @@
         <v>44154</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14726,7 +14727,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14788,7 +14789,7 @@
         <v>44200</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14845,7 +14846,7 @@
         <v>44208</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14902,7 +14903,7 @@
         <v>44208</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14964,7 +14965,7 @@
         <v>44211</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15021,7 +15022,7 @@
         <v>44214</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15078,7 +15079,7 @@
         <v>44215</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15135,7 +15136,7 @@
         <v>44218</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15192,7 +15193,7 @@
         <v>44231</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15254,7 +15255,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15316,7 +15317,7 @@
         <v>44266</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15378,7 +15379,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15435,7 +15436,7 @@
         <v>44281</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15492,7 +15493,7 @@
         <v>44286</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15549,7 +15550,7 @@
         <v>44286</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15611,7 +15612,7 @@
         <v>44290</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15673,7 +15674,7 @@
         <v>44291</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15735,7 +15736,7 @@
         <v>44308</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15797,7 +15798,7 @@
         <v>44309</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15859,7 +15860,7 @@
         <v>44323</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15921,7 +15922,7 @@
         <v>44333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15983,7 +15984,7 @@
         <v>44333</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16045,7 +16046,7 @@
         <v>44335</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16102,7 +16103,7 @@
         <v>44335</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16164,7 +16165,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16226,7 +16227,7 @@
         <v>44337</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16283,7 +16284,7 @@
         <v>44337</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16345,7 +16346,7 @@
         <v>44347</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16407,7 +16408,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16469,7 +16470,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16531,7 +16532,7 @@
         <v>44371</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16593,7 +16594,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16655,7 +16656,7 @@
         <v>44389</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16717,7 +16718,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16779,7 +16780,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16836,7 +16837,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16898,7 +16899,7 @@
         <v>44421</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16960,7 +16961,7 @@
         <v>44427</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17022,7 +17023,7 @@
         <v>44431</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17079,7 +17080,7 @@
         <v>44434</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17141,7 +17142,7 @@
         <v>44438</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17198,7 +17199,7 @@
         <v>44440</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17260,7 +17261,7 @@
         <v>44441</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17322,7 +17323,7 @@
         <v>44446</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17384,7 +17385,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17446,7 +17447,7 @@
         <v>44452</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17503,7 +17504,7 @@
         <v>44452</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17560,7 +17561,7 @@
         <v>44452</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17622,7 +17623,7 @@
         <v>44453</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17679,7 +17680,7 @@
         <v>44453</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17736,7 +17737,7 @@
         <v>44453</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17793,7 +17794,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17855,7 +17856,7 @@
         <v>44459</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17917,7 +17918,7 @@
         <v>44463</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17979,7 +17980,7 @@
         <v>44469</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18041,7 +18042,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18098,7 +18099,7 @@
         <v>44481</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18160,7 +18161,7 @@
         <v>44482</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18222,7 +18223,7 @@
         <v>44491</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18284,7 +18285,7 @@
         <v>44496</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18341,7 +18342,7 @@
         <v>44496</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18398,7 +18399,7 @@
         <v>44515</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18455,7 +18456,7 @@
         <v>44529</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18517,7 +18518,7 @@
         <v>44547</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18574,7 +18575,7 @@
         <v>44548</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18631,7 +18632,7 @@
         <v>44560</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18688,7 +18689,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18745,7 +18746,7 @@
         <v>44578</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18802,7 +18803,7 @@
         <v>44579</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18859,7 +18860,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18916,7 +18917,7 @@
         <v>44581</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18973,7 +18974,7 @@
         <v>44581</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19030,7 +19031,7 @@
         <v>44581</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19087,7 +19088,7 @@
         <v>44588</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19144,7 +19145,7 @@
         <v>44603</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19201,7 +19202,7 @@
         <v>44616</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19258,7 +19259,7 @@
         <v>44617</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19315,7 +19316,7 @@
         <v>44644</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19372,7 +19373,7 @@
         <v>44656</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19434,7 +19435,7 @@
         <v>44670</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19491,7 +19492,7 @@
         <v>44677</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19548,7 +19549,7 @@
         <v>44677</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19610,7 +19611,7 @@
         <v>44689</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19672,7 +19673,7 @@
         <v>44696</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19729,7 +19730,7 @@
         <v>44700</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19786,7 +19787,7 @@
         <v>44701</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19848,7 +19849,7 @@
         <v>44704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19905,7 +19906,7 @@
         <v>44704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19962,7 +19963,7 @@
         <v>44704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20024,7 +20025,7 @@
         <v>44705</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20086,7 +20087,7 @@
         <v>44708</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20148,7 +20149,7 @@
         <v>44708</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20210,7 +20211,7 @@
         <v>44713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20272,7 +20273,7 @@
         <v>44713</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20334,7 +20335,7 @@
         <v>44722</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20396,7 +20397,7 @@
         <v>44725</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20443,23 +20444,23 @@
       </c>
       <c r="R305" s="2" t="inlineStr"/>
       <c r="U305">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/knärot/A 24264-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/knärot/A 24264-2022.png", "A 24264-2022")</f>
         <v/>
       </c>
       <c r="V305">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 24264-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomål/A 24264-2022.docx", "A 24264-2022")</f>
         <v/>
       </c>
       <c r="W305">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 24264-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/klagomålsmail/A 24264-2022.docx", "A 24264-2022")</f>
         <v/>
       </c>
       <c r="X305">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 24264-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsyn/A 24264-2022.docx", "A 24264-2022")</f>
         <v/>
       </c>
       <c r="Y305">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 24264-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIERP/tillsynsmail/A 24264-2022.docx", "A 24264-2022")</f>
         <v/>
       </c>
     </row>
@@ -20473,7 +20474,7 @@
         <v>44726</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20535,7 +20536,7 @@
         <v>44728</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20592,7 +20593,7 @@
         <v>44732</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20654,7 +20655,7 @@
         <v>44734</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20711,7 +20712,7 @@
         <v>44734</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20768,7 +20769,7 @@
         <v>44735</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20825,7 +20826,7 @@
         <v>44739</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20882,7 +20883,7 @@
         <v>44739</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20939,7 +20940,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21001,7 +21002,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21058,7 +21059,7 @@
         <v>44743</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21115,7 +21116,7 @@
         <v>44747</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21177,7 +21178,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21234,7 +21235,7 @@
         <v>44750</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21296,7 +21297,7 @@
         <v>44750</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21358,7 +21359,7 @@
         <v>44755</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21415,7 +21416,7 @@
         <v>44756</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21472,7 +21473,7 @@
         <v>44769</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21529,7 +21530,7 @@
         <v>44788</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21586,7 +21587,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21643,7 +21644,7 @@
         <v>44804</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21700,7 +21701,7 @@
         <v>44804</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21757,7 +21758,7 @@
         <v>44827</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21814,7 +21815,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21871,7 +21872,7 @@
         <v>44843</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21928,7 +21929,7 @@
         <v>44847</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21985,7 +21986,7 @@
         <v>44858</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22042,7 +22043,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22104,7 +22105,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22161,7 +22162,7 @@
         <v>44865</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22218,7 +22219,7 @@
         <v>44865</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22275,7 +22276,7 @@
         <v>44865</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22337,7 +22338,7 @@
         <v>44874</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22394,7 +22395,7 @@
         <v>44880</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22451,7 +22452,7 @@
         <v>44883</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22508,7 +22509,7 @@
         <v>44887</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22570,7 +22571,7 @@
         <v>44887</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22627,7 +22628,7 @@
         <v>44887</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22684,7 +22685,7 @@
         <v>44888</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22741,7 +22742,7 @@
         <v>44890</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22798,7 +22799,7 @@
         <v>44894</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22855,7 +22856,7 @@
         <v>44894</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22912,7 +22913,7 @@
         <v>44903</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22969,7 +22970,7 @@
         <v>44907</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23026,7 +23027,7 @@
         <v>44908</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23088,7 +23089,7 @@
         <v>44909</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23145,7 +23146,7 @@
         <v>44911</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23207,7 +23208,7 @@
         <v>44917</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23264,7 +23265,7 @@
         <v>44922</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23326,7 +23327,7 @@
         <v>44924</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23383,7 +23384,7 @@
         <v>44924</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23440,7 +23441,7 @@
         <v>44929</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23497,7 +23498,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23554,7 +23555,7 @@
         <v>44945</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23611,7 +23612,7 @@
         <v>44945</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23668,7 +23669,7 @@
         <v>44945</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23725,7 +23726,7 @@
         <v>44953</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23782,7 +23783,7 @@
         <v>44956</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23839,7 +23840,7 @@
         <v>44957</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23896,7 +23897,7 @@
         <v>44964</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23958,7 +23959,7 @@
         <v>44964</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24020,7 +24021,7 @@
         <v>44964</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24082,7 +24083,7 @@
         <v>44964</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24144,7 +24145,7 @@
         <v>44964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24206,7 +24207,7 @@
         <v>44964</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24268,7 +24269,7 @@
         <v>44964</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24330,7 +24331,7 @@
         <v>44964</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24387,7 +24388,7 @@
         <v>44964</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24449,7 +24450,7 @@
         <v>44966</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24511,7 +24512,7 @@
         <v>44966</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24568,7 +24569,7 @@
         <v>44966</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24625,7 +24626,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24687,7 +24688,7 @@
         <v>44971</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24744,7 +24745,7 @@
         <v>44973</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24801,7 +24802,7 @@
         <v>44980</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24858,7 +24859,7 @@
         <v>44980</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24915,7 +24916,7 @@
         <v>44984</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24972,7 +24973,7 @@
         <v>44984</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25029,7 +25030,7 @@
         <v>44988</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25091,7 +25092,7 @@
         <v>44991</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25148,7 +25149,7 @@
         <v>44994</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25210,7 +25211,7 @@
         <v>45005</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25272,7 +25273,7 @@
         <v>45005</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25329,7 +25330,7 @@
         <v>45013</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25386,7 +25387,7 @@
         <v>45013</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25448,7 +25449,7 @@
         <v>45022</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25505,7 +25506,7 @@
         <v>45027</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25567,7 +25568,7 @@
         <v>45027</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25629,7 +25630,7 @@
         <v>45028</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25686,7 +25687,7 @@
         <v>45030</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25748,7 +25749,7 @@
         <v>45033</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25805,7 +25806,7 @@
         <v>45040</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25867,7 +25868,7 @@
         <v>45040</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25924,7 +25925,7 @@
         <v>45041</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25986,7 +25987,7 @@
         <v>45043</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26048,7 +26049,7 @@
         <v>45046</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26105,7 +26106,7 @@
         <v>45046</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26162,7 +26163,7 @@
         <v>45046</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26219,7 +26220,7 @@
         <v>45049</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26276,7 +26277,7 @@
         <v>45057</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26338,7 +26339,7 @@
         <v>45057</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26395,7 +26396,7 @@
         <v>45061</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26457,7 +26458,7 @@
         <v>45061</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26519,7 +26520,7 @@
         <v>45061</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26581,7 +26582,7 @@
         <v>45062</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26643,7 +26644,7 @@
         <v>45063</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26700,7 +26701,7 @@
         <v>45063</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26762,7 +26763,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26819,7 +26820,7 @@
         <v>45075</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26881,7 +26882,7 @@
         <v>45080</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26938,7 +26939,7 @@
         <v>45084</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26995,7 +26996,7 @@
         <v>45092</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27052,7 +27053,7 @@
         <v>45092</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27109,7 +27110,7 @@
         <v>45092</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27166,7 +27167,7 @@
         <v>45098</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27228,7 +27229,7 @@
         <v>45099</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27290,7 +27291,7 @@
         <v>45105</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27347,7 +27348,7 @@
         <v>45106</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27404,7 +27405,7 @@
         <v>45111</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27461,7 +27462,7 @@
         <v>45119</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27523,7 +27524,7 @@
         <v>45127</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27580,7 +27581,7 @@
         <v>45130</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27637,7 +27638,7 @@
         <v>45133</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27699,7 +27700,7 @@
         <v>45135</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27761,7 +27762,7 @@
         <v>45135</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27823,7 +27824,7 @@
         <v>45138</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27885,7 +27886,7 @@
         <v>45142</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27947,7 +27948,7 @@
         <v>45146</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28009,7 +28010,7 @@
         <v>45148</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28071,7 +28072,7 @@
         <v>45153</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28133,7 +28134,7 @@
         <v>45161</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28195,7 +28196,7 @@
         <v>45162</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28257,7 +28258,7 @@
         <v>45167</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28314,7 +28315,7 @@
         <v>45168</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28376,7 +28377,7 @@
         <v>45174</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28438,7 +28439,7 @@
         <v>45181</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>

--- a/Översikt TIERP.xlsx
+++ b/Översikt TIERP.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y441"/>
+  <dimension ref="A1:Y442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44376</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>43627</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44651</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44980</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>43381</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>45040</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44361</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44552</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44995</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>45180</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43768</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>44550</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>44551</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44662</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>44875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44950</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44966</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44970</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43488</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43664</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44468</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>44636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44651</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44846</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44887</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44950</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>44956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45084</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45105</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43486</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43635</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43651</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43847</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43860</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43906</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43930</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43931</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44218</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44551</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44560</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44595</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>44607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44742</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>44823</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44845</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>44894</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>44960</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44970</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>44984</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>45160</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>45163</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43336</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43336</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43343</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>43355</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43367</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43378</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43385</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43416</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>43419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43419</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43424</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43434</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43440</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43446</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>43446</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43447</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43447</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43450</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43450</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43450</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>43451</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43462</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43486</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43488</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43488</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43495</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43496</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43500</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43514</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43517</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43528</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43536</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43539</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43559</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43633</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>43642</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>43656</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>43656</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>43668</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>43686</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>43692</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>43692</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>43706</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43707</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43711</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43733</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>43733</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43734</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43738</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43740</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>43770</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>43770</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>43780</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43797</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43801</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43801</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43802</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43812</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43829</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43839</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43843</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43853</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43874</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43875</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>43880</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>43882</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>43893</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43896</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43900</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>43901</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43906</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43913</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>43913</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43938</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12687,7 +12687,7 @@
         <v>43957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12744,7 +12744,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>43965</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>43983</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>43985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>43985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>43985</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>43993</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44006</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44013</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44021</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44022</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44025</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44029</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44043</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44049</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44056</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44056</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44088</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44097</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44106</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44116</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44144</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44150</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44151</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44154</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44154</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44154</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44200</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44208</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44208</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44211</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44214</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44215</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>44218</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44231</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>44266</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44281</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44286</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44286</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44290</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44291</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>44308</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>44309</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44323</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44333</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44335</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>44335</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44337</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>44337</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44347</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44371</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44389</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>44421</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44427</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>44431</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>44434</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17142,7 +17142,7 @@
         <v>44438</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17199,7 +17199,7 @@
         <v>44440</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>44441</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>44446</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17385,7 +17385,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>44452</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>44452</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>44452</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44453</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44453</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44453</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>44459</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44463</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44469</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>44481</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44482</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44491</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44496</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44496</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44515</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>44529</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44547</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44548</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44560</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44578</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44579</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44581</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44581</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44581</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44588</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44603</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44616</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44617</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>44644</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44656</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44670</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44677</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44677</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>44689</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>44696</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44700</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>44701</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>44705</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44708</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44708</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44713</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44722</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44725</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44726</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44728</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44732</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44734</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44734</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44735</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>44739</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44739</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>44743</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>44747</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44750</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44750</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44755</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44756</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44769</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44788</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44804</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44804</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44827</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44843</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44847</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44858</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22105,7 +22105,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22162,7 +22162,7 @@
         <v>44865</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22219,7 +22219,7 @@
         <v>44865</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>44865</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
         <v>44874</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>44880</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44883</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         <v>44887</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>44887</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
         <v>44887</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22685,7 +22685,7 @@
         <v>44888</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>44890</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22799,7 +22799,7 @@
         <v>44894</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22856,7 +22856,7 @@
         <v>44894</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44903</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44907</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>44908</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44909</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44911</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44917</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44922</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>44924</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>44924</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44929</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44945</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44945</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44945</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>44953</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>44956</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>44957</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23897,7 +23897,7 @@
         <v>44964</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>44964</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44964</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44964</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>44964</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24269,7 +24269,7 @@
         <v>44964</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44964</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44964</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24450,7 +24450,7 @@
         <v>44966</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>44966</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>44966</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44971</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44973</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>44980</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         <v>44980</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>44984</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44984</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44988</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>44991</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44994</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45005</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45005</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45013</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>45013</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45022</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45027</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25568,7 +25568,7 @@
         <v>45027</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25630,7 +25630,7 @@
         <v>45028</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25687,7 +25687,7 @@
         <v>45030</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>45033</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>45040</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>45040</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25925,7 +25925,7 @@
         <v>45041</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>45043</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45046</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45046</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45046</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45049</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45057</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26339,7 +26339,7 @@
         <v>45057</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26396,7 +26396,7 @@
         <v>45061</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>45061</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26520,7 +26520,7 @@
         <v>45061</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45062</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26644,7 +26644,7 @@
         <v>45063</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26701,7 +26701,7 @@
         <v>45063</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26763,7 +26763,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26820,7 +26820,7 @@
         <v>45075</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26882,7 +26882,7 @@
         <v>45080</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26939,7 +26939,7 @@
         <v>45084</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26996,7 +26996,7 @@
         <v>45092</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27053,7 +27053,7 @@
         <v>45092</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>45092</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27167,7 +27167,7 @@
         <v>45098</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27229,7 +27229,7 @@
         <v>45099</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>45105</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>45106</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>45111</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>45119</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>45127</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>45130</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>45133</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>45135</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>45135</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>45138</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>45142</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>45146</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>45148</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>45153</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28134,7 +28134,7 @@
         <v>45161</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>45162</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>45167</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>45168</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>45174</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
       </c>
       <c r="R440" s="2" t="inlineStr"/>
     </row>
-    <row r="441">
+    <row r="441" ht="15" customHeight="1">
       <c r="A441" t="inlineStr">
         <is>
           <t>A 42642-2023</t>
@@ -28439,7 +28439,7 @@
         <v>45181</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28485,6 +28485,68 @@
         <v>0</v>
       </c>
       <c r="R441" s="2" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>A 43722-2023</t>
+        </is>
+      </c>
+      <c r="B442" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C442" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
+      <c r="G442" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0</v>
+      </c>
+      <c r="I442" t="n">
+        <v>0</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0</v>
+      </c>
+      <c r="L442" t="n">
+        <v>0</v>
+      </c>
+      <c r="M442" t="n">
+        <v>0</v>
+      </c>
+      <c r="N442" t="n">
+        <v>0</v>
+      </c>
+      <c r="O442" t="n">
+        <v>0</v>
+      </c>
+      <c r="P442" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q442" t="n">
+        <v>0</v>
+      </c>
+      <c r="R442" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt TIERP.xlsx
+++ b/Översikt TIERP.xlsx
@@ -572,7 +572,7 @@
         <v>44376</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>43627</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44651</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44980</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>43381</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>45040</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44361</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44552</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44995</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>45180</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43768</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>44550</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>44551</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44662</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>44875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44950</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44966</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44970</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43488</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43664</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44468</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>44636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44651</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44846</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44887</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44950</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>44956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45084</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45105</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43486</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43635</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43651</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43847</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43860</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43906</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43930</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43931</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44218</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44551</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44560</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44595</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>44607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44742</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>44823</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44845</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>44894</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>44960</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44970</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>44984</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>45160</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>45163</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43336</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43336</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43343</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>43355</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43367</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43378</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43385</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43416</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>43419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43419</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43424</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43434</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43440</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43446</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>43446</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43447</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43447</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43450</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43450</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43450</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>43451</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43462</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43486</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43488</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43488</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43495</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43496</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43500</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43514</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43517</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43528</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43536</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43539</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43559</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43633</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>43642</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>43656</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>43656</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>43668</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>43686</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>43692</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>43692</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>43706</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43707</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43711</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43733</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>43733</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43734</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43738</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43740</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>43770</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>43770</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>43780</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43797</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43801</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43801</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43802</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43812</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43829</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43839</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43843</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43853</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43874</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43875</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>43880</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>43882</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>43893</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43896</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43900</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>43901</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43906</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43913</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>43913</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43938</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12687,7 +12687,7 @@
         <v>43957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12744,7 +12744,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>43965</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>43983</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>43985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>43985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>43985</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>43993</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44006</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44013</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44021</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44022</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44025</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44029</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44043</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44049</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44056</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44056</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44088</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44097</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44106</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44116</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44144</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44150</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44151</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44154</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44154</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44154</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44200</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44208</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44208</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44211</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44214</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44215</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>44218</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44231</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>44266</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44281</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44286</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44286</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44290</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44291</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>44308</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>44309</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44323</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44333</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44335</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>44335</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44337</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>44337</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44347</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44371</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44389</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>44421</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44427</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>44431</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>44434</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17142,7 +17142,7 @@
         <v>44438</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17199,7 +17199,7 @@
         <v>44440</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>44441</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>44446</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17385,7 +17385,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>44452</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>44452</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>44452</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44453</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44453</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44453</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>44459</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44463</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44469</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>44481</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44482</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44491</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44496</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44496</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44515</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>44529</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44547</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44548</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44560</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44578</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44579</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44581</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44581</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44581</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44588</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44603</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44616</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44617</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>44644</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44656</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44670</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44677</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44677</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>44689</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>44696</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44700</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>44701</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>44705</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44708</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44708</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44713</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44722</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44725</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44726</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44728</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44732</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44734</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44734</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44735</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>44739</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44739</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>44743</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>44747</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44750</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44750</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44755</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44756</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44769</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44788</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44804</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44804</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44827</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44843</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44847</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44858</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22105,7 +22105,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22162,7 +22162,7 @@
         <v>44865</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22219,7 +22219,7 @@
         <v>44865</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>44865</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
         <v>44874</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>44880</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44883</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         <v>44887</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>44887</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
         <v>44887</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22685,7 +22685,7 @@
         <v>44888</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>44890</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22799,7 +22799,7 @@
         <v>44894</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22856,7 +22856,7 @@
         <v>44894</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44903</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44907</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>44908</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44909</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44911</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44917</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44922</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>44924</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>44924</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44929</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44945</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44945</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44945</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>44953</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>44956</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>44957</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23897,7 +23897,7 @@
         <v>44964</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>44964</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44964</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44964</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>44964</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24269,7 +24269,7 @@
         <v>44964</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44964</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44964</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24450,7 +24450,7 @@
         <v>44966</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>44966</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>44966</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44971</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44973</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>44980</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         <v>44980</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>44984</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44984</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44988</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>44991</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44994</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45005</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45005</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45013</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>45013</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45022</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45027</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25568,7 +25568,7 @@
         <v>45027</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25630,7 +25630,7 @@
         <v>45028</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25687,7 +25687,7 @@
         <v>45030</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>45033</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>45040</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>45040</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25925,7 +25925,7 @@
         <v>45041</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>45043</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45046</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45046</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45046</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45049</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45057</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26339,7 +26339,7 @@
         <v>45057</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26396,7 +26396,7 @@
         <v>45061</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>45061</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26520,7 +26520,7 @@
         <v>45061</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45062</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26644,7 +26644,7 @@
         <v>45063</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26701,7 +26701,7 @@
         <v>45063</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26763,7 +26763,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26820,7 +26820,7 @@
         <v>45075</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26882,7 +26882,7 @@
         <v>45080</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26939,7 +26939,7 @@
         <v>45084</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26996,7 +26996,7 @@
         <v>45092</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27053,7 +27053,7 @@
         <v>45092</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>45092</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27167,7 +27167,7 @@
         <v>45098</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27229,7 +27229,7 @@
         <v>45099</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>45105</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>45106</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>45111</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>45119</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>45127</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>45130</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>45133</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>45135</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>45135</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>45138</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>45142</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>45146</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>45148</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>45153</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28134,7 +28134,7 @@
         <v>45161</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>45162</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>45167</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>45168</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>45174</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28439,7 +28439,7 @@
         <v>45181</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>45187</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>

--- a/Översikt TIERP.xlsx
+++ b/Översikt TIERP.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y442"/>
+  <dimension ref="A1:Y444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44376</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>43627</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44651</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44980</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>43381</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>45040</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44361</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44552</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44995</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>45180</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43768</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>44550</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>44551</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44662</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>44875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44950</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44966</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44970</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43488</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43664</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44468</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>44636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44651</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44846</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44887</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44950</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>44956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45084</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45105</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43486</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43635</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43651</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43847</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43860</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43906</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43930</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43931</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44218</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44551</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44560</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44595</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>44607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44742</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>44823</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44845</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>44894</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>44960</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44970</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>44984</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>45160</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>45163</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43336</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43336</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43343</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>43355</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43367</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43378</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43385</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43416</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>43419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43419</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43424</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43434</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43440</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43446</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>43446</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43447</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43447</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43450</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43450</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43450</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>43451</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43462</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43486</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43488</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43488</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43495</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43496</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43500</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43514</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43517</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43528</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43536</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43539</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43559</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43633</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>43642</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>43656</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>43656</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>43668</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>43686</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>43692</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>43692</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>43706</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43707</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43711</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43733</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>43733</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43734</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43738</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43740</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>43770</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>43770</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>43780</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43797</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43801</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43801</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43802</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43812</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43829</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43839</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43843</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43853</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43874</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43875</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>43880</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>43882</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>43893</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43896</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43900</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>43901</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43906</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43913</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>43913</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43938</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12687,7 +12687,7 @@
         <v>43957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12744,7 +12744,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>43965</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>43983</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>43985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>43985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>43985</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>43993</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44006</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44013</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44021</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44022</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44025</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44029</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44043</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44049</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44056</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44056</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44088</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44097</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44106</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44116</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44144</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44150</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44151</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44154</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44154</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44154</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44200</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44208</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44208</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44211</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44214</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44215</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>44218</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44231</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>44266</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44281</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44286</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44286</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44290</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44291</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>44308</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>44309</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44323</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44333</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44335</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>44335</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44337</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>44337</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44347</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44371</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44389</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>44421</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44427</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>44431</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>44434</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17142,7 +17142,7 @@
         <v>44438</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17199,7 +17199,7 @@
         <v>44440</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>44441</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>44446</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17385,7 +17385,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>44452</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>44452</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>44452</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44453</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44453</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44453</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>44459</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44463</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44469</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>44481</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44482</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44491</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44496</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44496</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44515</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>44529</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44547</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44548</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44560</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44578</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44579</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44581</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44581</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44581</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44588</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44603</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44616</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44617</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>44644</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44656</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44670</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44677</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44677</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>44689</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>44696</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44700</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>44701</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>44705</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44708</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44708</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44713</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44722</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44725</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44726</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44728</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44732</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44734</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44734</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44735</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>44739</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44739</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>44743</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>44747</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44750</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44750</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44755</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44756</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44769</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44788</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44804</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44804</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44827</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44843</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44847</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44858</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22105,7 +22105,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22162,7 +22162,7 @@
         <v>44865</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22219,7 +22219,7 @@
         <v>44865</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>44865</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
         <v>44874</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>44880</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44883</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         <v>44887</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>44887</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
         <v>44887</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22685,7 +22685,7 @@
         <v>44888</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>44890</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22799,7 +22799,7 @@
         <v>44894</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22856,7 +22856,7 @@
         <v>44894</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44903</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44907</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>44908</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44909</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44911</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44917</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44922</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>44924</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>44924</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44929</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44945</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44945</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44945</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>44953</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>44956</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>44957</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23897,7 +23897,7 @@
         <v>44964</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>44964</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44964</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44964</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>44964</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24269,7 +24269,7 @@
         <v>44964</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44964</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44964</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24450,7 +24450,7 @@
         <v>44966</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>44966</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>44966</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44971</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44973</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>44980</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         <v>44980</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>44984</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44984</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44988</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>44991</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44994</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45005</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45005</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45013</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>45013</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45022</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45027</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25568,7 +25568,7 @@
         <v>45027</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25630,7 +25630,7 @@
         <v>45028</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25687,7 +25687,7 @@
         <v>45030</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>45033</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>45040</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>45040</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25925,7 +25925,7 @@
         <v>45041</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>45043</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45046</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45046</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45046</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45049</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45057</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26339,7 +26339,7 @@
         <v>45057</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26396,7 +26396,7 @@
         <v>45061</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>45061</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26520,7 +26520,7 @@
         <v>45061</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45062</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26644,7 +26644,7 @@
         <v>45063</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26701,7 +26701,7 @@
         <v>45063</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26763,7 +26763,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26820,7 +26820,7 @@
         <v>45075</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26882,7 +26882,7 @@
         <v>45080</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26939,7 +26939,7 @@
         <v>45084</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26996,7 +26996,7 @@
         <v>45092</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27053,7 +27053,7 @@
         <v>45092</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>45092</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27167,7 +27167,7 @@
         <v>45098</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27229,7 +27229,7 @@
         <v>45099</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>45105</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>45106</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>45111</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>45119</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>45127</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>45130</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>45133</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>45135</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>45135</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>45138</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>45142</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>45146</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>45148</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>45153</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28134,7 +28134,7 @@
         <v>45161</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>45162</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>45167</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>45168</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>45174</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28439,7 +28439,7 @@
         <v>45181</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28486,7 +28486,7 @@
       </c>
       <c r="R441" s="2" t="inlineStr"/>
     </row>
-    <row r="442">
+    <row r="442" ht="15" customHeight="1">
       <c r="A442" t="inlineStr">
         <is>
           <t>A 43722-2023</t>
@@ -28496,7 +28496,7 @@
         <v>45187</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28547,6 +28547,130 @@
         <v>0</v>
       </c>
       <c r="R442" s="2" t="inlineStr"/>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>A 44438-2023</t>
+        </is>
+      </c>
+      <c r="B443" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C443" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
+      <c r="G443" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0</v>
+      </c>
+      <c r="I443" t="n">
+        <v>0</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0</v>
+      </c>
+      <c r="L443" t="n">
+        <v>0</v>
+      </c>
+      <c r="M443" t="n">
+        <v>0</v>
+      </c>
+      <c r="N443" t="n">
+        <v>0</v>
+      </c>
+      <c r="O443" t="n">
+        <v>0</v>
+      </c>
+      <c r="P443" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q443" t="n">
+        <v>0</v>
+      </c>
+      <c r="R443" s="2" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>A 44430-2023</t>
+        </is>
+      </c>
+      <c r="B444" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C444" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
+      <c r="G444" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0</v>
+      </c>
+      <c r="I444" t="n">
+        <v>0</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0</v>
+      </c>
+      <c r="L444" t="n">
+        <v>0</v>
+      </c>
+      <c r="M444" t="n">
+        <v>0</v>
+      </c>
+      <c r="N444" t="n">
+        <v>0</v>
+      </c>
+      <c r="O444" t="n">
+        <v>0</v>
+      </c>
+      <c r="P444" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q444" t="n">
+        <v>0</v>
+      </c>
+      <c r="R444" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt TIERP.xlsx
+++ b/Översikt TIERP.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y444"/>
+  <dimension ref="A1:Y446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44376</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>43627</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44651</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44980</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>43381</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>45040</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44361</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44552</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44995</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>45180</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43768</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>44550</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>44551</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44662</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>44875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44950</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44966</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44970</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43488</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43664</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44468</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>44636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44651</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44846</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44887</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44950</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>44956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45084</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45105</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43486</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43635</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43651</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43847</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43860</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43906</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43930</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43931</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44218</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44551</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44560</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44595</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>44607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44742</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>44823</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44845</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>44894</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>44960</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44970</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>44984</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>45160</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>45163</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43336</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43336</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43343</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>43355</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43367</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43378</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43385</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43416</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>43419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43419</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43424</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43434</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43440</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43446</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>43446</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43447</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43447</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43450</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43450</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43450</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>43451</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43462</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43486</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43488</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43488</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43495</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43496</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43500</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43514</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43517</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43528</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43536</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43539</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43559</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43633</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>43642</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>43656</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>43656</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>43668</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>43686</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>43692</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>43692</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>43706</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43707</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43711</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43733</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>43733</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43734</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43738</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43740</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>43770</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>43770</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>43780</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43797</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43801</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43801</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43802</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43812</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43829</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43839</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43843</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43853</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43874</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43875</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>43880</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>43882</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>43893</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43896</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43900</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>43901</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43906</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43913</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>43913</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43938</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12687,7 +12687,7 @@
         <v>43957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12744,7 +12744,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>43965</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>43983</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>43985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>43985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>43985</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>43993</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44006</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44013</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44021</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44022</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44025</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44029</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44043</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44049</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44056</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44056</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44088</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44097</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44106</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44116</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44144</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44150</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44151</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44154</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44154</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44154</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44200</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44208</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44208</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44211</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44214</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44215</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>44218</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44231</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>44266</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44281</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44286</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44286</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44290</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44291</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>44308</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>44309</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44323</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44333</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44335</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>44335</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44337</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>44337</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44347</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44371</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44389</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>44421</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44427</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>44431</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>44434</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17142,7 +17142,7 @@
         <v>44438</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17199,7 +17199,7 @@
         <v>44440</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>44441</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>44446</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17385,7 +17385,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>44452</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>44452</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>44452</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44453</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44453</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44453</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>44459</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44463</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44469</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>44481</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44482</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44491</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44496</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44496</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44515</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>44529</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44547</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44548</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44560</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44578</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44579</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44581</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44581</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44581</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44588</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44603</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44616</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44617</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>44644</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44656</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44670</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44677</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44677</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>44689</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>44696</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44700</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>44701</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>44705</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44708</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44708</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44713</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44722</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44725</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44726</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44728</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44732</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44734</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44734</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44735</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>44739</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44739</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>44743</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>44747</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44750</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44750</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44755</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44756</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44769</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44788</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44804</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44804</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44827</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44843</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44847</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44858</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22105,7 +22105,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22162,7 +22162,7 @@
         <v>44865</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22219,7 +22219,7 @@
         <v>44865</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>44865</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
         <v>44874</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>44880</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44883</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         <v>44887</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>44887</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
         <v>44887</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22685,7 +22685,7 @@
         <v>44888</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>44890</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22799,7 +22799,7 @@
         <v>44894</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22856,7 +22856,7 @@
         <v>44894</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44903</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44907</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>44908</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44909</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44911</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44917</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44922</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>44924</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>44924</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44929</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44945</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44945</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44945</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>44953</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>44956</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>44957</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23897,7 +23897,7 @@
         <v>44964</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>44964</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44964</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44964</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>44964</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24269,7 +24269,7 @@
         <v>44964</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44964</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44964</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24450,7 +24450,7 @@
         <v>44966</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>44966</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>44966</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44971</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44973</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>44980</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         <v>44980</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>44984</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44984</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44988</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>44991</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44994</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45005</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45005</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45013</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>45013</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45022</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45027</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25568,7 +25568,7 @@
         <v>45027</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25630,7 +25630,7 @@
         <v>45028</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25687,7 +25687,7 @@
         <v>45030</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>45033</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>45040</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>45040</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25925,7 +25925,7 @@
         <v>45041</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>45043</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45046</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45046</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45046</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45049</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45057</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26339,7 +26339,7 @@
         <v>45057</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26396,7 +26396,7 @@
         <v>45061</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>45061</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26520,7 +26520,7 @@
         <v>45061</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45062</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26644,7 +26644,7 @@
         <v>45063</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26701,7 +26701,7 @@
         <v>45063</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26763,7 +26763,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26820,7 +26820,7 @@
         <v>45075</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26882,7 +26882,7 @@
         <v>45080</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26939,7 +26939,7 @@
         <v>45084</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26996,7 +26996,7 @@
         <v>45092</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27053,7 +27053,7 @@
         <v>45092</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>45092</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27167,7 +27167,7 @@
         <v>45098</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27229,7 +27229,7 @@
         <v>45099</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>45105</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>45106</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>45111</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>45119</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>45127</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>45130</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>45133</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>45135</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>45135</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>45138</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>45142</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>45146</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>45148</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>45153</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28134,7 +28134,7 @@
         <v>45161</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>45162</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>45167</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>45168</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>45174</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28439,7 +28439,7 @@
         <v>45181</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>45187</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>45189</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28610,7 +28610,7 @@
       </c>
       <c r="R443" s="2" t="inlineStr"/>
     </row>
-    <row r="444">
+    <row r="444" ht="15" customHeight="1">
       <c r="A444" t="inlineStr">
         <is>
           <t>A 44430-2023</t>
@@ -28620,7 +28620,7 @@
         <v>45189</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28671,6 +28671,125 @@
         <v>0</v>
       </c>
       <c r="R444" s="2" t="inlineStr"/>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>A 44762-2023</t>
+        </is>
+      </c>
+      <c r="B445" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C445" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="G445" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0</v>
+      </c>
+      <c r="I445" t="n">
+        <v>0</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0</v>
+      </c>
+      <c r="L445" t="n">
+        <v>0</v>
+      </c>
+      <c r="M445" t="n">
+        <v>0</v>
+      </c>
+      <c r="N445" t="n">
+        <v>0</v>
+      </c>
+      <c r="O445" t="n">
+        <v>0</v>
+      </c>
+      <c r="P445" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q445" t="n">
+        <v>0</v>
+      </c>
+      <c r="R445" s="2" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>A 45080-2023</t>
+        </is>
+      </c>
+      <c r="B446" s="1" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C446" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
+      <c r="G446" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H446" t="n">
+        <v>0</v>
+      </c>
+      <c r="I446" t="n">
+        <v>0</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0</v>
+      </c>
+      <c r="L446" t="n">
+        <v>0</v>
+      </c>
+      <c r="M446" t="n">
+        <v>0</v>
+      </c>
+      <c r="N446" t="n">
+        <v>0</v>
+      </c>
+      <c r="O446" t="n">
+        <v>0</v>
+      </c>
+      <c r="P446" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q446" t="n">
+        <v>0</v>
+      </c>
+      <c r="R446" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt TIERP.xlsx
+++ b/Översikt TIERP.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y446"/>
+  <dimension ref="A1:Y447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44376</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>43627</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44651</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44980</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>43381</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>45040</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44361</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44552</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44995</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>45180</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43768</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>44550</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>44551</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44662</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>44875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44950</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44966</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44970</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43488</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43664</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44468</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>44636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44651</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44846</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44887</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44950</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>44956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45084</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45105</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43486</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43635</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43651</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43847</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43860</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43906</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43930</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43931</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44218</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44551</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44560</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44595</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>44607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44742</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>44823</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44845</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>44894</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>44960</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44970</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>44984</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>45160</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>45163</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43336</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43336</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43343</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>43355</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43367</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43378</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43385</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43416</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>43419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43419</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43424</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43434</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43440</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43446</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>43446</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43447</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43447</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43450</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43450</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43450</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>43451</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43462</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43486</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43488</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43488</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43495</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43496</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43500</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43514</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43517</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43528</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43536</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43539</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43559</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43633</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>43642</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>43656</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>43656</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>43668</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>43686</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>43692</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>43692</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>43706</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43707</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43711</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43733</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>43733</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43734</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43738</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43740</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>43770</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>43770</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>43780</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43797</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43801</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43801</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43802</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43812</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43829</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43839</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43843</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43853</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43874</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43875</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>43880</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>43882</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>43893</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43896</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43900</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>43901</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43906</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43913</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>43913</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43938</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12687,7 +12687,7 @@
         <v>43957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12744,7 +12744,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>43965</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>43983</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>43985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>43985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>43985</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>43993</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44006</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44013</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44021</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44022</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44025</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44029</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44043</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44049</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44056</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44056</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44088</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44097</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44106</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44116</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44144</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44150</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44151</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44154</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44154</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44154</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44200</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44208</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44208</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44211</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44214</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44215</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>44218</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44231</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>44266</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44281</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44286</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44286</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44290</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44291</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>44308</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>44309</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44323</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44333</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44335</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>44335</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44337</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>44337</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44347</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44371</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44389</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>44421</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44427</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>44431</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>44434</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17142,7 +17142,7 @@
         <v>44438</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17199,7 +17199,7 @@
         <v>44440</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>44441</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>44446</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17385,7 +17385,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>44452</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>44452</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>44452</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44453</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44453</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44453</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>44459</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44463</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44469</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>44481</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44482</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44491</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44496</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44496</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44515</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>44529</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44547</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44548</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44560</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44578</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44579</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44581</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44581</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44581</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44588</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44603</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44616</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44617</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>44644</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44656</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44670</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44677</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44677</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>44689</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>44696</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44700</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>44701</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>44705</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44708</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44708</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44713</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44722</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44725</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44726</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44728</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44732</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44734</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44734</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44735</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>44739</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44739</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>44743</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>44747</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44750</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44750</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44755</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44756</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44769</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44788</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44804</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44804</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44827</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44843</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44847</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44858</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22105,7 +22105,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22162,7 +22162,7 @@
         <v>44865</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22219,7 +22219,7 @@
         <v>44865</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>44865</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
         <v>44874</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>44880</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44883</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         <v>44887</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>44887</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
         <v>44887</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22685,7 +22685,7 @@
         <v>44888</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>44890</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22799,7 +22799,7 @@
         <v>44894</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22856,7 +22856,7 @@
         <v>44894</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44903</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44907</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>44908</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44909</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44911</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44917</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44922</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>44924</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>44924</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44929</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44945</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44945</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44945</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>44953</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>44956</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>44957</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23897,7 +23897,7 @@
         <v>44964</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>44964</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44964</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44964</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>44964</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24269,7 +24269,7 @@
         <v>44964</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44964</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44964</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24450,7 +24450,7 @@
         <v>44966</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>44966</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>44966</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44971</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44973</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>44980</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         <v>44980</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>44984</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44984</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44988</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>44991</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44994</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45005</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45005</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45013</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>45013</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45022</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45027</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25568,7 +25568,7 @@
         <v>45027</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25630,7 +25630,7 @@
         <v>45028</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25687,7 +25687,7 @@
         <v>45030</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>45033</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>45040</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>45040</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25925,7 +25925,7 @@
         <v>45041</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>45043</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45046</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45046</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45046</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45049</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45057</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26339,7 +26339,7 @@
         <v>45057</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26396,7 +26396,7 @@
         <v>45061</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>45061</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26520,7 +26520,7 @@
         <v>45061</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45062</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26644,7 +26644,7 @@
         <v>45063</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26701,7 +26701,7 @@
         <v>45063</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26763,7 +26763,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26820,7 +26820,7 @@
         <v>45075</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26882,7 +26882,7 @@
         <v>45080</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26939,7 +26939,7 @@
         <v>45084</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26996,7 +26996,7 @@
         <v>45092</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27053,7 +27053,7 @@
         <v>45092</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>45092</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27167,7 +27167,7 @@
         <v>45098</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27229,7 +27229,7 @@
         <v>45099</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>45105</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>45106</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>45111</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>45119</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>45127</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>45130</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>45133</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>45135</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>45135</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>45138</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>45142</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>45146</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>45148</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>45153</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28134,7 +28134,7 @@
         <v>45161</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>45162</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>45167</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>45168</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>45174</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28439,7 +28439,7 @@
         <v>45181</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>45187</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>45189</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28620,7 +28620,7 @@
         <v>45189</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28682,7 +28682,7 @@
         <v>45190</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
       </c>
       <c r="R445" s="2" t="inlineStr"/>
     </row>
-    <row r="446">
+    <row r="446" ht="15" customHeight="1">
       <c r="A446" t="inlineStr">
         <is>
           <t>A 45080-2023</t>
@@ -28739,7 +28739,7 @@
         <v>45191</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28790,6 +28790,63 @@
         <v>0</v>
       </c>
       <c r="R446" s="2" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>A 46522-2023</t>
+        </is>
+      </c>
+      <c r="B447" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C447" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="G447" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="H447" t="n">
+        <v>0</v>
+      </c>
+      <c r="I447" t="n">
+        <v>0</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0</v>
+      </c>
+      <c r="L447" t="n">
+        <v>0</v>
+      </c>
+      <c r="M447" t="n">
+        <v>0</v>
+      </c>
+      <c r="N447" t="n">
+        <v>0</v>
+      </c>
+      <c r="O447" t="n">
+        <v>0</v>
+      </c>
+      <c r="P447" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q447" t="n">
+        <v>0</v>
+      </c>
+      <c r="R447" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt TIERP.xlsx
+++ b/Översikt TIERP.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y447"/>
+  <dimension ref="A1:Y448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44376</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>43627</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44651</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44980</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>43381</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>45040</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44361</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44552</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44995</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>45180</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43768</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>44550</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>44551</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44662</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>44875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44950</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44966</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44970</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43488</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43664</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44468</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>44636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44651</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44846</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44887</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44950</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>44956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45084</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45105</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43486</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43635</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43651</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43847</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43860</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43906</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43930</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43931</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44218</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44551</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44560</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44595</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>44607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44742</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>44823</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44845</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>44894</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>44960</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44970</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>44984</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>45160</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>45163</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43336</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43336</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43343</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>43355</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43367</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43378</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43385</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43416</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>43419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43419</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43424</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43434</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43440</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43446</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>43446</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43447</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43447</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43450</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43450</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43450</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>43451</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43462</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43486</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43488</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43488</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43495</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43496</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43500</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43514</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43517</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43528</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43536</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43539</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43559</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43633</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>43642</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>43656</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>43656</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>43668</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>43686</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>43692</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>43692</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>43706</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43707</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43711</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43733</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>43733</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43734</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43738</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43740</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>43770</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>43770</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>43780</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43797</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43801</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43801</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43802</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43812</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43829</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43839</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43843</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43853</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43874</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43875</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>43880</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>43882</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>43893</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43896</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43900</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>43901</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43906</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43913</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>43913</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43938</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12687,7 +12687,7 @@
         <v>43957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12744,7 +12744,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>43965</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>43983</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>43985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>43985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>43985</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>43993</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44006</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44013</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44021</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44022</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44025</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44029</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44043</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44049</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44056</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44056</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44088</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44097</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44106</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44116</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44144</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44150</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44151</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44154</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44154</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44154</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44200</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44208</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44208</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44211</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44214</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44215</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>44218</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44231</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>44266</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44281</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44286</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44286</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44290</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44291</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>44308</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>44309</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44323</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44333</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44335</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>44335</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44337</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>44337</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44347</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44371</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44389</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>44421</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44427</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>44431</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>44434</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17142,7 +17142,7 @@
         <v>44438</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17199,7 +17199,7 @@
         <v>44440</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>44441</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>44446</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17385,7 +17385,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>44452</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>44452</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>44452</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44453</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44453</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44453</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>44459</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44463</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44469</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>44481</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44482</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44491</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44496</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44496</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44515</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>44529</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44547</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44548</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44560</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44578</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44579</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44581</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44581</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44581</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44588</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44603</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44616</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44617</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>44644</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44656</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44670</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44677</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44677</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>44689</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>44696</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44700</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>44701</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>44705</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44708</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44708</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44713</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44722</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44725</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44726</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44728</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44732</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44734</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44734</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44735</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>44739</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44739</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>44743</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>44747</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44750</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44750</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44755</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44756</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44769</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44788</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44804</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44804</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44827</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44843</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44847</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44858</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22105,7 +22105,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22162,7 +22162,7 @@
         <v>44865</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22219,7 +22219,7 @@
         <v>44865</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>44865</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
         <v>44874</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>44880</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44883</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         <v>44887</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>44887</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
         <v>44887</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22685,7 +22685,7 @@
         <v>44888</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>44890</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22799,7 +22799,7 @@
         <v>44894</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22856,7 +22856,7 @@
         <v>44894</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44903</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44907</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>44908</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44909</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44911</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44917</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44922</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>44924</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>44924</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44929</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44945</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44945</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44945</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>44953</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>44956</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>44957</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23897,7 +23897,7 @@
         <v>44964</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>44964</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44964</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44964</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>44964</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24269,7 +24269,7 @@
         <v>44964</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44964</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44964</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24450,7 +24450,7 @@
         <v>44966</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>44966</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>44966</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44971</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44973</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>44980</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         <v>44980</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>44984</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44984</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44988</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>44991</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44994</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45005</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45005</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45013</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>45013</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45022</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45027</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25568,7 +25568,7 @@
         <v>45027</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25630,7 +25630,7 @@
         <v>45028</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25687,7 +25687,7 @@
         <v>45030</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>45033</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>45040</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>45040</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25925,7 +25925,7 @@
         <v>45041</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>45043</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45046</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45046</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45046</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45049</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45057</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26339,7 +26339,7 @@
         <v>45057</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26396,7 +26396,7 @@
         <v>45061</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>45061</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26520,7 +26520,7 @@
         <v>45061</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45062</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26644,7 +26644,7 @@
         <v>45063</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26701,7 +26701,7 @@
         <v>45063</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26763,7 +26763,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26820,7 +26820,7 @@
         <v>45075</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26882,7 +26882,7 @@
         <v>45080</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26939,7 +26939,7 @@
         <v>45084</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26996,7 +26996,7 @@
         <v>45092</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27053,7 +27053,7 @@
         <v>45092</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>45092</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27167,7 +27167,7 @@
         <v>45098</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27229,7 +27229,7 @@
         <v>45099</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>45105</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>45106</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>45111</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>45119</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>45127</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>45130</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>45133</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>45135</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>45135</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>45138</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>45142</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>45146</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>45148</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>45153</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28134,7 +28134,7 @@
         <v>45161</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>45162</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>45167</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>45168</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>45174</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28439,7 +28439,7 @@
         <v>45181</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>45187</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>45189</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28620,7 +28620,7 @@
         <v>45189</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28682,7 +28682,7 @@
         <v>45190</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28739,7 +28739,7 @@
         <v>45191</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
       </c>
       <c r="R446" s="2" t="inlineStr"/>
     </row>
-    <row r="447">
+    <row r="447" ht="15" customHeight="1">
       <c r="A447" t="inlineStr">
         <is>
           <t>A 46522-2023</t>
@@ -28801,7 +28801,7 @@
         <v>45197</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28847,6 +28847,68 @@
         <v>0</v>
       </c>
       <c r="R447" s="2" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>A 47034-2023</t>
+        </is>
+      </c>
+      <c r="B448" s="1" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C448" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
+      <c r="G448" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H448" t="n">
+        <v>0</v>
+      </c>
+      <c r="I448" t="n">
+        <v>0</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0</v>
+      </c>
+      <c r="L448" t="n">
+        <v>0</v>
+      </c>
+      <c r="M448" t="n">
+        <v>0</v>
+      </c>
+      <c r="N448" t="n">
+        <v>0</v>
+      </c>
+      <c r="O448" t="n">
+        <v>0</v>
+      </c>
+      <c r="P448" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q448" t="n">
+        <v>0</v>
+      </c>
+      <c r="R448" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt TIERP.xlsx
+++ b/Översikt TIERP.xlsx
@@ -572,7 +572,7 @@
         <v>44376</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>43627</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44651</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44980</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>43381</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>45040</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44361</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44552</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44995</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>45180</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43768</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>44550</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>44551</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44662</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>44875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44950</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44966</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44970</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43488</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43664</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44468</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>44636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44651</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44846</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44887</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44950</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>44956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45084</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45105</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43486</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43635</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43651</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43847</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43860</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43906</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43930</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43931</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44218</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44551</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44560</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44595</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>44607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44742</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>44823</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44845</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>44894</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>44960</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44970</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>44984</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>45160</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>45163</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43336</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43336</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43343</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>43355</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43367</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43378</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43385</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43416</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>43419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43419</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43424</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43434</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43440</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43446</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>43446</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43447</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43447</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43450</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43450</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43450</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>43451</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43462</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43486</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43486</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43488</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43488</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43495</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43496</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43500</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43514</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43517</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43528</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43528</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43529</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43536</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43539</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43559</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43633</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>43642</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>43656</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>43656</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>43668</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>43686</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>43692</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>43692</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>43706</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43707</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43711</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43733</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>43733</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43734</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43738</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43740</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43761</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>43770</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>43770</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>43780</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43797</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43801</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43801</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43802</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43812</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43829</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43839</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43843</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43853</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43874</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43875</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>43880</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>43882</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>43893</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43896</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43900</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>43901</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>43906</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>43913</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>43913</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>43938</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12687,7 +12687,7 @@
         <v>43957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12744,7 +12744,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>43965</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>43983</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>43985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>43985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>43985</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>43993</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44006</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44013</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44021</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44022</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44025</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44029</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44043</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44049</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44056</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44056</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44088</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44097</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44106</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44116</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44144</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44150</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44151</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44154</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44154</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44154</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44165</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44200</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44208</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44208</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44211</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44214</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44215</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>44218</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44231</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>44266</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44281</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44286</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44286</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44290</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44291</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>44308</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>44309</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44323</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44333</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44335</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>44335</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44337</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>44337</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44347</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44371</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44389</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>44421</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44427</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>44431</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>44434</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17142,7 +17142,7 @@
         <v>44438</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17199,7 +17199,7 @@
         <v>44440</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>44441</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>44446</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17385,7 +17385,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>44452</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>44452</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>44452</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44453</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44453</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44453</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44459</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>44459</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44463</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44469</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>44481</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44482</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44491</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44496</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44496</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44515</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>44529</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44547</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44548</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44560</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44578</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44579</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44581</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44581</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44581</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44588</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44603</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44616</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44617</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>44644</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44656</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44670</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44677</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44677</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>44689</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>44696</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44700</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>44701</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>44705</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44708</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44708</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44713</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44713</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44722</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44725</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44726</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44728</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44732</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44734</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44734</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44735</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>44739</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44739</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>44743</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>44747</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44750</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44750</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44755</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44756</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44769</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44788</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44804</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44804</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44827</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44843</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44847</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44858</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22105,7 +22105,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22162,7 +22162,7 @@
         <v>44865</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22219,7 +22219,7 @@
         <v>44865</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>44865</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
         <v>44874</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>44880</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44883</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         <v>44887</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>44887</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
         <v>44887</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22685,7 +22685,7 @@
         <v>44888</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>44890</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22799,7 +22799,7 @@
         <v>44894</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22856,7 +22856,7 @@
         <v>44894</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44903</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44907</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>44908</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44909</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44911</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44917</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44922</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>44924</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>44924</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44929</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44945</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44945</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44945</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>44953</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>44956</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>44957</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23897,7 +23897,7 @@
         <v>44964</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>44964</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44964</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44964</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>44964</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24269,7 +24269,7 @@
         <v>44964</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44964</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44964</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24450,7 +24450,7 @@
         <v>44966</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>44966</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>44966</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44971</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44973</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>44980</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         <v>44980</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>44984</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44984</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44988</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>44991</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44994</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45005</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45005</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45013</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>45013</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45022</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45027</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25568,7 +25568,7 @@
         <v>45027</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25630,7 +25630,7 @@
         <v>45028</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25687,7 +25687,7 @@
         <v>45030</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>45033</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>45040</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>45040</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25925,7 +25925,7 @@
         <v>45041</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>45043</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45046</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45046</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45046</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45049</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45057</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26339,7 +26339,7 @@
         <v>45057</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26396,7 +26396,7 @@
         <v>45061</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>45061</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26520,7 +26520,7 @@
         <v>45061</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45062</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26644,7 +26644,7 @@
         <v>45063</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26701,7 +26701,7 @@
         <v>45063</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26763,7 +26763,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26820,7 +26820,7 @@
         <v>45075</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26882,7 +26882,7 @@
         <v>45080</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26939,7 +26939,7 @@
         <v>45084</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26996,7 +26996,7 @@
         <v>45092</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27053,7 +27053,7 @@
         <v>45092</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>45092</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27167,7 +27167,7 @@
         <v>45098</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27229,7 +27229,7 @@
         <v>45099</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>45105</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>45106</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>45111</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>45119</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>45127</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>45130</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>45133</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>45135</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>45135</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>45138</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>45142</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>45146</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>45148</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>45153</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28134,7 +28134,7 @@
         <v>45161</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>45162</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>45167</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>45168</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>45174</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28439,7 +28439,7 @@
         <v>45181</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>45187</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>45189</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28620,7 +28620,7 @@
         <v>45189</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28682,7 +28682,7 @@
         <v>45190</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28739,7 +28739,7 @@
         <v>45191</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45197</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>45201</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>

--- a/Översikt TIERP.xlsx
+++ b/Översikt TIERP.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y449"/>
+  <dimension ref="A1:Y452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44376</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>43627</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44651</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>44977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44980</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>43381</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>45040</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44361</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44552</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44995</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>45180</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43768</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>44550</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>44551</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44662</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>44875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44950</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44966</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44970</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43488</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43664</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44468</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>44636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44651</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44846</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44887</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44950</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>44956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45084</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45105</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>45204</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43403</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>43486</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43635</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43651</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43847</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43850</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43860</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43906</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43930</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43931</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>44218</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44551</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44560</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44595</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>44607</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>44742</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>44788</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44823</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44845</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>44852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44894</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>44960</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>44970</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44984</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45160</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>45163</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43336</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43336</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>43343</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43355</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43367</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43371</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43378</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43412</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43416</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43419</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>43419</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>43424</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>43427</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>43434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>43438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>43439</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>43440</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>43446</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>43446</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43446</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43447</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>43447</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>43450</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>43450</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43450</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43451</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>43462</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>43475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43476</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>43486</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>43486</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>43488</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>43488</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>43488</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         <v>43495</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>43496</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>43514</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>43517</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>43521</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>43522</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>43528</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43528</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>43529</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43536</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>43539</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>43559</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>43612</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>43633</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>43641</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43642</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43651</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9714,7 +9714,7 @@
         <v>43656</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         <v>43656</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         <v>43668</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43676</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43686</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43692</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43692</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43706</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43707</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>43711</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>43733</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>43733</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>43734</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>43738</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>43740</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>43741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>43746</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>43747</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>43756</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>43761</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43770</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>43770</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>43774</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>43780</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>43796</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>43797</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>43801</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>43801</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>43802</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>43812</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>43829</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43839</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43843</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43853</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11873,7 +11873,7 @@
         <v>43859</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>43874</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>43875</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>43878</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>43880</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>43882</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>43893</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>43896</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>43900</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12406,7 +12406,7 @@
         <v>43901</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
         <v>43906</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12525,7 +12525,7 @@
         <v>43913</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>43913</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>43936</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43938</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>43957</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>43958</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>43963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>43964</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>43965</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>43983</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>43985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>43985</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>43985</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>43993</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>44006</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>44007</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44008</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44013</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44021</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         <v>44022</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13710,7 +13710,7 @@
         <v>44025</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13767,7 +13767,7 @@
         <v>44029</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>44043</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44049</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44056</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44056</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44085</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44088</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44097</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44106</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>44144</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>44150</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>44151</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44154</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44154</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44154</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44165</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44200</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44208</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44208</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>44211</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>44214</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44215</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>44218</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>44231</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>44237</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>44266</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44270</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44281</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44286</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44286</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44290</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>44291</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15822,7 +15822,7 @@
         <v>44308</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44309</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>44323</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16008,7 +16008,7 @@
         <v>44333</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44333</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>44335</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>44335</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44337</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16313,7 +16313,7 @@
         <v>44337</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>44337</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>44347</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>44365</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>44368</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16618,7 +16618,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>44382</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44389</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         <v>44417</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16923,7 +16923,7 @@
         <v>44421</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16985,7 +16985,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>44427</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44431</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44434</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>44438</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>44440</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44441</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44446</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17471,7 +17471,7 @@
         <v>44452</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44452</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44452</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44452</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>44453</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17766,7 +17766,7 @@
         <v>44453</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>44453</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44459</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>44459</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>44463</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>44469</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44480</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44481</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>44482</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44491</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44496</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44496</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44515</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44529</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>44547</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>44548</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>44560</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>44571</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>44578</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44579</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>44580</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>44581</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>44581</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>44581</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>44588</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>44603</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>44616</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>44617</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>44644</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>44656</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>44670</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>44677</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>44677</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19697,7 +19697,7 @@
         <v>44689</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44696</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44700</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         <v>44701</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19935,7 +19935,7 @@
         <v>44704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19992,7 +19992,7 @@
         <v>44704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20049,7 +20049,7 @@
         <v>44704</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>44705</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44708</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>44708</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>44713</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44713</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>44722</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>44725</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>44726</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44728</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44732</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>44734</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44734</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44735</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>44739</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>44739</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>44742</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         <v>44743</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>44743</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         <v>44747</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21264,7 +21264,7 @@
         <v>44748</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>44750</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>44750</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>44755</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>44756</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>44769</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>44788</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>44792</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>44804</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>44804</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>44827</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>44837</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>44843</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>44847</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>44858</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44859</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44865</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>44865</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44865</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44874</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>44880</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>44883</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>44887</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22657,7 +22657,7 @@
         <v>44887</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>44887</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         <v>44888</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22828,7 +22828,7 @@
         <v>44890</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22885,7 +22885,7 @@
         <v>44894</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22942,7 +22942,7 @@
         <v>44894</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22999,7 +22999,7 @@
         <v>44903</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23056,7 +23056,7 @@
         <v>44907</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
         <v>44908</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>44909</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>44911</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>44917</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44922</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>44924</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>44924</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>44929</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>44936</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44945</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>44945</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>44945</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>44953</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>44956</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>44957</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>44964</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24045,7 +24045,7 @@
         <v>44964</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>44964</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24231,7 +24231,7 @@
         <v>44964</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>44964</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>44964</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24417,7 +24417,7 @@
         <v>44964</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24474,7 +24474,7 @@
         <v>44964</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24536,7 +24536,7 @@
         <v>44966</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44966</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>44966</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>44971</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24774,7 +24774,7 @@
         <v>44971</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>44973</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24888,7 +24888,7 @@
         <v>44980</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24945,7 +24945,7 @@
         <v>44980</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>44984</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25059,7 +25059,7 @@
         <v>44984</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25116,7 +25116,7 @@
         <v>44988</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25178,7 +25178,7 @@
         <v>44991</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>44994</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45005</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>45005</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>45013</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>45013</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>45022</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>45027</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25654,7 +25654,7 @@
         <v>45027</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25716,7 +25716,7 @@
         <v>45028</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25773,7 +25773,7 @@
         <v>45030</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25835,7 +25835,7 @@
         <v>45033</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>45040</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45040</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45041</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>45043</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>45046</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>45046</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26249,7 +26249,7 @@
         <v>45046</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>45049</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>45057</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45057</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>45061</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26544,7 +26544,7 @@
         <v>45061</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26606,7 +26606,7 @@
         <v>45061</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         <v>45062</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26730,7 +26730,7 @@
         <v>45063</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26787,7 +26787,7 @@
         <v>45063</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>45072</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26906,7 +26906,7 @@
         <v>45075</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>45080</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>45084</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>45092</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>45092</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>45092</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>45098</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>45099</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>45105</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27434,7 +27434,7 @@
         <v>45106</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>45111</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27548,7 +27548,7 @@
         <v>45119</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>45127</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>45130</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>45133</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27786,7 +27786,7 @@
         <v>45135</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45135</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>45138</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>45142</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>45146</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28096,7 +28096,7 @@
         <v>45148</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28158,7 +28158,7 @@
         <v>45153</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>45161</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28282,7 +28282,7 @@
         <v>45162</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>45167</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>45168</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>45174</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45181</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>45187</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>45189</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45189</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>45190</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>45191</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>45197</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
       </c>
       <c r="R448" s="2" t="inlineStr"/>
     </row>
-    <row r="449">
+    <row r="449" ht="15" customHeight="1">
       <c r="A449" t="inlineStr">
         <is>
           <t>A 47034-2023</t>
@@ -28944,7 +28944,7 @@
         <v>45201</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28995,6 +28995,177 @@
         <v>0</v>
       </c>
       <c r="R449" s="2" t="inlineStr"/>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>A 47977-2023</t>
+        </is>
+      </c>
+      <c r="B450" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C450" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="G450" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H450" t="n">
+        <v>0</v>
+      </c>
+      <c r="I450" t="n">
+        <v>0</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0</v>
+      </c>
+      <c r="L450" t="n">
+        <v>0</v>
+      </c>
+      <c r="M450" t="n">
+        <v>0</v>
+      </c>
+      <c r="N450" t="n">
+        <v>0</v>
+      </c>
+      <c r="O450" t="n">
+        <v>0</v>
+      </c>
+      <c r="P450" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q450" t="n">
+        <v>0</v>
+      </c>
+      <c r="R450" s="2" t="inlineStr"/>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>A 47960-2023</t>
+        </is>
+      </c>
+      <c r="B451" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C451" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="G451" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0</v>
+      </c>
+      <c r="I451" t="n">
+        <v>0</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0</v>
+      </c>
+      <c r="L451" t="n">
+        <v>0</v>
+      </c>
+      <c r="M451" t="n">
+        <v>0</v>
+      </c>
+      <c r="N451" t="n">
+        <v>0</v>
+      </c>
+      <c r="O451" t="n">
+        <v>0</v>
+      </c>
+      <c r="P451" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q451" t="n">
+        <v>0</v>
+      </c>
+      <c r="R451" s="2" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>A 47968-2023</t>
+        </is>
+      </c>
+      <c r="B452" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C452" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>TIERP</t>
+        </is>
+      </c>
+      <c r="G452" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0</v>
+      </c>
+      <c r="I452" t="n">
+        <v>0</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0</v>
+      </c>
+      <c r="L452" t="n">
+        <v>0</v>
+      </c>
+      <c r="M452" t="n">
+        <v>0</v>
+      </c>
+      <c r="N452" t="n">
+        <v>0</v>
+      </c>
+      <c r="O452" t="n">
+        <v>0</v>
+      </c>
+      <c r="P452" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q452" t="n">
+        <v>0</v>
+      </c>
+      <c r="R452" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
